--- a/code/excels/items/imba_items.xlsx
+++ b/code/excels/items/imba_items.xlsx
@@ -7188,15 +7188,15 @@
   <dimension ref="A1:CR293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G293"/>
+      <selection activeCell="A23" sqref="$A23:$XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.25" customWidth="1"/>
+    <col min="1" max="1" width="45.4166666666667" customWidth="1"/>
     <col min="2" max="7" width="18.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="32.25" customWidth="1"/>
-    <col min="9" max="9" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="40.8333333333333" customWidth="1"/>
     <col min="10" max="10" width="15.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31841,7 +31841,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H1:H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18:H19 H20 H21 H22 H23 H24 H25 H26 H27 H28:H32 H33 H34 H35 H36 H37 H38:H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71 H72 H73 H74 H75 H76 H77 H78 H79 H80 H81 H82:H85 H86 H87 H88 H89 H90 H91 H92 H93 H94 H95 H96 H97 H98 H99 H100 H101 H102 H103:H104 H105 H106 H107 H108 H109 H110 H111 H112 H113 H114 H115 H116 H117 H118:H119 H120 H121 H122 H123 H124 H125 H126 H127 H128 H129 H130 H131 H132 H133 H134 H135 H136 H137 H138 H139 H140 H141 H142 H143 H144 H145 H146 H147:H151 H152 H153 H154 H155 H156 H157 H158 H159 H160 H161 H162 H163 H164 H165 H166 H167 H168 H169 H170 H171 H172 H173 H174 H175 H176 H177 H178 H179 H180 H181 H182 H183 H184 H185 H186 H187 H188 H189 H191 H192 H193 H194 H195 H196 H197 H198 H199:H207 H208 H209:H210 H211 H212 H213 H214 H215 H216 H217 H218 H219 H220 H221 H222 H223 H224 H225 H226 H227 H228 H229 H230 H231 H232 H233 H234 H235 H236 H237 H238 H239 H240 H241 H242 H243 H244 H245 H246 H247 H248 H249 H250 H251 H252 H253 H254 H255 H256 H257 H258 H259 H260 H261 H262 H263 H264 H265 H266 H267 H268 H269 H270 H271 H272 H273 H274 H275 H276 H277 H278 H279 H280 H281 H282 H283 H284 H285 H286 H287 H288 H289 H290 H291 H292 H293 BI293:CR293 A293 A292 BC291:CR291 A291 BI290:CR290 A290 BI289:CR289 A289 A288 BK287:CR287 A287 BI286:CR286 A286 BC285:CR285 A285 BC284:CR284 A284 BC283:CR283 A283 BW282:CR282 A282 BM281:CR281 A281 BO280:CR280 A280 BK279:CR279 A279 BM278:CR278 A278 BO277:CR277 A277 A276 A275 BY274:CR274 A274 A273 CA272:CR272 A272 A271 CO270:CR270 A270 A269 CK268:CR268 A268 A267 BQ266:CR266 A266 A265 BU264:CR264 A264 A263 BM262:CR262 A262 A261 BS260:CR260 A260 A259 BW258:CR258 A258 A257 CO256:CR256 A256 A255 BO254:CR254 A254 A253 BK252:CR252 A252 A251 BS250:CR250 A250 A249 BU248:CR248 A248 A247 BI246:CR246 A246 BM245:CR245 A245 A244 CO243:CR243 A243 A242 CI241:CR241 A241 A240 CC239:CR239 A239 A238 BI237:CR237 A237 CA236:CR236 A236 A235 CE234:CR234 A234 A233 BM232:CR232 A232 A231 CG230:CR230 A230 A229 CC228:CR228 A228 A227 CC226:CR226 A226 A225 CC224:CR224 A224 A223 CC222:CR222 A222 A221 CG220:CR220 A220 A219 BU218:CR218 A218 A217 BS216:CR216 A216 A215 BQ214:CR214 A214 A213 BE212:CR212 A212 BA211:CR211 A211 A209:A210 CG208:CR208 A208 A199:A207 BG198:CR198 A198 BG197:CR197 A197 BG196:CR196 A196 BW195:CR195 A195 A194 BI193:CR193 A193 A192 BM191:CR191 A191 H190 A189 BE188:CR188 A188 A187 CQ186:CR186 A186 A185 CG184:CR184 A184 A183 BQ182:CR182 A182 A181 BI180:CR180 A180 A179 BO178:CR178 A178 A177 BU176:CR176 A176 A175 BM174:CR174 A174 A173 BU172:CR172 A172 A171 BS170:CR170 BI170:BJ170 A170 A169 BS168:CR168 A168 A167 BU166:CR166 A166 A165 BA164:CR164 A164 CA163:CR163 BU163:BV163 A163 A162 BW161:CR161 A161 A160 CO159:CR159 BK159:BN159 A159 A158 BG157:CR157 A157 BK156:CR156 A156 BA155:CR155 A155 BA154:CR154 A154 BA153:CR153 A153 BA152:CR152 A152 A147:A151 BI146:CR146 A146 A145 BA144:CR144 A144 BG143:CR143 A143 A142 BE141:CR141 A141 A140 BK139:CR139 A139 A138 BS137:CR137 A137 A136 BU135:CR135 BQ135:BR135 A135 A134 BO133:CR133 A133 A132 BG131:CR131 A131 CK130:CR130 A130 A129 BO128:CR128 A128 A127 CO126:CR126 A126 A125 BI124:CR124 A124 A123 BQ122:CR122 A122 A121 BS120:CR120 A120 A118:A119 BG117:CR117 A117 BO116:CR116 A116 A115 BM114:CR114 A114 BI113:CR113 A113 BO112:CR112 A112 A111 BO110:CR110 A110 A109 BY108:CR108 A108 A107 BU106:CR106 A106 BQ105:CR105 A105 A103:A104 BS102:CR102 A102 A101 BO100:CR100 A100 A99 BE98:CR98 A98 CK97:CR97 A97 A96 BO95:CR95 A95 A94 CG93:CR93 A93 A92 BY91:CR91 A91 A90 BS89:CR89 A89 BI88:CR88 A88 BK87:CR87 A87 BI86:CR86 A86 A82:A85 CO81:CR81 BQ81:BT81 A81 A80 BQ79:CR79 A79 A78 BW77:CR77 A77 A76 BG75:CR75 A75 A74 CA73:CR73 A73 A72 BM71:CR71 A71 A70 BI69:CR69 A69 A68 BG67:CR67 A67 CM66:CR66 A66 A65 CC64:CR64 A64 A63 BI62:CR62 A62 A61 BM60:CR60 A60 A59 BE58:CR58 A58 BW57:CR57 A57 A56 BY55:CR55 A55 A54 BU53:CR53 A53 A52 CM51:CR51 A51 A50 BM49:CR49 A49 A48 CC47:CR47 A47 CC46:CR46 A46 CC45:CR45 A45 CC44:CR44 A44 CC43:CR43 A43 A38:A42 BI37:CR37 A37 BI36:CR36 A36 BI35:CR35 A35 BI34:CR34 A34 BI33:CR33 A33 A28:A32 BU27:CR27 A27 A26 BM25:CR25 A25 A24 BQ23:CR23 A23 A22 BM21:CR21 A21 BM20:CR20 A18:A19 CC17:CR17 A17 A16 BQ15:CR15 A15 A14 BI13:CR13 A13 A12 BG11:CR11 A11 K10:CR10 A10 BI9:CR9 K9:AX9 A9 A8 BE7:CR7 A7 BA6:CR6 A6 A1:A5 J293:AX293 J291:AX291 J290:AX290 J289:AX289 J287:AX287 J286:AX286 J285:AX285 J284:AX284 J283:AX283 J282:AX282 J281:AX281 J280:AX280 J279:AX279 J278:AX278 J277:AX277 J276:AX276 J274:AX274 J272:AX272 J270:AX270 J268:AX268 J266:AX266 J264:AX264 J262:AX262 J260:AX260 J258:AX258 J256:AX256 J254:AX254 J252:AX252 J250:AX250 J248:AX248 J246:AX246 J245:AX245 J243:AX243 J241:AX241 J239:AX239 J237:AX237 J236:AX236 J234:AX234 J232:AX232 J230:AX230 J228:AX228 J226:AX226 J224:AX224 J222:AX222 J220:AX220 J218:AX218 J216:AX216 J214:AX214 J212:AX212 J211:AX211 J208:AX208 J198:AX198 J197:AX197 J196:AX196 J195:AX195 J193:AX193 J191:AX191 J190:AX190 J188:AX188 J186:AX186 J184:AX184 J182:AX182 J180:AX180 J178:AX178 J176:AX176 J174:AX174 J172:AX172 J170:AX170 J168:AX168 J166:AX166 J164:AX164 J163:AX163 J161:AX161 J159:AX159 J157:AX157 J156:AX156 J155:AX155 J154:AX154 J153:AX153 J152:AX152 J146:AX146 J144:AX144 J143:AX143 J141:AX141 J139:AX139 J137:AX137 J135:AX135 J133:AX133 J131:AX131 J130:AX130 J128:AX128 J126:AX126 J124:AX124 J122:AX122 J120:AX120 J117:AX117 J116:AX116 J114:AX114 J113:AX113 J112:AX112 J110:AX110 J108:AX108 J106:AX106 J105:AX105 J102:AX102 J100:AX100 J98:AX98 J97:AX97 J95:AX95 J93:AX93 J91:AX91 J89:AX89 J88:AX88 J87:AX87 J86:AX86 J81:AX81 J79:AX79 J77:AX77 J75:AX75 J73:AX73 J71:AX71 J69:AX69 J67:AX67 J66:AX66 J64:AX64 J62:AX62 J60:AX60 J58:AX58 J57:AX57 J55:AX55 J53:AX53 J51:AX51 J49:AX49 J47:AX47 J46:AX46 J45:AX45 J44:AX44 J43:AX43 J37:AX37 J36:AX36 J35:AX35 J34:AX34 J33:AX33 J27:AX27 J25:AX25 J23:AX23 J21:AX21 J20:AX20 J17:AX17 J15:AX15 J13:AX13 J11:AX11 J7:AX7 J6:AX6 J292:CR292 J288:CR288 J275:CR275 J273:CR273 J271:CR271 J269:CR269 J267:CR267 J265:CR265 J263:CR263 J261:CR261 J259:CR259 J257:CR257 J255:CR255 J253:CR253 J251:CR251 J249:CR249 J247:CR247 J244:CR244 J242:CR242 J240:CR240 J238:CR238 J235:CR235 J233:CR233 J231:CR231 J229:CR229 J227:CR227 J225:CR225 J223:CR223 J221:CR221 J219:CR219 J217:CR217 J215:CR215 J213:CR213 J209:CR210 J199:CR207 J194:CR194 J192:CR192 J189:CR189 J187:CR187 J185:CR185 J183:CR183 J181:CR181 J179:CR179 J177:CR177 J175:CR175 J173:CR173 J171:CR171 J169:CR169 J167:CR167 J165:CR165 J162:CR162 J160:CR160 J158:CR158 J147:CR151 J145:CR145 J142:CR142 J140:CR140 J138:CR138 J136:CR136 J134:CR134 J132:CR132 J129:CR129 J127:CR127 J125:CR125 J123:CR123 J121:CR121 J118:CR119 J115:CR115 J111:CR111 J109:CR109 J107:CR107 J103:CR104 J101:CR101 J99:CR99 J96:CR96 J94:CR94 J92:CR92 J90:CR90 J82:CR85 J80:CR80 J78:CR78 J76:CR76 J74:CR74 J72:CR72 J70:CR70 J68:CR68 J65:CR65 J63:CR63 J61:CR61 J59:CR59 J56:CR56 J54:CR54 J52:CR52 J50:CR50 J48:CR48 J38:CR42 J28:CR32 J26:CR26 J24:CR24 J22:CR22 J18:CR19 J16:CR16 J14:CR14 J12:CR12 J8:CR8 J1:CR5" numberStoredAsText="1"/>
+    <ignoredError sqref="J1:CR5 J8:CR8 J12:CR12 J14:CR14 J16:CR16 J18:CR19 J22:CR22 J24:CR24 J26:CR26 J28:CR32 J38:CR42 J48:CR48 J50:CR50 J52:CR52 J54:CR54 J56:CR56 J59:CR59 J61:CR61 J63:CR63 J65:CR65 J68:CR68 J70:CR70 J72:CR72 J74:CR74 J76:CR76 J78:CR78 J80:CR80 J82:CR85 J90:CR90 J92:CR92 J94:CR94 J96:CR96 J99:CR99 J101:CR101 J103:CR104 J107:CR107 J109:CR109 J111:CR111 J115:CR115 J118:CR119 J121:CR121 J123:CR123 J125:CR125 J127:CR127 J129:CR129 J132:CR132 J134:CR134 J136:CR136 J138:CR138 J140:CR140 J142:CR142 J145:CR145 J147:CR151 J158:CR158 J160:CR160 J162:CR162 J165:CR165 J167:CR167 J169:CR169 J171:CR171 J173:CR173 J175:CR175 J177:CR177 J179:CR179 J181:CR181 J183:CR183 J185:CR185 J187:CR187 J189:CR189 J192:CR192 J194:CR194 J199:CR207 J209:CR210 J213:CR213 J215:CR215 J217:CR217 J219:CR219 J221:CR221 J223:CR223 J225:CR225 J227:CR227 J229:CR229 J231:CR231 J233:CR233 J235:CR235 J238:CR238 J240:CR240 J242:CR242 J244:CR244 J247:CR247 J249:CR249 J251:CR251 J253:CR253 J255:CR255 J257:CR257 J259:CR259 J261:CR261 J263:CR263 J265:CR265 J267:CR267 J269:CR269 J271:CR271 J273:CR273 J275:CR275 J288:CR288 J292:CR292 J6:AX6 J7:AX7 J11:AX11 J13:AX13 J15:AX15 J17:AX17 J20:AX20 J21:AX21 J23:AX23 J25:AX25 J27:AX27 J33:AX33 J34:AX34 J35:AX35 J36:AX36 J37:AX37 J43:AX43 J44:AX44 J45:AX45 J46:AX46 J47:AX47 J49:AX49 J51:AX51 J53:AX53 J55:AX55 J57:AX57 J58:AX58 J60:AX60 J62:AX62 J64:AX64 J66:AX66 J67:AX67 J69:AX69 J71:AX71 J73:AX73 J75:AX75 J77:AX77 J79:AX79 J81:AX81 J86:AX86 J87:AX87 J88:AX88 J89:AX89 J91:AX91 J93:AX93 J95:AX95 J97:AX97 J98:AX98 J100:AX100 J102:AX102 J105:AX105 J106:AX106 J108:AX108 J110:AX110 J112:AX112 J113:AX113 J114:AX114 J116:AX116 J117:AX117 J120:AX120 J122:AX122 J124:AX124 J126:AX126 J128:AX128 J130:AX130 J131:AX131 J133:AX133 J135:AX135 J137:AX137 J139:AX139 J141:AX141 J143:AX143 J144:AX144 J146:AX146 J152:AX152 J153:AX153 J154:AX154 J155:AX155 J156:AX156 J157:AX157 J159:AX159 J161:AX161 J163:AX163 J164:AX164 J166:AX166 J168:AX168 J170:AX170 J172:AX172 J174:AX174 J176:AX176 J178:AX178 J180:AX180 J182:AX182 J184:AX184 J186:AX186 J188:AX188 J190:AX190 J191:AX191 J193:AX193 J195:AX195 J196:AX196 J197:AX197 J198:AX198 J208:AX208 J211:AX211 J212:AX212 J214:AX214 J216:AX216 J218:AX218 J220:AX220 J222:AX222 J224:AX224 J226:AX226 J228:AX228 J230:AX230 J232:AX232 J234:AX234 J236:AX236 J237:AX237 J239:AX239 J241:AX241 J243:AX243 J245:AX245 J246:AX246 J248:AX248 J250:AX250 J252:AX252 J254:AX254 J256:AX256 J258:AX258 J260:AX260 J262:AX262 J264:AX264 J266:AX266 J268:AX268 J270:AX270 J272:AX272 J274:AX274 J276:AX276 J277:AX277 J278:AX278 J279:AX279 J280:AX280 J281:AX281 J282:AX282 J283:AX283 J284:AX284 J285:AX285 J286:AX286 J287:AX287 J289:AX289 J290:AX290 J291:AX291 J293:AX293 A1:A5 A6 BA6:CR6 A7 BE7:CR7 A8 A9 K9:AX9 BI9:CR9 A10 K10:CR10 A11 BG11:CR11 A12 A13 BI13:CR13 A14 BQ15:CR15 A16 A17 CC17:CR17 A18:A19 BM20:CR20 A21 BM21:CR21 A22 BQ23:CR23 A24 A25 BM25:CR25 A26 A27 BU27:CR27 A28:A32 A33 BI33:CR33 A34 BI34:CR34 A35 BI35:CR35 A36 BI36:CR36 A37 BI37:CR37 A38:A42 A43 CC43:CR43 A44 CC44:CR44 A45 CC45:CR45 A46 CC46:CR46 A47 CC47:CR47 A48 A49 BM49:CR49 A50 A51 CM51:CR51 A52 A53 BU53:CR53 A54 A55 BY55:CR55 A56 A57 BW57:CR57 A58 BE58:CR58 A59 A60 BM60:CR60 A61 A62 BI62:CR62 A63 A64 CC64:CR64 A65 A66 CM66:CR66 A67 BG67:CR67 A68 A69 BI69:CR69 A70 A71 BM71:CR71 A72 A73 CA73:CR73 A74 A75 BG75:CR75 A76 A77 BW77:CR77 A78 A79 BQ79:CR79 A80 A81 BQ81:BT81 CO81:CR81 A82:A85 A86 BI86:CR86 A87 BK87:CR87 A88 BI88:CR88 A89 BS89:CR89 A90 A91 BY91:CR91 A92 A93 CG93:CR93 A94 A95 BO95:CR95 A96 A97 CK97:CR97 A98 BE98:CR98 A99 A100 BO100:CR100 A101 A102 BS102:CR102 A103:A104 A105 BQ105:CR105 A106 BU106:CR106 A107 A108 BY108:CR108 A109 A110 BO110:CR110 A111 A112 BO112:CR112 A113 BI113:CR113 A114 BM114:CR114 A115 A116 BO116:CR116 A117 BG117:CR117 A118:A119 A120 BS120:CR120 A121 A122 BQ122:CR122 A123 A124 BI124:CR124 A125 A126 CO126:CR126 A127 A128 BO128:CR128 A129 A130 CK130:CR130 A131 BG131:CR131 A132 A133 BO133:CR133 A134 A135 BQ135:BR135 BU135:CR135 A136 A137 BS137:CR137 A138 A139 BK139:CR139 A140 A141 BE141:CR141 A142 A143 BG143:CR143 A144 BA144:CR144 A145 A146 BI146:CR146 A147:A151 A152 BA152:CR152 A153 BA153:CR153 A154 BA154:CR154 A155 BA155:CR155 A156 BK156:CR156 A157 BG157:CR157 A158 A159 BK159:BN159 CO159:CR159 A160 A161 BW161:CR161 A162 A163 BU163:BV163 CA163:CR163 A164 BA164:CR164 A165 A166 BU166:CR166 A167 A168 BS168:CR168 A169 A170 BI170:BJ170 BS170:CR170 A171 A172 BU172:CR172 A173 A174 BM174:CR174 A175 A176 BU176:CR176 A177 A178 BO178:CR178 A179 A180 BI180:CR180 A181 A182 BQ182:CR182 A183 A184 CG184:CR184 A185 A186 CQ186:CR186 A187 A188 BE188:CR188 A189 H190 A191 BM191:CR191 A192 A193 BI193:CR193 A194 A195 BW195:CR195 A196 BG196:CR196 A197 BG197:CR197 A198 BG198:CR198 A199:A207 A208 CG208:CR208 A209:A210 A211 BA211:CR211 A212 BE212:CR212 A213 A214 BQ214:CR214 A215 A216 BS216:CR216 A217 A218 BU218:CR218 A219 A220 CG220:CR220 A221 A222 CC222:CR222 A223 A224 CC224:CR224 A225 A226 CC226:CR226 A227 A228 CC228:CR228 A229 A230 CG230:CR230 A231 A232 BM232:CR232 A233 A234 CE234:CR234 A235 A236 CA236:CR236 A237 BI237:CR237 A238 A239 CC239:CR239 A240 A241 CI241:CR241 A242 A243 CO243:CR243 A244 A245 BM245:CR245 A246 BI246:CR246 A247 A248 BU248:CR248 A249 A250 BS250:CR250 A251 A252 BK252:CR252 A253 A254 BO254:CR254 A255 A256 CO256:CR256 A257 A258 BW258:CR258 A259 A260 BS260:CR260 A261 A262 BM262:CR262 A263 A264 BU264:CR264 A265 A266 BQ266:CR266 A267 A268 CK268:CR268 A269 A270 CO270:CR270 A271 A272 CA272:CR272 A273 A274 BY274:CR274 A275 A276 A277 BO277:CR277 A278 BM278:CR278 A279 BK279:CR279 A280 BO280:CR280 A281 BM281:CR281 A282 BW282:CR282 A283 BC283:CR283 A284 BC284:CR284 A285 BC285:CR285 A286 BI286:CR286 A287 BK287:CR287 A288 A289 BI289:CR289 A290 BI290:CR290 A291 BC291:CR291 A292 A293 BI293:CR293 H293 H292 H291 H290 H289 H288 H287 H286 H285 H284 H283 H282 H281 H280 H279 H278 H277 H276 H275 H274 H273 H272 H271 H270 H269 H268 H267 H266 H265 H264 H263 H262 H261 H260 H259 H258 H257 H256 H255 H254 H253 H252 H251 H250 H249 H248 H247 H246 H245 H244 H243 H242 H241 H240 H239 H238 H237 H236 H235 H234 H233 H232 H231 H230 H229 H228 H227 H226 H225 H224 H223 H222 H221 H220 H219 H218 H217 H216 H215 H214 H213 H212 H211 H209:H210 H208 H199:H207 H198 H197 H196 H195 H194 H193 H192 H191 H189 H188 H187 H186 H185 H184 H183 H182 H181 H180 H179 H178 H177 H176 H175 H174 H173 H172 H171 H170 H169 H168 H167 H166 H165 H164 H163 H162 H161 H160 H159 H158 H157 H156 H155 H154 H153 H152 H147:H151 H146 H145 H144 H143 H142 H141 H140 H139 H138 H137 H136 H135 H134 H133 H132 H131 H130 H129 H128 H127 H126 H125 H124 H123 H122 H121 H120 H118:H119 H117 H116 H115 H114 H113 H112 H111 H110 H109 H108 H107 H106 H105 H103:H104 H102 H101 H100 H99 H98 H97 H96 H95 H94 H93 H92 H91 H90 H89 H88 H87 H86 H82:H85 H81 H80 H79 H78 H77 H76 H75 H74 H73 H72 H71 H70 H69 H68 H67 H66 H65 H64 H63 H62 H61 H60 H59 H58 H57 H56 H55 H54 H53 H52 H51 H50 H49 H48 H47 H46 H45 H44 H43 H38:H42 H37 H36 H35 H34 H33 H28:H32 H27 H26 H25 H24 H23 H22 H21 H20 H18:H19 H17 H16 H15 H14 H13 H12 H11 H10 H9 H8 H7 H6 H1:H5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/code/excels/items/imba_items.xlsx
+++ b/code/excels/items/imba_items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -9473,10 +9473,10 @@
   <sheetPr/>
   <dimension ref="A1:CT277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W1" sqref="W1:W2"/>
+      <selection pane="topRight" activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -40746,7 +40746,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C177:H177 A135:H137 E187:H187 C187 E185:H185 C185 A185 E184:H184 C184 A184 C181:H182 A181:A182 C183:H183 A186 E186:H186 C186 C180:H180 A180 C178:H178 C179:H179 A179 B175:H175 E174:H174 A174:C174 C176 A176 F176:H176 B173:H173 A171:H171 B172:H172 E170:H170 C170 E164:H164 A164:C164 C165 E165:H165 C166 E166:H166 A167:H168 C163 F163:H163 A153:H153 C155 F155:H155 A156:H156 B157:H157 C158 F158:H158 A159 C159 E159:H159 A160:H162 C152:E152 G152:H152 A152 C141 E141:H141 A141 C140:H140 A140 A139:H139 B138:D138 F138:H138 A133:H133 C132:H132 A132 A129:E129 G129:H129 A130:H131 C128:H128 A128 A121:H124 A125:C125 E125:H125 C126 E126:H126 A127:H127 C120:H120 A117:H117 BE116:CT116 A116:H116 A118 C118:H118 A119 C119:H119 F115:H115 A111:H112 A113:B113 D113:H113 C110:H110 A110 A87:H88 BD89:CT89 B89:H89 B90:E90 BE90:CT90 G90:H90 A91:H94 C95 E95:H95 A96:H104 A105:D109 F105:H109 C86:H86 A84:H85 C83:H83 A83 C82:H82 A82 A74:H74 A75 C75:H75 A76:H76 C77:H77 A78:H81 F73:H73 C73 C72:H72 A72 B71:H71 C70:H70 A67:H67 C68 F68:H68 C69:H69 C66:H66 A65:H65 C64:H64 A64 C63:H63 A63 C62:H62 A61:H61 B60:H60 A59:H59 C58:H58 C57:H57 A57 A44:H47 A48 C48:H48 E56:H56 A56:C56 A49:H53 A54:E54 G54:H54 A55:H55 C43:H43 A43 A37:H39 A40 C40:H40 A41:H42 G36:H36 C36:E36 C35:H35 A35 A34:H34 E33:H33 C33 A31 C31:H31 B32:C32 E32:H32 A1:H2 B3:C3 E3:H3 E148:H148 A148:C148 A145:H147 A149 C149:H149 C150:H150 B151:C151 F151:H151 E144:H144 A144:C144 B142:C142 E142:H142 A143:H143 K90:V90 AB89:BB89 K89:V89 K116:V116 K143:V143 K142:V142 K144:V144 K151:V151 K150:V150 K149:V149 K145:V146 K147:V147 K148:V148 K3:V3 J1:V2 K32:V32 K31:V31 K33:V33 K34:V34 K35:V35 K36:V36 K41:V41 K42:V42 K40:V40 K37:V37 K38:V38 K39:V39 K43:V43 K49:V50 K51:V52 K53:V53 K54:V54 K55:V55 K56:V56 K48:V48 K44:V45 K46:V47 K57:V57 K58:V58 K59:V59 K60:V60 K61:V61 K62:V62 K63:V63 K64:V64 K65:V65 K66:V66 K69:V69 K68:V68 K67:V67 K70:V70 K71:V71 K72:V72 K73:V73 K78:V79 K80:V80 K81:V81 K77:V77 K76:V76 K75:V75 K74:V74 K82:V82 K83:V83 K84:V85 K86:V86 K105:V109 K96:V96 K97:V97 K98:V98 K99:V99 K100:V100 K101:V103 K104:V104 K95:V95 K91:V91 K92:V92 J93:V93 K94:V94 K87:V88 K110:V110 K113:V113 K111:V112 K115:V115 K119:V119 K118:V118 K117:V117 K120:V120 K127:V127 K126:V126 K125:V125 K121:V123 K124:V124 K128:V128 K130:V130 K131:V131 K129:V129 K132:V132 K133:V133 K138:V138 K139:V139 K140:V140 K141:V141 K152:V152 K160:V160 K161:V162 K159:V159 K158:V158 K157:V157 K156:V156 K155:V155 K153:V153 K163:V163 K167:V167 K168:V168 K166:V166 K165:V165 K164:V164 K170:V170 K172:V172 K171:V171 K173:V173 K176:V176 K174:V174 K175:V175 J179:V179 K178:V178 K180:V180 K186:V186 K183:V183 K181:V182 K184:V184 K185:V185 J187:V187 K135:V135 K136:V136 K137:V137 K177:V177 AB90:AZ90 AB116:BB116 AB177:CT177 AB135:CT137 AB187:CT187 AB185:CT185 AB184:CT184 AB181:CT182 AB183:CT183 AB186:CT186 AB180:CT180 AB178:CT178 AB179:CT179 AB175:CT175 AB174:CT174 AB176:CT176 AB173:CT173 AB171:CT171 AB172:CT172 AB170:CT170 AB164:CT164 AB165:CT165 AB166:CT166 AB167:CT168 AB163:CT163 AB153:CT153 AB155:CT155 AB156:CT156 AB157:CT157 AB158:CT158 AB159:CT159 AB160:CT162 AB152:CT152 AB141:CT141 AB140:CT140 AB139:CT139 AB138:CT138 AB133:CT133 AB132:CT132 AB129:CT129 AB130:CT131 AB128:CT128 AB121:CT124 AB125:CT125 AB126:CT126 AB127:CT127 AB120:CT120 AB117:CT117 AB118:CT118 AB119:CT119 AB115:CT115 AB111:CT112 AB113:CT113 AB110:CT110 AB87:CT88 AB91:CT94 AB95:CT95 AB96:CT104 AB105:CT109 AB86:CT86 AB84:CT85 AB83:CT83 AB82:CT82 AB74:CT74 AB75:CT75 AB76:CT76 AB77:CT77 AB78:CT81 AB73:CT73 AB72:CT72 AB71:CT71 AB70:CT70 AB67:CT67 AB68:CT68 AB69:CT69 AB66:CT66 AB65:CT65 AB64:CT64 AB63:CT63 AB62:CT62 AB61:CT61 AB60:CT60 BK59:CT59 AB59:BI59 BQ58:CT58 BB58:BG58 BI58:BN58 AB58:AZ58 AB57:BE57 BG57:CT57 AB44:CT47 AB48:CT48 AB56:CT56 AB49:CT55 AB43:CT43 AB37:CT39 AB40:CT40 AB41:CT42 AB36:CT36 AB35:CT35 AB34:CT34 AB33:CT33 AB31:CT31 AB32:CT32 AB1:CT2 AB3:CT3 AB148:CT148 AB145:CT147 AB149:CT149 AB150:CT150 AB151:CT151 AB144:CT144 AB142:CT142 AB143:CT143" numberStoredAsText="1"/>
+    <ignoredError sqref="AB143:CT143 AB142:CT142 AB144:CT144 AB151:CT151 AB150:CT150 AB149:CT149 AB145:CT147 AB148:CT148 AB3:CT3 AB1:CT2 AB32:CT32 AB31:CT31 AB33:CT33 AB34:CT34 AB35:CT35 AB36:CT36 AB41:CT42 AB40:CT40 AB37:CT39 AB43:CT43 AB49:CT55 AB56:CT56 AB48:CT48 AB44:CT47 BG57:CT57 AB57:BE57 AB58:AZ58 BI58:BN58 BB58:BG58 BQ58:CT58 AB59:BI59 BK59:CT59 AB60:CT60 AB61:CT61 AB62:CT62 AB63:CT63 AB64:CT64 AB65:CT65 AB66:CT66 AB69:CT69 AB68:CT68 AB67:CT67 AB70:CT70 AB71:CT71 AB72:CT72 AB73:CT73 AB78:CT81 AB77:CT77 AB76:CT76 AB75:CT75 AB74:CT74 AB82:CT82 AB83:CT83 AB84:CT85 AB86:CT86 AB105:CT109 AB96:CT104 AB95:CT95 AB91:CT94 AB87:CT88 AB110:CT110 AB113:CT113 AB111:CT112 AB115:CT115 AB119:CT119 AB118:CT118 AB117:CT117 AB120:CT120 AB127:CT127 AB126:CT126 AB125:CT125 AB121:CT124 AB128:CT128 AB130:CT131 AB129:CT129 AB132:CT132 AB133:CT133 AB138:CT138 AB139:CT139 AB140:CT140 AB141:CT141 AB152:CT152 AB160:CT162 AB159:CT159 AB158:CT158 AB157:CT157 AB156:CT156 AB155:CT155 AB153:CT153 AB163:CT163 AB167:CT168 AB166:CT166 AB165:CT165 AB164:CT164 AB170:CT170 AB172:CT172 AB171:CT171 AB173:CT173 AB176:CT176 AB174:CT174 AB175:CT175 AB179:CT179 AB178:CT178 AB180:CT180 AB186:CT186 AB183:CT183 AB181:CT182 AB184:CT184 AB185:CT185 AB187:CT187 AB135:CT137 AB177:CT177 AB116:BB116 AB90:AZ90 K177:V177 K137:V137 K136:V136 K135:V135 J187:V187 K185:V185 K184:V184 K181:V182 K183:V183 K186:V186 K180:V180 K178:V178 J179:V179 K175:V175 K174:V174 K176:V176 K173:V173 K171:V171 K172:V172 K170:V170 K164:V164 K165:V165 K166:V166 K168:V168 K167:V167 K163:V163 K153:V153 K155:V155 K156:V156 K157:V157 K158:V158 K159:V159 K161:V162 K160:V160 K152:V152 K141:V141 K140:V140 K139:V139 K138:V138 K133:V133 K132:V132 K129:V129 K131:V131 K130:V130 K128:V128 K124:V124 K121:V123 K125:V125 K126:V126 K127:V127 K120:V120 K117:V117 K118:V118 K119:V119 K115:V115 K111:V112 K113:V113 K110:V110 K87:V88 K94:V94 J93:V93 K92:V92 K91:V91 K95:V95 K104:V104 K101:V103 K100:V100 K99:V99 K98:V98 K97:V97 K96:V96 K105:V109 K86:V86 K84:V85 K83:V83 K82:V82 K74:V74 K75:V75 K76:V76 K77:V77 K81:V81 K80:V80 K78:V79 K73:V73 K72:V72 K71:V71 K70:V70 K67:V67 K68:V68 K69:V69 K66:V66 K65:V65 K64:V64 K63:V63 K62:V62 K61:V61 K60:V60 K59:V59 K58:V58 K57:V57 K46:V47 K44:V45 K48:V48 K56:V56 K55:V55 K54:V54 K53:V53 K51:V52 K49:V50 K43:V43 K39:V39 K38:V38 K37:V37 K40:V40 K42:V42 K41:V41 K36:V36 K35:V35 K34:V34 K33:V33 K31:V31 K32:V32 J1:V2 K3:V3 K148:V148 K147:V147 K145:V146 K149:V149 K150:V150 K151:V151 K144:V144 K142:V142 K143:V143 K116:V116 K89:V89 AB89:BB89 K90:V90 A143:H143 E142:H142 B142:C142 A144:C144 E144:H144 F151:H151 B151:C151 C150:H150 C149:H149 A149 A145:H147 A148:C148 E148:H148 E3:H3 B3:C3 A1:H2 E32:H32 B32:C32 C31:H31 A31 C33 E33:H33 A34:H34 A35 C35:H35 C36:E36 G36:H36 A41:H42 C40:H40 A40 A37:H39 A43 C43:H43 A55:H55 G54:H54 A54:E54 A49:H53 A56:C56 E56:H56 C48:H48 A48 A44:H47 A57 C57:H57 C58:H58 A59:H59 B60:H60 A61:H61 C62:H62 A63 C63:H63 A64 C64:H64 A65:H65 C66:H66 C69:H69 F68:H68 C68 A67:H67 C70:H70 B71:H71 A72 C72:H72 C73 F73:H73 A78:H78 B79:H79 A80:H81 C77:H77 A76:H76 C75:H75 A75 A74:H74 A82 C82:H82 A83 C83:H83 A84:H85 C86:H86 F105:H109 A105:D109 A96:H104 E95:H95 C95 A91:H94 G90:H90 BE90:CT90 B90:E90 B89:H89 BD89:CT89 A87:H88 A110 C110:H110 D113:H113 A113:B113 A111:H112 F115:H115 C119:H119 A119 C118:H118 A118 A116:H116 BE116:CT116 A117:H117 C120:H120 A127:H127 E126:H126 C126 E125:H125 A125:C125 A121:H124 A128 C128:H128 A130:H131 G129:H129 A129:E129 A132 C132:H132 A133:H133 F138:H138 B138:D138 A139:H139 A140 C140:H140 A141 E141:H141 C141 A152 G152:H152 C152:E152 A160:H162 E159:H159 C159 A159 F158:H158 C158 B157:H157 A156:H156 F155:H155 C155 A153:H153 F163:H163 C163 A167:H168 E166:H166 C166 E165:H165 C165 A164:C164 E164:H164 C170 E170:H170 B172:H172 A171:H171 B173:H173 F176:H176 A176 C176 A174:C174 E174:H174 B175:H175 A179 C179:H179 C178:H178 A180 C180:H180 C186 E186:H186 A186 C183:H183 A181:A182 C181:H182 A184 C184 E184:H184 A185 C185 E185:H185 C187 E187:H187 A135:H137 C177:H177" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -40756,7 +40756,7 @@
   <sheetPr/>
   <dimension ref="A1:CV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3:Y4"/>
     </sheetView>
   </sheetViews>
@@ -41980,7 +41980,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A3:X4 L2:X2 A2:J2 A1:X1 AA1 AA2 AA3:AA4 AD3:CV4 AD2:CV2 AD1:CV1" numberStoredAsText="1"/>
+    <ignoredError sqref="AD1:CV1 AD2:CV2 AD3:CV4 AA3:AA4 AA2 AA1 A1:X1 A2:J2 L2:X2 A3:X4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/code/excels/items/imba_items.xlsx
+++ b/code/excels/items/imba_items.xlsx
@@ -7438,7 +7438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7454,12 +7454,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7774,10 +7768,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7786,16 +7780,16 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7807,10 +7801,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7831,28 +7825,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7861,16 +7855,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7882,41 +7879,38 @@
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -7987,9 +7981,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -8000,30 +7991,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -8420,10 +8405,10 @@
   <sheetPr/>
   <dimension ref="A1:CE296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A143" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A212" sqref="$A212:$XFD212"/>
+      <selection pane="topRight" activeCell="Q143" sqref="Q143:Q173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8431,7 +8416,7 @@
     <col min="1" max="1" width="39.0833333333333" customWidth="1"/>
     <col min="2" max="2" width="33" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="25.0833333333333" style="24" customWidth="1"/>
+    <col min="4" max="4" width="25.0833333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="43.9166666666667" customWidth="1"/>
     <col min="8" max="8" width="14.4166666666667" customWidth="1"/>
     <col min="9" max="9" width="53.9166666666667" customWidth="1"/>
@@ -8453,7 +8438,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -8701,7 +8686,7 @@
       <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E2" t="s">
@@ -8952,7 +8937,7 @@
       <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F3" t="s">
@@ -10454,7 +10439,7 @@
       <c r="C35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="6" t="s">
         <v>253</v>
       </c>
       <c r="E35" t="s">
@@ -10569,7 +10554,7 @@
       <c r="C36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="6" t="s">
         <v>259</v>
       </c>
       <c r="E36" t="s">
@@ -10688,7 +10673,7 @@
       <c r="C37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="6" t="s">
         <v>264</v>
       </c>
       <c r="E37" t="s">
@@ -10811,7 +10796,7 @@
       <c r="C38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="6" t="s">
         <v>273</v>
       </c>
       <c r="E38" t="s">
@@ -10928,7 +10913,7 @@
       <c r="C39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="6" t="s">
         <v>278</v>
       </c>
       <c r="E39" t="s">
@@ -11045,7 +11030,7 @@
       <c r="C40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="6" t="s">
         <v>283</v>
       </c>
       <c r="E40" t="s">
@@ -11162,7 +11147,7 @@
       <c r="C41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="6" t="s">
         <v>288</v>
       </c>
       <c r="E41" t="s">
@@ -11275,13 +11260,13 @@
       <c r="A42" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>293</v>
       </c>
       <c r="C42" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="6" t="s">
         <v>294</v>
       </c>
       <c r="E42" t="s">
@@ -11334,13 +11319,13 @@
       <c r="A43" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>301</v>
       </c>
       <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="6" t="s">
         <v>302</v>
       </c>
       <c r="E43" t="s">
@@ -11399,7 +11384,7 @@
       <c r="C44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="6" t="s">
         <v>309</v>
       </c>
       <c r="E44" t="s">
@@ -11530,7 +11515,7 @@
       <c r="C45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="6" t="s">
         <v>318</v>
       </c>
       <c r="E45" t="s">
@@ -11645,7 +11630,7 @@
       <c r="C46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="6" t="s">
         <v>323</v>
       </c>
       <c r="E46" t="s">
@@ -11760,7 +11745,7 @@
       <c r="C47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="6" t="s">
         <v>328</v>
       </c>
       <c r="E47" t="s">
@@ -11875,7 +11860,7 @@
       <c r="C48" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="6" t="s">
         <v>333</v>
       </c>
       <c r="E48" t="s">
@@ -11990,7 +11975,7 @@
       <c r="C49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="6" t="s">
         <v>338</v>
       </c>
       <c r="E49" t="s">
@@ -12105,7 +12090,7 @@
       <c r="C50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="6" t="s">
         <v>343</v>
       </c>
       <c r="E50" t="s">
@@ -12220,7 +12205,7 @@
       <c r="C51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="6" t="s">
         <v>348</v>
       </c>
       <c r="E51" t="s">
@@ -12339,7 +12324,7 @@
       <c r="C52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="6" t="s">
         <v>353</v>
       </c>
       <c r="E52" t="s">
@@ -12454,7 +12439,7 @@
       <c r="C53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="6" t="s">
         <v>359</v>
       </c>
       <c r="E53" t="s">
@@ -12573,7 +12558,7 @@
       <c r="C54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="6" t="s">
         <v>365</v>
       </c>
       <c r="E54" t="s">
@@ -12689,16 +12674,16 @@
       <c r="CE54" s="2"/>
     </row>
     <row r="56" spans="1:83">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>372</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="6" t="s">
         <v>373</v>
       </c>
       <c r="E56" t="s">
@@ -12723,7 +12708,7 @@
       <c r="P56" s="2">
         <v>1</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="Q56" s="28" t="s">
         <v>162</v>
       </c>
       <c r="R56" s="2">
@@ -12806,16 +12791,16 @@
       <c r="CE56" s="2"/>
     </row>
     <row r="57" spans="1:83">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>377</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="6" t="s">
         <v>378</v>
       </c>
       <c r="E57" t="s">
@@ -12840,8 +12825,8 @@
       <c r="P57" s="2">
         <v>1</v>
       </c>
-      <c r="Q57" s="2" t="s">
-        <v>124</v>
+      <c r="Q57" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="R57" s="2">
         <v>500</v>
@@ -12921,16 +12906,16 @@
       <c r="CE57" s="2"/>
     </row>
     <row r="58" spans="1:83">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>381</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="6" t="s">
         <v>382</v>
       </c>
       <c r="E58" t="s">
@@ -12955,8 +12940,8 @@
       <c r="P58" s="2">
         <v>1</v>
       </c>
-      <c r="Q58" s="2" t="s">
-        <v>124</v>
+      <c r="Q58" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="R58" s="2">
         <v>500</v>
@@ -13036,16 +13021,16 @@
       <c r="CE58" s="2"/>
     </row>
     <row r="59" spans="1:83">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>385</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="6" t="s">
         <v>386</v>
       </c>
       <c r="E59" t="s">
@@ -13070,8 +13055,8 @@
       <c r="P59" s="2">
         <v>1</v>
       </c>
-      <c r="Q59" s="2" t="s">
-        <v>124</v>
+      <c r="Q59" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="R59" s="2">
         <v>500</v>
@@ -13151,16 +13136,16 @@
       <c r="CE59" s="2"/>
     </row>
     <row r="60" spans="1:83">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>389</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="6" t="s">
         <v>390</v>
       </c>
       <c r="E60" t="s">
@@ -13185,7 +13170,7 @@
       <c r="P60" s="2">
         <v>1</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="Q60" s="28" t="s">
         <v>162</v>
       </c>
       <c r="R60" s="2">
@@ -13268,16 +13253,16 @@
       <c r="CE60" s="2"/>
     </row>
     <row r="61" spans="1:83">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>393</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="6" t="s">
         <v>394</v>
       </c>
       <c r="E61" t="s">
@@ -13302,7 +13287,7 @@
       <c r="P61" s="2">
         <v>1</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="Q61" s="28" t="s">
         <v>162</v>
       </c>
       <c r="R61" s="2">
@@ -13383,16 +13368,16 @@
       <c r="CE61" s="2"/>
     </row>
     <row r="62" spans="1:83">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>397</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="6" t="s">
         <v>398</v>
       </c>
       <c r="E62" t="s">
@@ -13417,7 +13402,7 @@
       <c r="P62" s="2">
         <v>1</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="Q62" s="28" t="s">
         <v>162</v>
       </c>
       <c r="R62" s="2">
@@ -13498,16 +13483,16 @@
       <c r="CE62" s="2"/>
     </row>
     <row r="63" spans="1:45">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="27" t="s">
         <v>401</v>
       </c>
       <c r="C63" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="6" t="s">
         <v>402</v>
       </c>
       <c r="E63" t="s">
@@ -13525,7 +13510,7 @@
       <c r="P63">
         <v>1</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q63" s="28" t="s">
         <v>162</v>
       </c>
       <c r="R63" s="2">
@@ -13563,16 +13548,16 @@
       </c>
     </row>
     <row r="64" spans="1:83">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="26" t="s">
         <v>408</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="6" t="s">
         <v>409</v>
       </c>
       <c r="E64" t="s">
@@ -13597,7 +13582,7 @@
       <c r="P64" s="2">
         <v>1</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="Q64" s="28" t="s">
         <v>162</v>
       </c>
       <c r="R64" s="2">
@@ -13678,16 +13663,16 @@
       <c r="CE64" s="2"/>
     </row>
     <row r="65" spans="1:45">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="27" t="s">
         <v>412</v>
       </c>
       <c r="C65" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="6" t="s">
         <v>413</v>
       </c>
       <c r="E65" t="s">
@@ -13714,7 +13699,7 @@
       <c r="P65">
         <v>1</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="Q65" s="28" t="s">
         <v>162</v>
       </c>
       <c r="R65" s="2">
@@ -13752,8 +13737,8 @@
       </c>
     </row>
     <row r="66" spans="1:40">
-      <c r="A66" s="26"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="27"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="R66" s="2"/>
@@ -13773,7 +13758,7 @@
       <c r="C67" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="6" t="s">
         <v>426</v>
       </c>
       <c r="E67" t="s">
@@ -13791,7 +13776,7 @@
       <c r="P67">
         <v>1</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="Q67" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R67" s="6">
@@ -13817,10 +13802,10 @@
       </c>
     </row>
     <row r="68" s="4" customFormat="1" spans="1:83">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>431</v>
       </c>
       <c r="C68" s="22" t="s">
@@ -13851,7 +13836,7 @@
       <c r="P68" s="22">
         <v>1</v>
       </c>
-      <c r="Q68" s="22" t="s">
+      <c r="Q68" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R68" s="22">
@@ -13942,16 +13927,16 @@
       <c r="CE68" s="22"/>
     </row>
     <row r="69" spans="1:53">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="27" t="s">
         <v>437</v>
       </c>
       <c r="C69" t="s">
         <v>127</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="6" t="s">
         <v>438</v>
       </c>
       <c r="E69" t="s">
@@ -13972,8 +13957,8 @@
       <c r="P69">
         <v>1</v>
       </c>
-      <c r="Q69" t="s">
-        <v>167</v>
+      <c r="Q69" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="R69" s="2">
         <v>2000</v>
@@ -14034,16 +14019,16 @@
       </c>
     </row>
     <row r="70" spans="1:47">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="27" t="s">
         <v>450</v>
       </c>
       <c r="C70" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="6" t="s">
         <v>451</v>
       </c>
       <c r="E70" t="s">
@@ -14067,7 +14052,7 @@
       <c r="P70">
         <v>1</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="Q70" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R70" s="2">
@@ -14117,13 +14102,13 @@
       <c r="A71" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="27" t="s">
         <v>461</v>
       </c>
       <c r="C71" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="6" t="s">
         <v>462</v>
       </c>
       <c r="E71" t="s">
@@ -14153,8 +14138,8 @@
       <c r="P71">
         <v>1</v>
       </c>
-      <c r="Q71" t="s">
-        <v>167</v>
+      <c r="Q71" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="R71" s="2">
         <v>1700</v>
@@ -14227,16 +14212,16 @@
       </c>
     </row>
     <row r="72" spans="1:83">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="26" t="s">
         <v>475</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="6" t="s">
         <v>476</v>
       </c>
       <c r="E72" t="s">
@@ -14269,7 +14254,7 @@
       <c r="P72" s="2">
         <v>1</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="Q72" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R72" s="2">
@@ -14392,16 +14377,16 @@
       <c r="CE72" s="2"/>
     </row>
     <row r="73" spans="1:45">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="27" t="s">
         <v>492</v>
       </c>
       <c r="C73" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="6" t="s">
         <v>493</v>
       </c>
       <c r="E73" t="s">
@@ -14419,7 +14404,7 @@
       <c r="P73">
         <v>1</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="Q73" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R73" s="2">
@@ -14457,16 +14442,16 @@
       </c>
     </row>
     <row r="74" spans="1:47">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="27" t="s">
         <v>498</v>
       </c>
       <c r="C74" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="6" t="s">
         <v>499</v>
       </c>
       <c r="E74" t="s">
@@ -14484,7 +14469,7 @@
       <c r="P74">
         <v>1</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="Q74" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R74" s="2">
@@ -14528,16 +14513,16 @@
       </c>
     </row>
     <row r="75" spans="1:83">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="26" t="s">
         <v>509</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="6" t="s">
         <v>510</v>
       </c>
       <c r="E75" t="s">
@@ -14562,7 +14547,7 @@
       <c r="P75" s="2">
         <v>1</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="Q75" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R75" s="2">
@@ -14655,16 +14640,16 @@
       <c r="CE75" s="2"/>
     </row>
     <row r="76" spans="1:45">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="26" t="s">
         <v>513</v>
       </c>
       <c r="C76" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="6" t="s">
         <v>514</v>
       </c>
       <c r="E76" t="s">
@@ -14682,7 +14667,7 @@
       <c r="P76">
         <v>1</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="Q76" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R76" s="2">
@@ -14720,16 +14705,16 @@
       </c>
     </row>
     <row r="77" spans="1:63">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="27" t="s">
         <v>519</v>
       </c>
       <c r="C77" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="6" t="s">
         <v>520</v>
       </c>
       <c r="E77" t="s">
@@ -14753,7 +14738,7 @@
       <c r="P77">
         <v>1</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="Q77" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R77" s="2">
@@ -14845,16 +14830,16 @@
       </c>
     </row>
     <row r="78" spans="1:55">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="27" t="s">
         <v>535</v>
       </c>
       <c r="C78" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="6" t="s">
         <v>536</v>
       </c>
       <c r="E78" t="s">
@@ -14878,7 +14863,7 @@
       <c r="P78">
         <v>1</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="Q78" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R78" s="2">
@@ -14946,16 +14931,16 @@
       </c>
     </row>
     <row r="79" spans="1:83">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="26" t="s">
         <v>548</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="6" t="s">
         <v>549</v>
       </c>
       <c r="E79" t="s">
@@ -14980,8 +14965,8 @@
       <c r="P79" s="2">
         <v>1</v>
       </c>
-      <c r="Q79" s="2" t="s">
-        <v>124</v>
+      <c r="Q79" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="R79" s="2">
         <v>460</v>
@@ -15081,16 +15066,16 @@
       <c r="CE79" s="2"/>
     </row>
     <row r="80" spans="1:51">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="27" t="s">
         <v>556</v>
       </c>
       <c r="C80" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="6" t="s">
         <v>557</v>
       </c>
       <c r="E80" t="s">
@@ -15111,7 +15096,7 @@
       <c r="P80">
         <v>1</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="Q80" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R80" s="2">
@@ -15173,16 +15158,16 @@
       </c>
     </row>
     <row r="81" spans="1:61">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="25" t="s">
         <v>566</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="27" t="s">
         <v>567</v>
       </c>
       <c r="C81" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="6" t="s">
         <v>568</v>
       </c>
       <c r="E81" t="s">
@@ -15203,7 +15188,7 @@
       <c r="P81">
         <v>1</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="Q81" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R81" s="2">
@@ -15289,16 +15274,16 @@
       </c>
     </row>
     <row r="82" spans="1:83">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="26" t="s">
         <v>582</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="6" t="s">
         <v>583</v>
       </c>
       <c r="E82" t="s">
@@ -15323,7 +15308,7 @@
       <c r="P82" s="2">
         <v>1</v>
       </c>
-      <c r="Q82" s="2" t="s">
+      <c r="Q82" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R82" s="2">
@@ -15412,16 +15397,16 @@
       <c r="CE82" s="2"/>
     </row>
     <row r="83" spans="1:67">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="27" t="s">
         <v>586</v>
       </c>
       <c r="C83" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="6" t="s">
         <v>587</v>
       </c>
       <c r="E83" t="s">
@@ -15430,8 +15415,6 @@
       <c r="F83" t="s">
         <v>589</v>
       </c>
-      <c r="G83"/>
-      <c r="H83"/>
       <c r="I83" s="1" t="s">
         <v>255</v>
       </c>
@@ -15441,16 +15424,13 @@
       <c r="K83" t="s">
         <v>590</v>
       </c>
-      <c r="L83"/>
       <c r="M83" t="s">
         <v>591</v>
       </c>
-      <c r="N83"/>
-      <c r="O83"/>
       <c r="P83">
         <v>1</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="Q83" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R83" s="2">
@@ -15462,23 +15442,6 @@
       <c r="T83" s="2">
         <v>262</v>
       </c>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-      <c r="AB83"/>
-      <c r="AC83"/>
-      <c r="AD83"/>
-      <c r="AE83"/>
-      <c r="AF83"/>
-      <c r="AG83"/>
-      <c r="AH83"/>
-      <c r="AI83"/>
-      <c r="AJ83"/>
-      <c r="AK83"/>
       <c r="AL83" t="s">
         <v>325</v>
       </c>
@@ -15571,16 +15534,16 @@
       </c>
     </row>
     <row r="84" spans="1:83">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="26" t="s">
         <v>611</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="6" t="s">
         <v>612</v>
       </c>
       <c r="E84" t="s">
@@ -15609,7 +15572,7 @@
       <c r="P84" s="2">
         <v>1</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="Q84" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R84" s="2">
@@ -15702,16 +15665,16 @@
       <c r="CE84" s="2"/>
     </row>
     <row r="85" spans="1:53">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="27" t="s">
         <v>619</v>
       </c>
       <c r="C85" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="6" t="s">
         <v>620</v>
       </c>
       <c r="E85" t="s">
@@ -15744,7 +15707,7 @@
       <c r="P85">
         <v>1</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="Q85" s="35" t="s">
         <v>162</v>
       </c>
       <c r="R85" s="2">
@@ -15891,16 +15854,16 @@
       <c r="CE86" s="2"/>
     </row>
     <row r="87" spans="1:83">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="33" t="s">
         <v>633</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="6" t="s">
         <v>634</v>
       </c>
       <c r="E87" t="s">
@@ -15926,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="R87" s="2">
         <v>1000</v>
@@ -16008,16 +15971,16 @@
       <c r="CE87" s="2"/>
     </row>
     <row r="88" spans="1:83">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="32" t="s">
         <v>636</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="33" t="s">
         <v>637</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="6" t="s">
         <v>638</v>
       </c>
       <c r="E88" t="s">
@@ -16043,7 +16006,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="R88" s="2">
         <v>1020</v>
@@ -16125,16 +16088,16 @@
       <c r="CE88" s="2"/>
     </row>
     <row r="89" spans="1:83">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="32" t="s">
         <v>640</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="33" t="s">
         <v>641</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="6" t="s">
         <v>642</v>
       </c>
       <c r="E89" t="s">
@@ -16160,7 +16123,7 @@
         <v>1</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="R89" s="2">
         <v>1100</v>
@@ -16242,16 +16205,16 @@
       <c r="CE89" s="2"/>
     </row>
     <row r="90" spans="1:83">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="32" t="s">
         <v>644</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="33" t="s">
         <v>645</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="6" t="s">
         <v>646</v>
       </c>
       <c r="E90" t="s">
@@ -16277,7 +16240,7 @@
         <v>1</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="R90" s="2">
         <v>1400</v>
@@ -16359,16 +16322,16 @@
       <c r="CE90" s="2"/>
     </row>
     <row r="91" spans="1:83">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="33" t="s">
         <v>649</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="6" t="s">
         <v>650</v>
       </c>
       <c r="E91" t="s">
@@ -16476,16 +16439,16 @@
       <c r="CE91" s="2"/>
     </row>
     <row r="92" spans="1:83">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="32" t="s">
         <v>652</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="33" t="s">
         <v>653</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="6" t="s">
         <v>654</v>
       </c>
       <c r="E92" t="s">
@@ -16593,16 +16556,16 @@
       <c r="CE92" s="2"/>
     </row>
     <row r="93" spans="1:83">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="32" t="s">
         <v>656</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="33" t="s">
         <v>657</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="6" t="s">
         <v>658</v>
       </c>
       <c r="E93" t="s">
@@ -16792,16 +16755,16 @@
       <c r="CE94" s="2"/>
     </row>
     <row r="95" spans="1:43">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="32" t="s">
         <v>660</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="34" t="s">
         <v>661</v>
       </c>
       <c r="C95" t="s">
         <v>127</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="6" t="s">
         <v>662</v>
       </c>
       <c r="E95" t="s">
@@ -16819,8 +16782,8 @@
       <c r="P95">
         <v>1</v>
       </c>
-      <c r="Q95" t="s">
-        <v>162</v>
+      <c r="Q95" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R95" s="2">
         <v>1060</v>
@@ -16851,16 +16814,16 @@
       </c>
     </row>
     <row r="96" customFormat="1" ht="15.5" spans="1:49">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="32" t="s">
         <v>666</v>
       </c>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="34" t="s">
         <v>667</v>
       </c>
       <c r="C96" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="6" t="s">
         <v>668</v>
       </c>
       <c r="E96" t="s">
@@ -16869,24 +16832,17 @@
       <c r="F96" t="s">
         <v>123</v>
       </c>
-      <c r="G96"/>
-      <c r="H96"/>
       <c r="I96" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="O96"/>
       <c r="P96">
         <v>1</v>
       </c>
-      <c r="Q96" t="s">
-        <v>162</v>
+      <c r="Q96" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R96" s="2">
         <v>3000</v>
@@ -16897,42 +16853,25 @@
       <c r="T96" s="2">
         <v>150</v>
       </c>
-      <c r="U96"/>
-      <c r="V96"/>
-      <c r="W96"/>
-      <c r="X96"/>
-      <c r="Y96"/>
-      <c r="Z96"/>
-      <c r="AA96"/>
-      <c r="AB96"/>
-      <c r="AC96"/>
-      <c r="AD96"/>
-      <c r="AE96"/>
-      <c r="AF96"/>
-      <c r="AG96"/>
-      <c r="AH96"/>
-      <c r="AI96"/>
-      <c r="AJ96"/>
-      <c r="AK96"/>
-      <c r="AL96" s="38" t="s">
+      <c r="AL96" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="AM96" s="38">
+      <c r="AM96" s="2">
         <v>60</v>
       </c>
-      <c r="AN96" s="38" t="s">
+      <c r="AN96" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="AO96" s="38">
+      <c r="AO96" s="2">
         <v>3</v>
       </c>
-      <c r="AP96" s="38" t="s">
+      <c r="AP96" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="AQ96" s="38">
+      <c r="AQ96" s="2">
         <v>10</v>
       </c>
-      <c r="AR96" s="38" t="s">
+      <c r="AR96" s="2" t="s">
         <v>673</v>
       </c>
       <c r="AS96">
@@ -16952,16 +16891,16 @@
       </c>
     </row>
     <row r="97" spans="1:65">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="32" t="s">
         <v>676</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="34" t="s">
         <v>677</v>
       </c>
       <c r="C97" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="6" t="s">
         <v>678</v>
       </c>
       <c r="E97" t="s">
@@ -16994,8 +16933,8 @@
       <c r="P97">
         <v>1</v>
       </c>
-      <c r="Q97" t="s">
-        <v>172</v>
+      <c r="Q97" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R97" s="2">
         <v>3520</v>
@@ -17095,16 +17034,16 @@
       </c>
     </row>
     <row r="98" spans="1:47">
-      <c r="A98" s="35" t="s">
+      <c r="A98" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="B98" s="37" t="s">
+      <c r="B98" s="34" t="s">
         <v>694</v>
       </c>
       <c r="C98" t="s">
         <v>127</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="6" t="s">
         <v>695</v>
       </c>
       <c r="E98" t="s">
@@ -17137,8 +17076,8 @@
       <c r="P98">
         <v>1</v>
       </c>
-      <c r="Q98" t="s">
-        <v>162</v>
+      <c r="Q98" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R98" s="2">
         <v>1320</v>
@@ -17181,16 +17120,16 @@
       </c>
     </row>
     <row r="99" spans="1:47">
-      <c r="A99" s="35" t="s">
+      <c r="A99" s="32" t="s">
         <v>707</v>
       </c>
-      <c r="B99" s="37" t="s">
+      <c r="B99" s="34" t="s">
         <v>708</v>
       </c>
       <c r="C99" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="6" t="s">
         <v>709</v>
       </c>
       <c r="E99" t="s">
@@ -17223,7 +17162,7 @@
       <c r="P99">
         <v>1</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="Q99" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R99" s="2">
@@ -17267,16 +17206,16 @@
       </c>
     </row>
     <row r="100" spans="1:47">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="B100" s="37" t="s">
+      <c r="B100" s="34" t="s">
         <v>711</v>
       </c>
       <c r="C100" t="s">
         <v>127</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="6" t="s">
         <v>712</v>
       </c>
       <c r="E100" t="s">
@@ -17309,7 +17248,7 @@
       <c r="P100">
         <v>1</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="Q100" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R100" s="2">
@@ -17353,16 +17292,16 @@
       </c>
     </row>
     <row r="101" spans="1:47">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="32" t="s">
         <v>713</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B101" s="34" t="s">
         <v>714</v>
       </c>
       <c r="C101" t="s">
         <v>127</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="6" t="s">
         <v>715</v>
       </c>
       <c r="E101" t="s">
@@ -17395,8 +17334,8 @@
       <c r="P101">
         <v>1</v>
       </c>
-      <c r="Q101" t="s">
-        <v>172</v>
+      <c r="Q101" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R101" s="2">
         <v>3320</v>
@@ -17439,16 +17378,16 @@
       </c>
     </row>
     <row r="102" spans="1:47">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="32" t="s">
         <v>716</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="34" t="s">
         <v>717</v>
       </c>
       <c r="C102" t="s">
         <v>127</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="6" t="s">
         <v>718</v>
       </c>
       <c r="E102" t="s">
@@ -17481,8 +17420,8 @@
       <c r="P102">
         <v>1</v>
       </c>
-      <c r="Q102" t="s">
-        <v>172</v>
+      <c r="Q102" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R102" s="2">
         <v>3920</v>
@@ -17525,16 +17464,16 @@
       </c>
     </row>
     <row r="103" spans="1:67">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="32" t="s">
         <v>719</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="34" t="s">
         <v>720</v>
       </c>
       <c r="C103" t="s">
         <v>127</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="6" t="s">
         <v>721</v>
       </c>
       <c r="E103" t="s">
@@ -17558,8 +17497,8 @@
       <c r="P103">
         <v>1</v>
       </c>
-      <c r="Q103" t="s">
-        <v>162</v>
+      <c r="Q103" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R103" s="2">
         <v>1200</v>
@@ -17662,16 +17601,16 @@
       </c>
     </row>
     <row r="104" spans="1:67">
-      <c r="A104" s="35" t="s">
+      <c r="A104" s="32" t="s">
         <v>748</v>
       </c>
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="34" t="s">
         <v>749</v>
       </c>
       <c r="C104" t="s">
         <v>127</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="6" t="s">
         <v>750</v>
       </c>
       <c r="E104" t="s">
@@ -17695,7 +17634,7 @@
       <c r="P104">
         <v>1</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="Q104" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R104" s="2">
@@ -17799,16 +17738,16 @@
       </c>
     </row>
     <row r="105" spans="1:67">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="32" t="s">
         <v>751</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="34" t="s">
         <v>752</v>
       </c>
       <c r="C105" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="6" t="s">
         <v>753</v>
       </c>
       <c r="E105" t="s">
@@ -17832,7 +17771,7 @@
       <c r="P105">
         <v>1</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="Q105" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R105" s="2">
@@ -17936,16 +17875,16 @@
       </c>
     </row>
     <row r="106" spans="1:67">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="32" t="s">
         <v>754</v>
       </c>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="34" t="s">
         <v>755</v>
       </c>
       <c r="C106" t="s">
         <v>127</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D106" s="6" t="s">
         <v>756</v>
       </c>
       <c r="E106" t="s">
@@ -17969,8 +17908,8 @@
       <c r="P106">
         <v>1</v>
       </c>
-      <c r="Q106" t="s">
-        <v>172</v>
+      <c r="Q106" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R106" s="2">
         <v>3150</v>
@@ -18073,16 +18012,16 @@
       </c>
     </row>
     <row r="107" spans="1:67">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="32" t="s">
         <v>757</v>
       </c>
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="34" t="s">
         <v>758</v>
       </c>
       <c r="C107" t="s">
         <v>127</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="6" t="s">
         <v>759</v>
       </c>
       <c r="E107" t="s">
@@ -18106,8 +18045,8 @@
       <c r="P107">
         <v>1</v>
       </c>
-      <c r="Q107" t="s">
-        <v>172</v>
+      <c r="Q107" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R107" s="2">
         <v>3800</v>
@@ -18210,16 +18149,16 @@
       </c>
     </row>
     <row r="108" spans="1:67">
-      <c r="A108" s="35" t="s">
+      <c r="A108" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="34" t="s">
         <v>586</v>
       </c>
       <c r="C108" t="s">
         <v>127</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D108" s="6" t="s">
         <v>587</v>
       </c>
       <c r="E108" t="s">
@@ -18243,8 +18182,8 @@
       <c r="P108">
         <v>1</v>
       </c>
-      <c r="Q108" t="s">
-        <v>162</v>
+      <c r="Q108" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R108" s="2">
         <v>1310</v>
@@ -18347,16 +18286,16 @@
       </c>
     </row>
     <row r="109" spans="1:67">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="32" t="s">
         <v>760</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="34" t="s">
         <v>761</v>
       </c>
       <c r="C109" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="6" t="s">
         <v>762</v>
       </c>
       <c r="E109" t="s">
@@ -18380,7 +18319,7 @@
       <c r="P109">
         <v>1</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="Q109" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R109" s="2">
@@ -18484,16 +18423,16 @@
       </c>
     </row>
     <row r="110" spans="1:67">
-      <c r="A110" s="35" t="s">
+      <c r="A110" s="32" t="s">
         <v>763</v>
       </c>
-      <c r="B110" s="37" t="s">
+      <c r="B110" s="34" t="s">
         <v>764</v>
       </c>
       <c r="C110" t="s">
         <v>127</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D110" s="6" t="s">
         <v>765</v>
       </c>
       <c r="E110" t="s">
@@ -18517,7 +18456,7 @@
       <c r="P110">
         <v>1</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="Q110" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R110" s="2">
@@ -18621,16 +18560,16 @@
       </c>
     </row>
     <row r="111" spans="1:67">
-      <c r="A111" s="35" t="s">
+      <c r="A111" s="32" t="s">
         <v>766</v>
       </c>
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="34" t="s">
         <v>767</v>
       </c>
       <c r="C111" t="s">
         <v>127</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="6" t="s">
         <v>768</v>
       </c>
       <c r="E111" t="s">
@@ -18654,8 +18593,8 @@
       <c r="P111">
         <v>1</v>
       </c>
-      <c r="Q111" t="s">
-        <v>172</v>
+      <c r="Q111" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R111" s="2">
         <v>3560</v>
@@ -18758,16 +18697,16 @@
       </c>
     </row>
     <row r="112" spans="1:51">
-      <c r="A112" s="35" t="s">
+      <c r="A112" s="32" t="s">
         <v>769</v>
       </c>
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="34" t="s">
         <v>770</v>
       </c>
       <c r="C112" t="s">
         <v>127</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D112" s="6" t="s">
         <v>771</v>
       </c>
       <c r="E112" t="s">
@@ -18800,8 +18739,8 @@
       <c r="P112">
         <v>1</v>
       </c>
-      <c r="Q112" t="s">
-        <v>162</v>
+      <c r="Q112" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R112" s="2">
         <v>1370</v>
@@ -18856,16 +18795,16 @@
       </c>
     </row>
     <row r="113" spans="1:69">
-      <c r="A113" s="35" t="s">
+      <c r="A113" s="32" t="s">
         <v>777</v>
       </c>
-      <c r="B113" s="37" t="s">
+      <c r="B113" s="34" t="s">
         <v>778</v>
       </c>
       <c r="C113" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="6" t="s">
         <v>779</v>
       </c>
       <c r="E113" t="s">
@@ -18898,8 +18837,8 @@
       <c r="P113">
         <v>1</v>
       </c>
-      <c r="Q113" t="s">
-        <v>172</v>
+      <c r="Q113" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R113" s="2">
         <v>5000</v>
@@ -19014,16 +18953,16 @@
       </c>
     </row>
     <row r="114" spans="1:79">
-      <c r="A114" s="35" t="s">
+      <c r="A114" s="32" t="s">
         <v>791</v>
       </c>
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="34" t="s">
         <v>792</v>
       </c>
       <c r="C114" t="s">
         <v>127</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D114" s="6" t="s">
         <v>793</v>
       </c>
       <c r="E114" t="s">
@@ -19056,8 +18995,8 @@
       <c r="P114">
         <v>1</v>
       </c>
-      <c r="Q114" t="s">
-        <v>172</v>
+      <c r="Q114" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R114" s="2">
         <v>4650</v>
@@ -19196,16 +19135,16 @@
       </c>
     </row>
     <row r="115" spans="1:47">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="32" t="s">
         <v>809</v>
       </c>
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="34" t="s">
         <v>810</v>
       </c>
       <c r="C115" t="s">
         <v>127</v>
       </c>
-      <c r="D115" s="24" t="s">
+      <c r="D115" s="6" t="s">
         <v>811</v>
       </c>
       <c r="E115" t="s">
@@ -19238,8 +19177,8 @@
       <c r="P115">
         <v>1</v>
       </c>
-      <c r="Q115" t="s">
-        <v>162</v>
+      <c r="Q115" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R115" s="2">
         <v>1120</v>
@@ -19282,16 +19221,16 @@
       </c>
     </row>
     <row r="116" spans="1:53">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="32" t="s">
         <v>816</v>
       </c>
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="34" t="s">
         <v>817</v>
       </c>
       <c r="C116" t="s">
         <v>127</v>
       </c>
-      <c r="D116" s="24" t="s">
+      <c r="D116" s="6" t="s">
         <v>818</v>
       </c>
       <c r="E116" t="s">
@@ -19312,8 +19251,8 @@
       <c r="P116">
         <v>1</v>
       </c>
-      <c r="Q116" t="s">
-        <v>162</v>
+      <c r="Q116" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R116" s="2">
         <v>1100</v>
@@ -19374,16 +19313,16 @@
       </c>
     </row>
     <row r="117" spans="1:55">
-      <c r="A117" s="35" t="s">
+      <c r="A117" s="32" t="s">
         <v>825</v>
       </c>
-      <c r="B117" s="37" t="s">
+      <c r="B117" s="34" t="s">
         <v>826</v>
       </c>
       <c r="C117" t="s">
         <v>127</v>
       </c>
-      <c r="D117" s="24" t="s">
+      <c r="D117" s="6" t="s">
         <v>818</v>
       </c>
       <c r="E117" t="s">
@@ -19404,8 +19343,8 @@
       <c r="P117">
         <v>1</v>
       </c>
-      <c r="Q117" t="s">
-        <v>172</v>
+      <c r="Q117" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R117" s="2">
         <v>3500</v>
@@ -19472,16 +19411,16 @@
       </c>
     </row>
     <row r="118" spans="1:53">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="32" t="s">
         <v>828</v>
       </c>
-      <c r="B118" s="37" t="s">
+      <c r="B118" s="34" t="s">
         <v>829</v>
       </c>
       <c r="C118" t="s">
         <v>127</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="D118" s="6" t="s">
         <v>830</v>
       </c>
       <c r="E118" t="s">
@@ -19511,7 +19450,7 @@
       <c r="P118">
         <v>1</v>
       </c>
-      <c r="Q118" t="s">
+      <c r="Q118" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R118" s="2">
@@ -19573,16 +19512,16 @@
       </c>
     </row>
     <row r="119" spans="1:57">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="32" t="s">
         <v>838</v>
       </c>
-      <c r="B119" s="37" t="s">
+      <c r="B119" s="34" t="s">
         <v>839</v>
       </c>
       <c r="C119" t="s">
         <v>127</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="6" t="s">
         <v>840</v>
       </c>
       <c r="E119" t="s">
@@ -19612,8 +19551,8 @@
       <c r="P119">
         <v>1</v>
       </c>
-      <c r="Q119" t="s">
-        <v>172</v>
+      <c r="Q119" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R119" s="2">
         <v>3450</v>
@@ -19686,16 +19625,16 @@
       </c>
     </row>
     <row r="120" spans="1:53">
-      <c r="A120" s="35" t="s">
+      <c r="A120" s="32" t="s">
         <v>844</v>
       </c>
-      <c r="B120" s="37" t="s">
+      <c r="B120" s="34" t="s">
         <v>845</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="6" t="s">
         <v>846</v>
       </c>
       <c r="E120" t="s">
@@ -19713,8 +19652,8 @@
       <c r="P120">
         <v>1</v>
       </c>
-      <c r="Q120" t="s">
-        <v>162</v>
+      <c r="Q120" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R120" s="2">
         <v>1400</v>
@@ -19775,16 +19714,16 @@
       </c>
     </row>
     <row r="121" spans="1:55">
-      <c r="A121" s="35" t="s">
+      <c r="A121" s="32" t="s">
         <v>854</v>
       </c>
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="34" t="s">
         <v>855</v>
       </c>
       <c r="C121" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="D121" s="6" t="s">
         <v>856</v>
       </c>
       <c r="E121" t="s">
@@ -19805,8 +19744,8 @@
       <c r="P121">
         <v>1</v>
       </c>
-      <c r="Q121" t="s">
-        <v>162</v>
+      <c r="Q121" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R121" s="2">
         <v>1470</v>
@@ -19879,16 +19818,16 @@
       </c>
     </row>
     <row r="122" spans="1:55">
-      <c r="A122" s="35" t="s">
+      <c r="A122" s="32" t="s">
         <v>865</v>
       </c>
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="34" t="s">
         <v>866</v>
       </c>
       <c r="C122" t="s">
         <v>127</v>
       </c>
-      <c r="D122" s="24" t="s">
+      <c r="D122" s="6" t="s">
         <v>867</v>
       </c>
       <c r="E122" t="s">
@@ -19921,8 +19860,8 @@
       <c r="P122">
         <v>1</v>
       </c>
-      <c r="Q122" t="s">
-        <v>162</v>
+      <c r="Q122" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R122" s="2">
         <v>1070</v>
@@ -19992,16 +19931,16 @@
       </c>
     </row>
     <row r="123" spans="1:59">
-      <c r="A123" s="35" t="s">
+      <c r="A123" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="34" t="s">
         <v>871</v>
       </c>
       <c r="C123" t="s">
         <v>127</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="6" t="s">
         <v>872</v>
       </c>
       <c r="E123" t="s">
@@ -20034,7 +19973,7 @@
       <c r="P123">
         <v>1</v>
       </c>
-      <c r="Q123" t="s">
+      <c r="Q123" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R123" s="2">
@@ -20117,16 +20056,16 @@
       </c>
     </row>
     <row r="124" spans="1:47">
-      <c r="A124" s="35" t="s">
+      <c r="A124" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="B124" s="37" t="s">
+      <c r="B124" s="34" t="s">
         <v>876</v>
       </c>
       <c r="C124" t="s">
         <v>127</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="6" t="s">
         <v>877</v>
       </c>
       <c r="E124" t="s">
@@ -20147,8 +20086,8 @@
       <c r="P124">
         <v>1</v>
       </c>
-      <c r="Q124" t="s">
-        <v>162</v>
+      <c r="Q124" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R124" s="2">
         <v>1020</v>
@@ -20191,16 +20130,16 @@
       </c>
     </row>
     <row r="125" spans="1:49">
-      <c r="A125" s="35" t="s">
+      <c r="A125" s="32" t="s">
         <v>885</v>
       </c>
-      <c r="B125" s="37" t="s">
+      <c r="B125" s="34" t="s">
         <v>886</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
       </c>
-      <c r="D125" s="24" t="s">
+      <c r="D125" s="6" t="s">
         <v>887</v>
       </c>
       <c r="E125" t="s">
@@ -20221,8 +20160,8 @@
       <c r="P125">
         <v>1</v>
       </c>
-      <c r="Q125" t="s">
-        <v>162</v>
+      <c r="Q125" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R125" s="2">
         <v>1020</v>
@@ -20271,16 +20210,16 @@
       </c>
     </row>
     <row r="126" spans="1:47">
-      <c r="A126" s="35" t="s">
+      <c r="A126" s="32" t="s">
         <v>890</v>
       </c>
-      <c r="B126" s="37" t="s">
+      <c r="B126" s="34" t="s">
         <v>891</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="24" t="s">
+      <c r="D126" s="6" t="s">
         <v>892</v>
       </c>
       <c r="E126" t="s">
@@ -20301,8 +20240,8 @@
       <c r="P126">
         <v>1</v>
       </c>
-      <c r="Q126" t="s">
-        <v>162</v>
+      <c r="Q126" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R126" s="2">
         <v>1020</v>
@@ -20345,16 +20284,16 @@
       </c>
     </row>
     <row r="127" spans="1:59">
-      <c r="A127" s="35" t="s">
+      <c r="A127" s="32" t="s">
         <v>896</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="34" t="s">
         <v>897</v>
       </c>
       <c r="C127" t="s">
         <v>127</v>
       </c>
-      <c r="D127" s="24" t="s">
+      <c r="D127" s="6" t="s">
         <v>898</v>
       </c>
       <c r="E127" t="s">
@@ -20381,8 +20320,8 @@
       <c r="P127">
         <v>1</v>
       </c>
-      <c r="Q127" t="s">
-        <v>162</v>
+      <c r="Q127" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R127" s="2">
         <v>1320</v>
@@ -20455,16 +20394,16 @@
       </c>
     </row>
     <row r="128" spans="1:59">
-      <c r="A128" s="35" t="s">
+      <c r="A128" s="32" t="s">
         <v>906</v>
       </c>
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="34" t="s">
         <v>907</v>
       </c>
       <c r="C128" t="s">
         <v>127</v>
       </c>
-      <c r="D128" s="24" t="s">
+      <c r="D128" s="6" t="s">
         <v>908</v>
       </c>
       <c r="E128" t="s">
@@ -20485,8 +20424,8 @@
       <c r="P128">
         <v>1</v>
       </c>
-      <c r="Q128" t="s">
-        <v>162</v>
+      <c r="Q128" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R128" s="2">
         <v>1570</v>
@@ -20571,16 +20510,16 @@
       </c>
     </row>
     <row r="129" ht="15.5" spans="1:69">
-      <c r="A129" s="35" t="s">
+      <c r="A129" s="32" t="s">
         <v>914</v>
       </c>
-      <c r="B129" s="37" t="s">
+      <c r="B129" s="34" t="s">
         <v>915</v>
       </c>
       <c r="C129" t="s">
         <v>127</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="6" t="s">
         <v>916</v>
       </c>
       <c r="E129" t="s">
@@ -20604,7 +20543,7 @@
       <c r="P129">
         <v>1</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="Q129" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R129" s="2">
@@ -20714,16 +20653,16 @@
       </c>
     </row>
     <row r="130" spans="1:51">
-      <c r="A130" s="35" t="s">
+      <c r="A130" s="32" t="s">
         <v>929</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="34" t="s">
         <v>930</v>
       </c>
       <c r="C130" t="s">
         <v>127</v>
       </c>
-      <c r="D130" s="24" t="s">
+      <c r="D130" s="6" t="s">
         <v>931</v>
       </c>
       <c r="E130" t="s">
@@ -20738,8 +20677,8 @@
       <c r="P130">
         <v>1</v>
       </c>
-      <c r="Q130" t="s">
-        <v>162</v>
+      <c r="Q130" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R130" s="2">
         <v>1020</v>
@@ -20794,16 +20733,16 @@
       </c>
     </row>
     <row r="131" spans="1:51">
-      <c r="A131" s="35" t="s">
+      <c r="A131" s="32" t="s">
         <v>939</v>
       </c>
-      <c r="B131" s="37" t="s">
+      <c r="B131" s="34" t="s">
         <v>940</v>
       </c>
       <c r="C131" t="s">
         <v>127</v>
       </c>
-      <c r="D131" s="24" t="s">
+      <c r="D131" s="6" t="s">
         <v>941</v>
       </c>
       <c r="E131" t="s">
@@ -20818,7 +20757,7 @@
       <c r="P131">
         <v>1</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="Q131" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R131" s="2">
@@ -20874,16 +20813,16 @@
       </c>
     </row>
     <row r="132" spans="1:71">
-      <c r="A132" s="35" t="s">
+      <c r="A132" s="32" t="s">
         <v>943</v>
       </c>
-      <c r="B132" s="37" t="s">
+      <c r="B132" s="34" t="s">
         <v>944</v>
       </c>
       <c r="C132" t="s">
         <v>127</v>
       </c>
-      <c r="D132" s="24" t="s">
+      <c r="D132" s="6" t="s">
         <v>945</v>
       </c>
       <c r="E132" t="s">
@@ -20913,7 +20852,7 @@
       <c r="P132">
         <v>1</v>
       </c>
-      <c r="Q132" t="s">
+      <c r="Q132" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R132" s="2">
@@ -21032,16 +20971,16 @@
       </c>
     </row>
     <row r="133" spans="1:53">
-      <c r="A133" s="35" t="s">
+      <c r="A133" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="34" t="s">
         <v>962</v>
       </c>
       <c r="C133" t="s">
         <v>127</v>
       </c>
-      <c r="D133" s="24" t="s">
+      <c r="D133" s="6" t="s">
         <v>963</v>
       </c>
       <c r="E133" t="s">
@@ -21062,7 +21001,7 @@
       <c r="P133">
         <v>1</v>
       </c>
-      <c r="Q133" t="s">
+      <c r="Q133" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R133" s="2">
@@ -21130,16 +21069,16 @@
       </c>
     </row>
     <row r="134" spans="1:47">
-      <c r="A134" s="35" t="s">
+      <c r="A134" s="32" t="s">
         <v>972</v>
       </c>
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="34" t="s">
         <v>973</v>
       </c>
       <c r="C134" t="s">
         <v>127</v>
       </c>
-      <c r="D134" s="24" t="s">
+      <c r="D134" s="6" t="s">
         <v>974</v>
       </c>
       <c r="E134" t="s">
@@ -21163,7 +21102,7 @@
       <c r="P134">
         <v>1</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="Q134" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R134" s="2">
@@ -21207,16 +21146,16 @@
       </c>
     </row>
     <row r="135" spans="1:49">
-      <c r="A135" s="35" t="s">
+      <c r="A135" s="32" t="s">
         <v>982</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="34" t="s">
         <v>983</v>
       </c>
       <c r="C135" t="s">
         <v>127</v>
       </c>
-      <c r="D135" s="24" t="s">
+      <c r="D135" s="6" t="s">
         <v>984</v>
       </c>
       <c r="E135" t="s">
@@ -21237,8 +21176,8 @@
       <c r="P135">
         <v>1</v>
       </c>
-      <c r="Q135" t="s">
-        <v>162</v>
+      <c r="Q135" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R135" s="2">
         <v>1550</v>
@@ -21293,16 +21232,16 @@
       </c>
     </row>
     <row r="136" spans="1:67">
-      <c r="A136" s="35" t="s">
+      <c r="A136" s="32" t="s">
         <v>990</v>
       </c>
-      <c r="B136" s="37" t="s">
+      <c r="B136" s="34" t="s">
         <v>991</v>
       </c>
       <c r="C136" t="s">
         <v>127</v>
       </c>
-      <c r="D136" s="24" t="s">
+      <c r="D136" s="6" t="s">
         <v>992</v>
       </c>
       <c r="E136" t="s">
@@ -21335,7 +21274,7 @@
       <c r="P136">
         <v>1</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="Q136" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R136" s="2">
@@ -21439,16 +21378,16 @@
       </c>
     </row>
     <row r="137" ht="15.5" spans="1:47">
-      <c r="A137" s="35" t="s">
+      <c r="A137" s="32" t="s">
         <v>1001</v>
       </c>
-      <c r="B137" s="37" t="s">
+      <c r="B137" s="34" t="s">
         <v>1002</v>
       </c>
       <c r="C137" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="39" t="s">
+      <c r="D137" s="36" t="s">
         <v>1003</v>
       </c>
       <c r="E137" t="s">
@@ -21469,7 +21408,7 @@
       <c r="P137">
         <v>1</v>
       </c>
-      <c r="Q137" t="s">
+      <c r="Q137" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R137" s="2">
@@ -21516,16 +21455,16 @@
       </c>
     </row>
     <row r="138" spans="1:47">
-      <c r="A138" s="35" t="s">
+      <c r="A138" s="32" t="s">
         <v>1008</v>
       </c>
-      <c r="B138" s="37" t="s">
+      <c r="B138" s="34" t="s">
         <v>1009</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D138" s="24" t="s">
+      <c r="D138" s="6" t="s">
         <v>1010</v>
       </c>
       <c r="E138" t="s">
@@ -21555,7 +21494,7 @@
       <c r="P138">
         <v>1</v>
       </c>
-      <c r="Q138" t="s">
+      <c r="Q138" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R138" s="2">
@@ -21602,16 +21541,16 @@
       </c>
     </row>
     <row r="139" spans="1:51">
-      <c r="A139" s="35" t="s">
+      <c r="A139" s="32" t="s">
         <v>1012</v>
       </c>
-      <c r="B139" s="37" t="s">
+      <c r="B139" s="34" t="s">
         <v>1013</v>
       </c>
       <c r="C139" t="s">
         <v>127</v>
       </c>
-      <c r="D139" s="24" t="s">
+      <c r="D139" s="6" t="s">
         <v>1014</v>
       </c>
       <c r="E139" t="s">
@@ -21644,7 +21583,7 @@
       <c r="P139">
         <v>1</v>
       </c>
-      <c r="Q139" t="s">
+      <c r="Q139" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R139" s="2">
@@ -21700,16 +21639,16 @@
       </c>
     </row>
     <row r="140" spans="1:53">
-      <c r="A140" s="35" t="s">
+      <c r="A140" s="32" t="s">
         <v>1019</v>
       </c>
-      <c r="B140" s="37" t="s">
+      <c r="B140" s="34" t="s">
         <v>1020</v>
       </c>
       <c r="C140" t="s">
         <v>127</v>
       </c>
-      <c r="D140" s="24" t="s">
+      <c r="D140" s="6" t="s">
         <v>1021</v>
       </c>
       <c r="E140" t="s">
@@ -21739,7 +21678,7 @@
       <c r="P140">
         <v>1</v>
       </c>
-      <c r="Q140" t="s">
+      <c r="Q140" s="2" t="s">
         <v>167</v>
       </c>
       <c r="R140" s="2">
@@ -21804,16 +21743,16 @@
       </c>
     </row>
     <row r="141" spans="1:63">
-      <c r="A141" s="40" t="s">
+      <c r="A141" s="37" t="s">
         <v>1027</v>
       </c>
-      <c r="B141" s="40" t="s">
+      <c r="B141" s="37" t="s">
         <v>1028</v>
       </c>
       <c r="C141" t="s">
         <v>127</v>
       </c>
-      <c r="D141" s="41" t="s">
+      <c r="D141" s="38" t="s">
         <v>1029</v>
       </c>
       <c r="E141" t="s">
@@ -21822,8 +21761,6 @@
       <c r="F141" t="s">
         <v>440</v>
       </c>
-      <c r="G141"/>
-      <c r="H141"/>
       <c r="I141" s="1" t="s">
         <v>255</v>
       </c>
@@ -21833,17 +21770,14 @@
       <c r="K141" t="s">
         <v>522</v>
       </c>
-      <c r="L141"/>
       <c r="M141" t="s">
         <v>523</v>
       </c>
-      <c r="N141"/>
-      <c r="O141"/>
       <c r="P141">
         <v>1</v>
       </c>
-      <c r="Q141" t="s">
-        <v>162</v>
+      <c r="Q141" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="R141" s="2">
         <v>760</v>
@@ -21854,23 +21788,6 @@
       <c r="T141" s="2">
         <v>152</v>
       </c>
-      <c r="U141"/>
-      <c r="V141"/>
-      <c r="W141"/>
-      <c r="X141"/>
-      <c r="Y141"/>
-      <c r="Z141"/>
-      <c r="AA141"/>
-      <c r="AB141"/>
-      <c r="AC141"/>
-      <c r="AD141"/>
-      <c r="AE141"/>
-      <c r="AF141"/>
-      <c r="AG141"/>
-      <c r="AH141"/>
-      <c r="AI141"/>
-      <c r="AJ141"/>
-      <c r="AK141"/>
       <c r="AL141" t="s">
         <v>524</v>
       </c>
@@ -22042,7 +21959,7 @@
       <c r="C143" t="s">
         <v>127</v>
       </c>
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="6" t="s">
         <v>1034</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -22060,7 +21977,7 @@
       <c r="P143">
         <v>1</v>
       </c>
-      <c r="Q143" t="s">
+      <c r="Q143" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R143" s="2">
@@ -22110,7 +22027,7 @@
       <c r="C144" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="24" t="s">
+      <c r="D144" s="6" t="s">
         <v>1040</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -22128,7 +22045,7 @@
       <c r="P144">
         <v>1</v>
       </c>
-      <c r="Q144" t="s">
+      <c r="Q144" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R144" s="2">
@@ -22178,7 +22095,7 @@
       <c r="C145" t="s">
         <v>127</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D145" s="6" t="s">
         <v>1044</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -22196,7 +22113,7 @@
       <c r="P145">
         <v>1</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="Q145" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R145" s="2">
@@ -22246,7 +22163,7 @@
       <c r="C146" t="s">
         <v>127</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="D146" s="6" t="s">
         <v>1047</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -22264,7 +22181,7 @@
       <c r="P146">
         <v>1</v>
       </c>
-      <c r="Q146" t="s">
+      <c r="Q146" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R146" s="2">
@@ -22314,7 +22231,7 @@
       <c r="C147" t="s">
         <v>127</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D147" s="6" t="s">
         <v>1050</v>
       </c>
       <c r="E147" t="s">
@@ -22338,8 +22255,8 @@
       <c r="P147">
         <v>1</v>
       </c>
-      <c r="Q147" t="s">
-        <v>167</v>
+      <c r="Q147" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R147" s="2">
         <v>2570</v>
@@ -22403,7 +22320,7 @@
       <c r="C148" t="s">
         <v>127</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D148" s="6" t="s">
         <v>1062</v>
       </c>
       <c r="E148" t="s">
@@ -22421,8 +22338,8 @@
       <c r="P148">
         <v>1</v>
       </c>
-      <c r="Q148" t="s">
-        <v>167</v>
+      <c r="Q148" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R148" s="2">
         <v>2080</v>
@@ -22474,7 +22391,7 @@
       <c r="C149" t="s">
         <v>127</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="6" t="s">
         <v>1066</v>
       </c>
       <c r="E149" t="s">
@@ -22495,8 +22412,8 @@
       <c r="P149">
         <v>1</v>
       </c>
-      <c r="Q149" t="s">
-        <v>167</v>
+      <c r="Q149" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R149" s="2">
         <v>2760</v>
@@ -22602,7 +22519,7 @@
       <c r="C150" t="s">
         <v>127</v>
       </c>
-      <c r="D150" s="24" t="s">
+      <c r="D150" s="6" t="s">
         <v>1080</v>
       </c>
       <c r="E150" t="s">
@@ -22620,8 +22537,8 @@
       <c r="P150">
         <v>1</v>
       </c>
-      <c r="Q150" t="s">
-        <v>167</v>
+      <c r="Q150" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R150" s="2">
         <v>2760</v>
@@ -22667,7 +22584,7 @@
       <c r="C151" t="s">
         <v>127</v>
       </c>
-      <c r="D151" s="24" t="s">
+      <c r="D151" s="6" t="s">
         <v>1085</v>
       </c>
       <c r="E151" t="s">
@@ -22697,8 +22614,8 @@
       <c r="P151">
         <v>1</v>
       </c>
-      <c r="Q151" t="s">
-        <v>167</v>
+      <c r="Q151" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R151" s="2">
         <v>2850</v>
@@ -22837,7 +22754,7 @@
       <c r="C152" t="s">
         <v>127</v>
       </c>
-      <c r="D152" s="24" t="s">
+      <c r="D152" s="6" t="s">
         <v>1100</v>
       </c>
       <c r="E152" t="s">
@@ -22867,7 +22784,7 @@
       <c r="P152">
         <v>1</v>
       </c>
-      <c r="Q152" t="s">
+      <c r="Q152" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R152" s="2">
@@ -22998,7 +22915,7 @@
       <c r="C153" t="s">
         <v>127</v>
       </c>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="6" t="s">
         <v>1108</v>
       </c>
       <c r="E153" t="s">
@@ -23019,8 +22936,8 @@
       <c r="P153">
         <v>1</v>
       </c>
-      <c r="Q153" t="s">
-        <v>167</v>
+      <c r="Q153" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R153" s="2">
         <v>2650</v>
@@ -23108,7 +23025,7 @@
       <c r="C154" t="s">
         <v>127</v>
       </c>
-      <c r="D154" s="24" t="s">
+      <c r="D154" s="6" t="s">
         <v>1121</v>
       </c>
       <c r="E154" t="s">
@@ -23126,8 +23043,8 @@
       <c r="P154">
         <v>1</v>
       </c>
-      <c r="Q154" t="s">
-        <v>167</v>
+      <c r="Q154" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R154" s="2">
         <v>2550</v>
@@ -23191,7 +23108,7 @@
       <c r="C155" t="s">
         <v>127</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="6" t="s">
         <v>1129</v>
       </c>
       <c r="E155" t="s">
@@ -23224,8 +23141,8 @@
       <c r="P155">
         <v>1</v>
       </c>
-      <c r="Q155" t="s">
-        <v>167</v>
+      <c r="Q155" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R155" s="2">
         <v>2850</v>
@@ -23301,7 +23218,7 @@
       <c r="C156" t="s">
         <v>127</v>
       </c>
-      <c r="D156" s="24" t="s">
+      <c r="D156" s="6" t="s">
         <v>1139</v>
       </c>
       <c r="E156" t="s">
@@ -23328,8 +23245,8 @@
       <c r="P156">
         <v>1</v>
       </c>
-      <c r="Q156" t="s">
-        <v>167</v>
+      <c r="Q156" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R156" s="2">
         <v>2000</v>
@@ -23402,7 +23319,7 @@
       <c r="C157" t="s">
         <v>127</v>
       </c>
-      <c r="D157" s="24" t="s">
+      <c r="D157" s="6" t="s">
         <v>1151</v>
       </c>
       <c r="E157" t="s">
@@ -23423,8 +23340,8 @@
       <c r="P157">
         <v>1</v>
       </c>
-      <c r="Q157" t="s">
-        <v>167</v>
+      <c r="Q157" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R157" s="2">
         <v>2750</v>
@@ -23548,7 +23465,7 @@
       <c r="C158" t="s">
         <v>127</v>
       </c>
-      <c r="D158" s="24" t="s">
+      <c r="D158" s="6" t="s">
         <v>1170</v>
       </c>
       <c r="E158" t="s">
@@ -23572,8 +23489,8 @@
       <c r="P158">
         <v>1</v>
       </c>
-      <c r="Q158" t="s">
-        <v>167</v>
+      <c r="Q158" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R158" s="2">
         <v>2350</v>
@@ -23727,7 +23644,7 @@
       <c r="C159" t="s">
         <v>127</v>
       </c>
-      <c r="D159" s="24" t="s">
+      <c r="D159" s="6" t="s">
         <v>1189</v>
       </c>
       <c r="E159" t="s">
@@ -23760,7 +23677,7 @@
       <c r="P159">
         <v>1</v>
       </c>
-      <c r="Q159" t="s">
+      <c r="Q159" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R159" s="2">
@@ -23921,7 +23838,7 @@
       <c r="C160" t="s">
         <v>127</v>
       </c>
-      <c r="D160" s="39" t="s">
+      <c r="D160" s="36" t="s">
         <v>1194</v>
       </c>
       <c r="E160" t="s">
@@ -23948,8 +23865,8 @@
       <c r="P160">
         <v>1</v>
       </c>
-      <c r="Q160" t="s">
-        <v>167</v>
+      <c r="Q160" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R160" s="2">
         <v>2350</v>
@@ -24049,7 +23966,7 @@
       <c r="C161" t="s">
         <v>127</v>
       </c>
-      <c r="D161" s="24" t="s">
+      <c r="D161" s="6" t="s">
         <v>1208</v>
       </c>
       <c r="E161" t="s">
@@ -24082,7 +23999,7 @@
       <c r="P161">
         <v>1</v>
       </c>
-      <c r="Q161" t="s">
+      <c r="Q161" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R161" s="2">
@@ -24171,7 +24088,7 @@
       <c r="C162" t="s">
         <v>127</v>
       </c>
-      <c r="D162" s="24" t="s">
+      <c r="D162" s="6" t="s">
         <v>1218</v>
       </c>
       <c r="E162" t="s">
@@ -24189,8 +24106,8 @@
       <c r="P162">
         <v>1</v>
       </c>
-      <c r="Q162" t="s">
-        <v>167</v>
+      <c r="Q162" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R162" s="2">
         <v>2600</v>
@@ -24278,7 +24195,7 @@
       <c r="C163" t="s">
         <v>127</v>
       </c>
-      <c r="D163" s="24" t="s">
+      <c r="D163" s="6" t="s">
         <v>1230</v>
       </c>
       <c r="E163" t="s">
@@ -24311,8 +24228,8 @@
       <c r="P163">
         <v>1</v>
       </c>
-      <c r="Q163" t="s">
-        <v>167</v>
+      <c r="Q163" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R163" s="2">
         <v>2300</v>
@@ -24406,7 +24323,7 @@
       <c r="C164" t="s">
         <v>127</v>
       </c>
-      <c r="D164" s="24" t="s">
+      <c r="D164" s="6" t="s">
         <v>1234</v>
       </c>
       <c r="E164" t="s">
@@ -24427,8 +24344,8 @@
       <c r="P164">
         <v>1</v>
       </c>
-      <c r="Q164" t="s">
-        <v>167</v>
+      <c r="Q164" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R164" s="2">
         <v>2050</v>
@@ -24513,7 +24430,7 @@
       <c r="C165" t="s">
         <v>127</v>
       </c>
-      <c r="D165" s="24" t="s">
+      <c r="D165" s="6" t="s">
         <v>1239</v>
       </c>
       <c r="E165" t="s">
@@ -24534,8 +24451,8 @@
       <c r="P165">
         <v>1</v>
       </c>
-      <c r="Q165" t="s">
-        <v>167</v>
+      <c r="Q165" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R165" s="2">
         <v>2050</v>
@@ -24617,16 +24534,16 @@
       </c>
     </row>
     <row r="166" ht="15.5" spans="1:57">
-      <c r="A166" s="42" t="s">
+      <c r="A166" s="39" t="s">
         <v>1241</v>
       </c>
-      <c r="B166" s="43" t="s">
+      <c r="B166" s="40" t="s">
         <v>1242</v>
       </c>
       <c r="C166" t="s">
         <v>127</v>
       </c>
-      <c r="D166" s="39" t="s">
+      <c r="D166" s="36" t="s">
         <v>1243</v>
       </c>
       <c r="E166" t="s">
@@ -24647,8 +24564,8 @@
       <c r="P166">
         <v>1</v>
       </c>
-      <c r="Q166" t="s">
-        <v>167</v>
+      <c r="Q166" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R166" s="2">
         <v>2050</v>
@@ -24727,13 +24644,13 @@
       <c r="A167" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="B167" s="43" t="s">
+      <c r="B167" s="40" t="s">
         <v>1247</v>
       </c>
       <c r="C167" t="s">
         <v>127</v>
       </c>
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="6" t="s">
         <v>1248</v>
       </c>
       <c r="E167" t="s">
@@ -24754,7 +24671,7 @@
       <c r="P167">
         <v>1</v>
       </c>
-      <c r="Q167" t="s">
+      <c r="Q167" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R167" s="2">
@@ -24882,13 +24799,13 @@
       <c r="A168" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="B168" s="43" t="s">
+      <c r="B168" s="40" t="s">
         <v>1247</v>
       </c>
       <c r="C168" t="s">
         <v>127</v>
       </c>
-      <c r="D168" s="24" t="s">
+      <c r="D168" s="6" t="s">
         <v>1248</v>
       </c>
       <c r="E168" t="s">
@@ -24909,7 +24826,7 @@
       <c r="P168">
         <v>1</v>
       </c>
-      <c r="Q168" t="s">
+      <c r="Q168" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R168" s="2">
@@ -25043,7 +24960,7 @@
       <c r="C169" t="s">
         <v>127</v>
       </c>
-      <c r="D169" s="24" t="s">
+      <c r="D169" s="6" t="s">
         <v>1261</v>
       </c>
       <c r="E169" t="s">
@@ -25073,8 +24990,8 @@
       <c r="P169">
         <v>1</v>
       </c>
-      <c r="Q169" t="s">
-        <v>167</v>
+      <c r="Q169" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R169" s="2">
         <v>2350</v>
@@ -25138,7 +25055,7 @@
       <c r="C170" t="s">
         <v>127</v>
       </c>
-      <c r="D170" s="24" t="s">
+      <c r="D170" s="6" t="s">
         <v>1269</v>
       </c>
       <c r="E170" t="s">
@@ -25168,7 +25085,7 @@
       <c r="P170">
         <v>1</v>
       </c>
-      <c r="Q170" t="s">
+      <c r="Q170" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R170" s="2">
@@ -25248,7 +25165,7 @@
       </c>
     </row>
     <row r="171" spans="1:81">
-      <c r="A171" s="44" t="s">
+      <c r="A171" s="41" t="s">
         <v>1272</v>
       </c>
       <c r="B171" s="20" t="s">
@@ -25257,7 +25174,7 @@
       <c r="C171" t="s">
         <v>127</v>
       </c>
-      <c r="D171" s="44" t="s">
+      <c r="D171" s="41" t="s">
         <v>1274</v>
       </c>
       <c r="E171" t="s">
@@ -25266,28 +25183,23 @@
       <c r="F171" t="s">
         <v>559</v>
       </c>
-      <c r="G171"/>
-      <c r="H171"/>
       <c r="I171" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K171"/>
       <c r="L171" t="s">
         <v>480</v>
       </c>
       <c r="M171" t="s">
         <v>455</v>
       </c>
-      <c r="N171"/>
-      <c r="O171"/>
       <c r="P171">
         <v>1</v>
       </c>
-      <c r="Q171" t="s">
-        <v>167</v>
+      <c r="Q171" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R171" s="2">
         <v>2350</v>
@@ -25298,23 +25210,6 @@
       <c r="T171" s="2">
         <v>470</v>
       </c>
-      <c r="U171"/>
-      <c r="V171"/>
-      <c r="W171"/>
-      <c r="X171"/>
-      <c r="Y171"/>
-      <c r="Z171"/>
-      <c r="AA171"/>
-      <c r="AB171"/>
-      <c r="AC171"/>
-      <c r="AD171"/>
-      <c r="AE171"/>
-      <c r="AF171"/>
-      <c r="AG171"/>
-      <c r="AH171"/>
-      <c r="AI171"/>
-      <c r="AJ171"/>
-      <c r="AK171"/>
       <c r="AL171" t="s">
         <v>325</v>
       </c>
@@ -25449,16 +25344,16 @@
       </c>
     </row>
     <row r="172" spans="1:83">
-      <c r="A172" s="44" t="s">
+      <c r="A172" s="41" t="s">
         <v>1276</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="B172" s="26" t="s">
         <v>1277</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D172" s="24" t="s">
+      <c r="D172" s="6" t="s">
         <v>1276</v>
       </c>
       <c r="E172" t="s">
@@ -25491,8 +25386,8 @@
       <c r="P172" s="2">
         <v>1</v>
       </c>
-      <c r="Q172" s="2" t="s">
-        <v>162</v>
+      <c r="Q172" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="R172" s="2">
         <v>1170</v>
@@ -25617,7 +25512,7 @@
       <c r="A173" t="s">
         <v>1279</v>
       </c>
-      <c r="B173" s="41" t="s">
+      <c r="B173" s="38" t="s">
         <v>1280</v>
       </c>
       <c r="C173" t="s">
@@ -25656,7 +25551,7 @@
       <c r="P173">
         <v>1</v>
       </c>
-      <c r="Q173" t="s">
+      <c r="Q173" s="35" t="s">
         <v>172</v>
       </c>
       <c r="R173" s="2">
@@ -25887,7 +25782,7 @@
       <c r="C175" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D175" s="24" t="s">
+      <c r="D175" s="6" t="s">
         <v>1286</v>
       </c>
       <c r="E175" t="s">
@@ -25967,7 +25862,7 @@
       <c r="C176" t="s">
         <v>127</v>
       </c>
-      <c r="D176" s="24" t="s">
+      <c r="D176" s="6" t="s">
         <v>1291</v>
       </c>
       <c r="E176" t="s">
@@ -26047,7 +25942,7 @@
       <c r="C177" t="s">
         <v>121</v>
       </c>
-      <c r="D177" s="24" t="s">
+      <c r="D177" s="6" t="s">
         <v>1301</v>
       </c>
       <c r="E177" t="s">
@@ -26139,7 +26034,7 @@
       <c r="C178" t="s">
         <v>127</v>
       </c>
-      <c r="D178" s="24" t="s">
+      <c r="D178" s="6" t="s">
         <v>1311</v>
       </c>
       <c r="E178" t="s">
@@ -26306,7 +26201,7 @@
       <c r="C179" t="s">
         <v>127</v>
       </c>
-      <c r="D179" s="24" t="s">
+      <c r="D179" s="6" t="s">
         <v>1319</v>
       </c>
       <c r="E179" t="s">
@@ -26365,7 +26260,7 @@
       <c r="C180" t="s">
         <v>127</v>
       </c>
-      <c r="D180" s="24" t="s">
+      <c r="D180" s="6" t="s">
         <v>1325</v>
       </c>
       <c r="E180" t="s">
@@ -26451,7 +26346,7 @@
       <c r="C181" t="s">
         <v>127</v>
       </c>
-      <c r="D181" s="24" t="s">
+      <c r="D181" s="6" t="s">
         <v>1331</v>
       </c>
       <c r="E181" t="s">
@@ -26627,7 +26522,7 @@
       <c r="C182" t="s">
         <v>127</v>
       </c>
-      <c r="D182" s="24" t="s">
+      <c r="D182" s="6" t="s">
         <v>1337</v>
       </c>
       <c r="E182" t="s">
@@ -26725,7 +26620,7 @@
       <c r="C183" t="s">
         <v>127</v>
       </c>
-      <c r="D183" s="24" t="s">
+      <c r="D183" s="6" t="s">
         <v>1351</v>
       </c>
       <c r="E183" t="s">
@@ -26886,7 +26781,7 @@
       <c r="C184" t="s">
         <v>127</v>
       </c>
-      <c r="D184" s="24" t="s">
+      <c r="D184" s="6" t="s">
         <v>1363</v>
       </c>
       <c r="E184" t="s">
@@ -27005,7 +26900,7 @@
       <c r="C185" t="s">
         <v>127</v>
       </c>
-      <c r="D185" s="24" t="s">
+      <c r="D185" s="6" t="s">
         <v>1375</v>
       </c>
       <c r="E185" t="s">
@@ -27064,7 +26959,7 @@
       <c r="C186" t="s">
         <v>127</v>
       </c>
-      <c r="D186" s="24" t="s">
+      <c r="D186" s="6" t="s">
         <v>1381</v>
       </c>
       <c r="E186" t="s">
@@ -27174,7 +27069,7 @@
       <c r="C187" t="s">
         <v>127</v>
       </c>
-      <c r="D187" s="24" t="s">
+      <c r="D187" s="6" t="s">
         <v>1391</v>
       </c>
       <c r="E187" t="s">
@@ -27278,7 +27173,7 @@
       <c r="C188" t="s">
         <v>127</v>
       </c>
-      <c r="D188" s="24" t="s">
+      <c r="D188" s="6" t="s">
         <v>1398</v>
       </c>
       <c r="E188" t="s">
@@ -27385,7 +27280,7 @@
       <c r="C189" t="s">
         <v>127</v>
       </c>
-      <c r="D189" s="24" t="s">
+      <c r="D189" s="6" t="s">
         <v>1405</v>
       </c>
       <c r="E189" t="s">
@@ -27570,7 +27465,7 @@
       <c r="C190" t="s">
         <v>127</v>
       </c>
-      <c r="D190" s="24" t="s">
+      <c r="D190" s="6" t="s">
         <v>1426</v>
       </c>
       <c r="E190" t="s">
@@ -27728,7 +27623,7 @@
       <c r="C191" t="s">
         <v>127</v>
       </c>
-      <c r="D191" s="24" t="s">
+      <c r="D191" s="6" t="s">
         <v>1448</v>
       </c>
       <c r="E191" t="s">
@@ -27823,7 +27718,7 @@
       <c r="C192" t="s">
         <v>127</v>
       </c>
-      <c r="D192" s="24" t="s">
+      <c r="D192" s="6" t="s">
         <v>1454</v>
       </c>
       <c r="E192" t="s">
@@ -27933,7 +27828,7 @@
       <c r="C193" t="s">
         <v>127</v>
       </c>
-      <c r="D193" s="24" t="s">
+      <c r="D193" s="6" t="s">
         <v>1457</v>
       </c>
       <c r="E193" t="s">
@@ -28019,7 +27914,7 @@
       <c r="C194" t="s">
         <v>127</v>
       </c>
-      <c r="D194" s="24" t="s">
+      <c r="D194" s="6" t="s">
         <v>1462</v>
       </c>
       <c r="E194" t="s">
@@ -28066,7 +27961,7 @@
       <c r="C195" t="s">
         <v>127</v>
       </c>
-      <c r="D195" s="24" t="s">
+      <c r="D195" s="6" t="s">
         <v>1465</v>
       </c>
       <c r="E195" t="s">
@@ -28140,7 +28035,7 @@
       <c r="C196" t="s">
         <v>127</v>
       </c>
-      <c r="D196" s="24" t="s">
+      <c r="D196" s="6" t="s">
         <v>1468</v>
       </c>
       <c r="E196" s="2" t="s">
@@ -28238,7 +28133,7 @@
       <c r="C197" t="s">
         <v>127</v>
       </c>
-      <c r="D197" s="24" t="s">
+      <c r="D197" s="6" t="s">
         <v>1476</v>
       </c>
       <c r="E197" t="s">
@@ -28402,7 +28297,7 @@
       <c r="C198" t="s">
         <v>127</v>
       </c>
-      <c r="D198" s="24" t="s">
+      <c r="D198" s="6" t="s">
         <v>1491</v>
       </c>
       <c r="E198" t="s">
@@ -28530,7 +28425,7 @@
       <c r="C199" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D199" s="24" t="s">
+      <c r="D199" s="6" t="s">
         <v>1504</v>
       </c>
       <c r="E199" t="s">
@@ -28664,7 +28559,7 @@
       <c r="C200" t="s">
         <v>127</v>
       </c>
-      <c r="D200" s="24" t="s">
+      <c r="D200" s="6" t="s">
         <v>1509</v>
       </c>
       <c r="E200" t="s">
@@ -28786,7 +28681,7 @@
       <c r="C201" t="s">
         <v>127</v>
       </c>
-      <c r="D201" s="24" t="s">
+      <c r="D201" s="6" t="s">
         <v>1516</v>
       </c>
       <c r="E201" t="s">
@@ -28920,7 +28815,7 @@
       <c r="C202" t="s">
         <v>127</v>
       </c>
-      <c r="D202" s="24" t="s">
+      <c r="D202" s="6" t="s">
         <v>1522</v>
       </c>
       <c r="E202" t="s">
@@ -28997,7 +28892,7 @@
       <c r="C203" t="s">
         <v>127</v>
       </c>
-      <c r="D203" s="24" t="s">
+      <c r="D203" s="6" t="s">
         <v>1527</v>
       </c>
       <c r="E203" t="s">
@@ -29191,7 +29086,7 @@
       <c r="C204" t="s">
         <v>127</v>
       </c>
-      <c r="D204" s="24" t="s">
+      <c r="D204" s="6" t="s">
         <v>1532</v>
       </c>
       <c r="E204" t="s">
@@ -29295,7 +29190,7 @@
       <c r="C205" t="s">
         <v>127</v>
       </c>
-      <c r="D205" s="24" t="s">
+      <c r="D205" s="6" t="s">
         <v>1541</v>
       </c>
       <c r="E205" t="s">
@@ -29369,7 +29264,7 @@
       <c r="C206" t="s">
         <v>127</v>
       </c>
-      <c r="D206" s="24" t="s">
+      <c r="D206" s="6" t="s">
         <v>1548</v>
       </c>
       <c r="E206" t="s">
@@ -29443,7 +29338,7 @@
       <c r="C207" t="s">
         <v>127</v>
       </c>
-      <c r="D207" s="24" t="s">
+      <c r="D207" s="6" t="s">
         <v>1551</v>
       </c>
       <c r="E207" t="s">
@@ -29604,7 +29499,7 @@
       <c r="C208" t="s">
         <v>127</v>
       </c>
-      <c r="D208" s="24" t="s">
+      <c r="D208" s="6" t="s">
         <v>1567</v>
       </c>
       <c r="E208" t="s">
@@ -29672,7 +29567,7 @@
       <c r="C209" t="s">
         <v>127</v>
       </c>
-      <c r="D209" s="24" t="s">
+      <c r="D209" s="6" t="s">
         <v>1574</v>
       </c>
       <c r="E209" t="s">
@@ -29737,7 +29632,7 @@
       <c r="C210" t="s">
         <v>127</v>
       </c>
-      <c r="D210" s="24" t="s">
+      <c r="D210" s="6" t="s">
         <v>1579</v>
       </c>
       <c r="E210" t="s">
@@ -29835,7 +29730,7 @@
       <c r="C211" t="s">
         <v>127</v>
       </c>
-      <c r="D211" s="39" t="s">
+      <c r="D211" s="36" t="s">
         <v>1584</v>
       </c>
       <c r="E211" t="s">
@@ -30002,7 +29897,7 @@
       <c r="C212" t="s">
         <v>127</v>
       </c>
-      <c r="D212" s="24" t="s">
+      <c r="D212" s="6" t="s">
         <v>1600</v>
       </c>
       <c r="E212" t="s">
@@ -30076,7 +29971,7 @@
       <c r="C213" t="s">
         <v>127</v>
       </c>
-      <c r="D213" s="24" t="s">
+      <c r="D213" s="6" t="s">
         <v>1608</v>
       </c>
       <c r="E213" t="s">
@@ -30225,7 +30120,7 @@
       <c r="C214" t="s">
         <v>127</v>
       </c>
-      <c r="D214" s="24" t="s">
+      <c r="D214" s="6" t="s">
         <v>1619</v>
       </c>
       <c r="E214" t="s">
@@ -30326,7 +30221,7 @@
       <c r="C215" t="s">
         <v>127</v>
       </c>
-      <c r="D215" s="24" t="s">
+      <c r="D215" s="6" t="s">
         <v>365</v>
       </c>
       <c r="E215" t="s">
@@ -30436,7 +30331,7 @@
       <c r="C216" t="s">
         <v>127</v>
       </c>
-      <c r="D216" s="24" t="s">
+      <c r="D216" s="6" t="s">
         <v>1634</v>
       </c>
       <c r="E216" t="s">
@@ -30522,7 +30417,7 @@
       <c r="C217" t="s">
         <v>127</v>
       </c>
-      <c r="D217" s="24" t="s">
+      <c r="D217" s="6" t="s">
         <v>1641</v>
       </c>
       <c r="E217" t="s">
@@ -30614,7 +30509,7 @@
       <c r="C218" t="s">
         <v>127</v>
       </c>
-      <c r="D218" s="24" t="s">
+      <c r="D218" s="6" t="s">
         <v>1653</v>
       </c>
       <c r="E218" t="s">
@@ -30742,7 +30637,7 @@
       <c r="C219" t="s">
         <v>127</v>
       </c>
-      <c r="D219" s="24" t="s">
+      <c r="D219" s="6" t="s">
         <v>1669</v>
       </c>
       <c r="E219" t="s">
@@ -30861,7 +30756,7 @@
       <c r="C220" t="s">
         <v>127</v>
       </c>
-      <c r="D220" s="24" t="s">
+      <c r="D220" s="6" t="s">
         <v>1677</v>
       </c>
       <c r="E220" t="s">
@@ -31022,7 +30917,7 @@
       <c r="C221" t="s">
         <v>127</v>
       </c>
-      <c r="D221" s="24" t="s">
+      <c r="D221" s="6" t="s">
         <v>1684</v>
       </c>
       <c r="E221" t="s">
@@ -31195,7 +31090,7 @@
       <c r="C222" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D222" s="45" t="s">
+      <c r="D222" s="42" t="s">
         <v>1707</v>
       </c>
       <c r="E222" s="3" t="s">
@@ -31281,7 +31176,7 @@
       <c r="C223" t="s">
         <v>127</v>
       </c>
-      <c r="D223" s="24" t="s">
+      <c r="D223" s="6" t="s">
         <v>1715</v>
       </c>
       <c r="E223" t="s">
@@ -31421,7 +31316,7 @@
       <c r="C224" t="s">
         <v>127</v>
       </c>
-      <c r="D224" s="24" t="s">
+      <c r="D224" s="6" t="s">
         <v>1726</v>
       </c>
       <c r="E224" t="s">
@@ -31549,7 +31444,7 @@
       <c r="C225" t="s">
         <v>127</v>
       </c>
-      <c r="D225" s="24" t="s">
+      <c r="D225" s="6" t="s">
         <v>1742</v>
       </c>
       <c r="E225" t="s">
@@ -31662,7 +31557,7 @@
       <c r="C226" t="s">
         <v>127</v>
       </c>
-      <c r="D226" s="24" t="s">
+      <c r="D226" s="6" t="s">
         <v>1755</v>
       </c>
       <c r="E226" t="s">
@@ -31769,7 +31664,7 @@
       <c r="C227" t="s">
         <v>127</v>
       </c>
-      <c r="D227" s="24" t="s">
+      <c r="D227" s="6" t="s">
         <v>1765</v>
       </c>
       <c r="E227" t="s">
@@ -31864,7 +31759,7 @@
       <c r="C228" t="s">
         <v>127</v>
       </c>
-      <c r="D228" s="24" t="s">
+      <c r="D228" s="6" t="s">
         <v>1774</v>
       </c>
       <c r="E228" t="s">
@@ -31938,7 +31833,7 @@
       <c r="C229" t="s">
         <v>127</v>
       </c>
-      <c r="D229" s="24" t="s">
+      <c r="D229" s="6" t="s">
         <v>1783</v>
       </c>
       <c r="E229" t="s">
@@ -34972,7 +34867,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E218:H218 C218 E217:H217 C217 A217 C216 A216 C215:H215 A215 A213 E216:H216 F213:H213 A211:H211 C204 E208:H208 C213 C208 F204:H204 C205 F205:H205 C206 E206:H206 A191:H192 A193:C193 E193:H193 C194 E194:H194 A189:H189 A195 C195:H195 F187:H187 C190:H190 A182:H183 C181:H181 C180:H180 A180 A178:H178 C179:H179 A179 A138:H138 A140:E140 G140:H140 A1:H2 B3:C3 E3:H3 E202:H202 A202:C202 A196:H197 A206 E201:H201 A201:C201 K194:O194 K201:O201 K206:O206 K205:O205 K3:O3 J1:O2 K138:O138 K179:O179 K180:O180 K178:O178 K182:O182 K181:O181 K140:O140 K183:O183 K190:O190 K193:O193 K195:O195 K197:O197 K196:O196 K191:O191 K192:O192 K202:O202 K208:O208 K213:O213 K211:O211 K216:O216 K217:O217 K215:O215 K204:O204 J218:O218 K187:O187 K189:O189 U218:CE218 U204:CE204 U215:CE215 U217:CE217 U216:CE216 U211:CE211 U213:CE213 U208:CE208 U202:CE202 U191:CE192 U187:CE187 U194:CE194 U189:CE189 U195:CE195 U193:CE193 U190:CE190 U182:CE183 U181:CE181 U178:CE178 U180:CE180 U179:CE179 U138:CE138 U140:CE140 AA2:CE2 U2:V2 X2:Y2 U1:CE1 U3:X3 AA3:CE3 U205:CE205 U196:CE197 U206:CE206 U201:CE201" numberStoredAsText="1"/>
+    <ignoredError sqref="U201:CE201 U206:CE206 U196:CE197 U205:CE205 AA3:CE3 U3:X3 U1:CE1 X2:Y2 U2:V2 AA2:CE2 U140:CE140 U138:CE138 U179:CE179 U180:CE180 U178:CE178 U181:CE181 U182:CE183 U190:CE190 U193:CE193 U195:CE195 U189:CE189 U194:CE194 U187:CE187 U191:CE192 U202:CE202 U208:CE208 U213:CE213 U211:CE211 U216:CE216 U217:CE217 U215:CE215 U204:CE204 U218:CE218 K189:O189 K187:O187 J218:O218 K204:O204 K215:O215 K217:O217 K216:O216 K211:O211 K213:O213 K208:O208 K202:O202 K192:O192 K191:O191 K196:O196 K197:O197 K195:O195 K193:O193 K190:O190 K183:O183 K140:O140 K181:O181 K182:O182 K178:O178 K180:O180 K179:O179 K138:O138 J1:O2 K3:O3 K205:O205 K206:O206 K201:O201 K194:O194 A201:C201 E201:H201 A206 A196:H197 A202:C202 E202:H202 E3:H3 B3:C3 A1:H2 G140:H140 A140:E140 A138:H138 A179 C179:H179 A178:H178 A180 C180:H180 C181:H181 A182:H183 C190:H190 F187:H187 C195:H195 A195 A189:H189 E194:H194 C194 E193:H193 A193:C193 A191:H192 E206:H206 C206 F205:H205 C205 F204:H204 C208 C213 E208:H208 C204 A211:H211 F213:H213 E216:H216 A213 A215 C215:H215 A216 C216 A217 C217 E217:H217 C218 E218:H218" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -36030,7 +35925,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A3:Q4 L2:Q2 A2:J2 A1:Q1 T1 T2 T3:T4 W3:CG4 W2:CG2 W1:CG1" numberStoredAsText="1"/>
+    <ignoredError sqref="W1:CG1 W2:CG2 W3:CG4 T3:T4 T2 T1 A1:Q1 A2:J2 L2:Q2 A3:Q4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -36068,7 +35963,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -36329,7 +36223,6 @@
       <c r="A2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="5"/>
       <c r="C2" t="s">
         <v>83</v>
       </c>
@@ -36635,19 +36528,10 @@
       <c r="F4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="I4" s="14" t="s">
         <v>130</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
       <c r="R4" t="s">
         <v>124</v>
       </c>
@@ -36660,26 +36544,6 @@
       <c r="U4" s="1">
         <v>10</v>
       </c>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
       <c r="AP4" t="s">
         <v>131</v>
       </c>
@@ -36712,19 +36576,10 @@
       <c r="F5" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="I5" s="14" t="s">
         <v>130</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
       <c r="R5" t="s">
         <v>124</v>
       </c>
@@ -36737,26 +36592,6 @@
       <c r="U5" s="1">
         <v>10</v>
       </c>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5"/>
       <c r="AP5" t="s">
         <v>136</v>
       </c>
@@ -36789,19 +36624,10 @@
       <c r="F6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
       <c r="I6" s="14" t="s">
         <v>130</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
       <c r="R6" t="s">
         <v>124</v>
       </c>
@@ -36814,26 +36640,6 @@
       <c r="U6" s="1">
         <v>10</v>
       </c>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
       <c r="AP6" t="s">
         <v>140</v>
       </c>
@@ -36866,19 +36672,10 @@
       <c r="F7" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
       <c r="I7" s="1" t="s">
         <v>146</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
       <c r="R7" t="s">
         <v>124</v>
       </c>
@@ -36891,26 +36688,6 @@
       <c r="U7" s="1">
         <v>5</v>
       </c>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
       <c r="AP7" t="s">
         <v>147</v>
       </c>
@@ -37131,16 +36908,12 @@
       <c r="F12" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
       <c r="I12" s="1" t="s">
         <v>155</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K12"/>
-      <c r="L12"/>
       <c r="R12" t="s">
         <v>124</v>
       </c>
@@ -37191,16 +36964,12 @@
       <c r="F13" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
       <c r="I13" s="1" t="s">
         <v>155</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K13"/>
-      <c r="L13"/>
       <c r="R13" t="s">
         <v>162</v>
       </c>
@@ -37438,8 +37207,6 @@
       <c r="Y17">
         <v>1</v>
       </c>
-      <c r="Z17"/>
-      <c r="AA17"/>
       <c r="AC17">
         <v>1</v>
       </c>
@@ -37494,8 +37261,6 @@
       <c r="Y18">
         <v>1</v>
       </c>
-      <c r="Z18"/>
-      <c r="AA18"/>
       <c r="AC18">
         <v>1</v>
       </c>
@@ -37550,8 +37315,6 @@
       <c r="Y19">
         <v>1</v>
       </c>
-      <c r="Z19"/>
-      <c r="AA19"/>
       <c r="AC19">
         <v>1</v>
       </c>
@@ -37606,8 +37369,6 @@
       <c r="Y20">
         <v>1</v>
       </c>
-      <c r="Z20"/>
-      <c r="AA20"/>
       <c r="AC20">
         <v>1</v>
       </c>
@@ -37656,8 +37417,6 @@
       <c r="Y21">
         <v>1</v>
       </c>
-      <c r="Z21"/>
-      <c r="AA21"/>
       <c r="AC21">
         <v>1</v>
       </c>
@@ -37706,8 +37465,6 @@
       <c r="Y22">
         <v>1</v>
       </c>
-      <c r="Z22"/>
-      <c r="AA22"/>
       <c r="AC22">
         <v>1</v>
       </c>
@@ -37756,8 +37513,6 @@
       <c r="Y23">
         <v>1</v>
       </c>
-      <c r="Z23"/>
-      <c r="AA23"/>
       <c r="AC23">
         <v>1</v>
       </c>
@@ -37806,8 +37561,6 @@
       <c r="Y24">
         <v>1</v>
       </c>
-      <c r="Z24"/>
-      <c r="AA24"/>
       <c r="AC24">
         <v>1</v>
       </c>
@@ -37856,9 +37609,6 @@
       <c r="Y25">
         <v>1</v>
       </c>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
       <c r="AC25">
         <v>1</v>
       </c>
@@ -37903,13 +37653,9 @@
       <c r="Y26">
         <v>1</v>
       </c>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
       <c r="AC26">
         <v>1</v>
       </c>
-      <c r="AD26"/>
       <c r="AQ26" s="16"/>
     </row>
     <row r="27" customFormat="1" spans="1:43">
@@ -37950,9 +37696,6 @@
       <c r="Y27">
         <v>1</v>
       </c>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
       <c r="AC27">
         <v>1</v>
       </c>
@@ -37996,9 +37739,6 @@
       <c r="Y28">
         <v>1</v>
       </c>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
       <c r="AC28">
         <v>1</v>
       </c>
@@ -38042,9 +37782,6 @@
       <c r="Y29">
         <v>1</v>
       </c>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
       <c r="AC29">
         <v>1</v>
       </c>
@@ -38088,9 +37825,6 @@
       <c r="Y30">
         <v>1</v>
       </c>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
       <c r="AC30">
         <v>1</v>
       </c>
@@ -38134,9 +37868,6 @@
       <c r="Y31">
         <v>1</v>
       </c>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
       <c r="AC31">
         <v>1</v>
       </c>
@@ -38180,9 +37911,6 @@
       <c r="Y32">
         <v>1</v>
       </c>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
       <c r="AC32">
         <v>1</v>
       </c>
@@ -38231,9 +37959,6 @@
       <c r="Y33">
         <v>1</v>
       </c>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
       <c r="AC33">
         <v>1</v>
       </c>
@@ -39525,7 +39250,6 @@
       <c r="Y49" t="s">
         <v>297</v>
       </c>
-      <c r="Z49"/>
       <c r="AA49" t="s">
         <v>297</v>
       </c>
@@ -39707,10 +39431,6 @@
       <c r="X51" t="s">
         <v>1876</v>
       </c>
-      <c r="Y51"/>
-      <c r="Z51"/>
-      <c r="AA51"/>
-      <c r="AB51"/>
       <c r="AP51" t="s">
         <v>320</v>
       </c>
@@ -39791,10 +39511,6 @@
       <c r="X52" t="s">
         <v>1879</v>
       </c>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
       <c r="AD52" t="s">
         <v>435</v>
       </c>
@@ -39863,7 +39579,6 @@
       <c r="O53" t="s">
         <v>1880</v>
       </c>
-      <c r="P53"/>
       <c r="Q53">
         <v>1</v>
       </c>
@@ -39888,10 +39603,6 @@
       <c r="X53" t="s">
         <v>1882</v>
       </c>
-      <c r="Y53"/>
-      <c r="Z53"/>
-      <c r="AA53"/>
-      <c r="AB53"/>
       <c r="AP53" t="s">
         <v>340</v>
       </c>
@@ -39981,7 +39692,6 @@
       <c r="O54" t="s">
         <v>1880</v>
       </c>
-      <c r="P54"/>
       <c r="Q54">
         <v>1</v>
       </c>
@@ -40006,10 +39716,6 @@
       <c r="X54" t="s">
         <v>1884</v>
       </c>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
       <c r="AP54" t="s">
         <v>919</v>
       </c>
@@ -40245,10 +39951,6 @@
       <c r="X56" t="s">
         <v>1886</v>
       </c>
-      <c r="Y56"/>
-      <c r="Z56"/>
-      <c r="AA56"/>
-      <c r="AB56"/>
       <c r="AP56" t="s">
         <v>540</v>
       </c>
@@ -40338,10 +40040,6 @@
       <c r="X57" t="s">
         <v>1888</v>
       </c>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
       <c r="AP57" t="s">
         <v>540</v>
       </c>
@@ -40449,10 +40147,6 @@
       <c r="X58" t="s">
         <v>1890</v>
       </c>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
       <c r="AP58" t="s">
         <v>325</v>
       </c>
@@ -40551,7 +40245,6 @@
       <c r="O59" t="s">
         <v>1891</v>
       </c>
-      <c r="P59"/>
       <c r="Q59">
         <v>1</v>
       </c>
@@ -40576,10 +40269,6 @@
       <c r="X59" t="s">
         <v>1893</v>
       </c>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59"/>
       <c r="AP59" t="s">
         <v>335</v>
       </c>
@@ -40666,7 +40355,6 @@
       <c r="O60" t="s">
         <v>1891</v>
       </c>
-      <c r="P60"/>
       <c r="Q60">
         <v>1</v>
       </c>
@@ -40691,10 +40379,6 @@
       <c r="X60" t="s">
         <v>1894</v>
       </c>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AA60"/>
-      <c r="AB60"/>
       <c r="AP60" t="s">
         <v>335</v>
       </c>
@@ -40805,7 +40489,6 @@
       <c r="O61" t="s">
         <v>1895</v>
       </c>
-      <c r="P61"/>
       <c r="Q61">
         <v>1</v>
       </c>
@@ -40830,10 +40513,6 @@
       <c r="X61" t="s">
         <v>1895</v>
       </c>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AA61"/>
-      <c r="AB61"/>
       <c r="AP61" t="s">
         <v>340</v>
       </c>
@@ -40908,7 +40587,6 @@
       <c r="O62" t="s">
         <v>1895</v>
       </c>
-      <c r="P62"/>
       <c r="Q62">
         <v>1</v>
       </c>
@@ -40933,10 +40611,6 @@
       <c r="X62" t="s">
         <v>1897</v>
       </c>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
-      <c r="AB62"/>
       <c r="AP62" t="s">
         <v>340</v>
       </c>
@@ -41011,7 +40685,6 @@
       <c r="O63" t="s">
         <v>1895</v>
       </c>
-      <c r="P63"/>
       <c r="Q63">
         <v>1</v>
       </c>
@@ -41036,10 +40709,6 @@
       <c r="X63" t="s">
         <v>1898</v>
       </c>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
       <c r="AP63" t="s">
         <v>340</v>
       </c>
@@ -41114,7 +40783,6 @@
       <c r="O64" t="s">
         <v>1895</v>
       </c>
-      <c r="P64"/>
       <c r="Q64">
         <v>1</v>
       </c>
@@ -41139,10 +40807,6 @@
       <c r="X64" t="s">
         <v>1899</v>
       </c>
-      <c r="Y64"/>
-      <c r="Z64"/>
-      <c r="AA64"/>
-      <c r="AB64"/>
       <c r="AP64" t="s">
         <v>340</v>
       </c>
@@ -41217,7 +40881,6 @@
       <c r="O65" t="s">
         <v>1895</v>
       </c>
-      <c r="P65"/>
       <c r="Q65">
         <v>1</v>
       </c>
@@ -41242,10 +40905,6 @@
       <c r="X65" t="s">
         <v>1900</v>
       </c>
-      <c r="Y65"/>
-      <c r="Z65"/>
-      <c r="AA65"/>
-      <c r="AB65"/>
       <c r="AP65" t="s">
         <v>340</v>
       </c>
@@ -41311,7 +40970,6 @@
       <c r="O66" t="s">
         <v>1901</v>
       </c>
-      <c r="P66"/>
       <c r="Q66">
         <v>1</v>
       </c>
@@ -41336,10 +40994,6 @@
       <c r="X66" t="s">
         <v>1903</v>
       </c>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
-      <c r="AB66"/>
       <c r="AP66" t="s">
         <v>325</v>
       </c>
@@ -41465,7 +41119,6 @@
       <c r="O67" t="s">
         <v>1901</v>
       </c>
-      <c r="P67"/>
       <c r="Q67">
         <v>1</v>
       </c>
@@ -41490,10 +41143,6 @@
       <c r="X67" t="s">
         <v>1904</v>
       </c>
-      <c r="Y67"/>
-      <c r="Z67"/>
-      <c r="AA67"/>
-      <c r="AB67"/>
       <c r="AP67" t="s">
         <v>325</v>
       </c>
@@ -41619,7 +41268,6 @@
       <c r="O68" t="s">
         <v>1901</v>
       </c>
-      <c r="P68"/>
       <c r="Q68">
         <v>1</v>
       </c>
@@ -41644,10 +41292,6 @@
       <c r="X68" t="s">
         <v>1905</v>
       </c>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
-      <c r="AB68"/>
       <c r="AP68" t="s">
         <v>325</v>
       </c>
@@ -41773,7 +41417,6 @@
       <c r="O69" t="s">
         <v>1901</v>
       </c>
-      <c r="P69"/>
       <c r="Q69">
         <v>1</v>
       </c>
@@ -41798,10 +41441,6 @@
       <c r="X69" t="s">
         <v>1906</v>
       </c>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
-      <c r="AB69"/>
       <c r="AP69" t="s">
         <v>325</v>
       </c>
@@ -41927,7 +41566,6 @@
       <c r="O70" t="s">
         <v>1901</v>
       </c>
-      <c r="P70"/>
       <c r="Q70">
         <v>1</v>
       </c>
@@ -41952,10 +41590,6 @@
       <c r="X70" t="s">
         <v>1907</v>
       </c>
-      <c r="Y70"/>
-      <c r="Z70"/>
-      <c r="AA70"/>
-      <c r="AB70"/>
       <c r="AP70" t="s">
         <v>325</v>
       </c>
@@ -42096,10 +41730,6 @@
       <c r="X71" t="s">
         <v>1909</v>
       </c>
-      <c r="Y71"/>
-      <c r="Z71"/>
-      <c r="AA71"/>
-      <c r="AB71"/>
       <c r="AP71" t="s">
         <v>1123</v>
       </c>
@@ -42177,7 +41807,6 @@
       <c r="O72" t="s">
         <v>1910</v>
       </c>
-      <c r="P72"/>
       <c r="Q72">
         <v>1</v>
       </c>
@@ -42202,10 +41831,6 @@
       <c r="X72" t="s">
         <v>1912</v>
       </c>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
       <c r="AP72" t="s">
         <v>524</v>
       </c>
@@ -42376,10 +42001,6 @@
       <c r="X73" t="s">
         <v>1913</v>
       </c>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
       <c r="AP73" t="s">
         <v>325</v>
       </c>
@@ -42505,10 +42126,6 @@
       <c r="X74" t="s">
         <v>1915</v>
       </c>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
       <c r="AP74" t="s">
         <v>524</v>
       </c>
@@ -42637,10 +42254,6 @@
       <c r="X75" t="s">
         <v>1917</v>
       </c>
-      <c r="Y75"/>
-      <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
       <c r="AP75" t="s">
         <v>1321</v>
       </c>
@@ -42712,10 +42325,6 @@
       <c r="X76" t="s">
         <v>1919</v>
       </c>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
       <c r="AP76" t="s">
         <v>330</v>
       </c>
@@ -42808,10 +42417,6 @@
       <c r="X77" t="s">
         <v>1922</v>
       </c>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
       <c r="AP77" t="s">
         <v>501</v>
       </c>
@@ -42886,7 +42491,6 @@
       <c r="O78" t="s">
         <v>1922</v>
       </c>
-      <c r="P78"/>
       <c r="Q78">
         <v>1</v>
       </c>
@@ -43042,7 +42646,6 @@
       <c r="O79" t="s">
         <v>1922</v>
       </c>
-      <c r="P79"/>
       <c r="Q79">
         <v>1</v>
       </c>
@@ -43067,10 +42670,6 @@
       <c r="X79" t="s">
         <v>1924</v>
       </c>
-      <c r="Y79"/>
-      <c r="Z79"/>
-      <c r="AA79"/>
-      <c r="AB79"/>
       <c r="AP79" t="s">
         <v>280</v>
       </c>
@@ -43241,10 +42840,6 @@
       <c r="X80" t="s">
         <v>1925</v>
       </c>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
       <c r="AP80" t="s">
         <v>256</v>
       </c>
@@ -43319,10 +42914,6 @@
       <c r="X81" t="s">
         <v>1927</v>
       </c>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AA81"/>
-      <c r="AB81"/>
       <c r="AP81" t="s">
         <v>256</v>
       </c>
@@ -43409,10 +43000,6 @@
       <c r="X82" t="s">
         <v>1928</v>
       </c>
-      <c r="Y82"/>
-      <c r="Z82"/>
-      <c r="AA82"/>
-      <c r="AB82"/>
       <c r="AP82" t="s">
         <v>442</v>
       </c>
@@ -43508,10 +43095,6 @@
       <c r="X83" t="s">
         <v>1930</v>
       </c>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-      <c r="AB83"/>
       <c r="AP83" t="s">
         <v>330</v>
       </c>
@@ -43646,10 +43229,6 @@
       <c r="X84" t="s">
         <v>1932</v>
       </c>
-      <c r="Y84"/>
-      <c r="Z84"/>
-      <c r="AA84"/>
-      <c r="AB84"/>
       <c r="AP84" t="s">
         <v>256</v>
       </c>
@@ -43727,10 +43306,6 @@
       <c r="X85" t="s">
         <v>1934</v>
       </c>
-      <c r="Y85"/>
-      <c r="Z85"/>
-      <c r="AA85"/>
-      <c r="AB85"/>
       <c r="AP85" t="s">
         <v>442</v>
       </c>
@@ -43835,7 +43410,6 @@
       <c r="O86" t="s">
         <v>1935</v>
       </c>
-      <c r="P86"/>
       <c r="Q86">
         <v>1</v>
       </c>
@@ -43860,10 +43434,6 @@
       <c r="X86" t="s">
         <v>1937</v>
       </c>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-      <c r="AB86"/>
       <c r="AP86" t="s">
         <v>442</v>
       </c>
@@ -43950,7 +43520,6 @@
       <c r="O87" t="s">
         <v>1935</v>
       </c>
-      <c r="P87"/>
       <c r="Q87">
         <v>1</v>
       </c>
@@ -43975,10 +43544,6 @@
       <c r="X87" t="s">
         <v>1939</v>
       </c>
-      <c r="Y87"/>
-      <c r="Z87"/>
-      <c r="AA87"/>
-      <c r="AB87"/>
       <c r="AD87" t="s">
         <v>435</v>
       </c>
@@ -44128,7 +43693,6 @@
       <c r="O88" t="s">
         <v>1940</v>
       </c>
-      <c r="P88"/>
       <c r="Q88">
         <v>1</v>
       </c>
@@ -44153,10 +43717,6 @@
       <c r="X88" t="s">
         <v>1942</v>
       </c>
-      <c r="Y88"/>
-      <c r="Z88"/>
-      <c r="AA88"/>
-      <c r="AB88"/>
       <c r="AP88" t="s">
         <v>442</v>
       </c>
@@ -44219,7 +43779,6 @@
       <c r="O89" t="s">
         <v>1940</v>
       </c>
-      <c r="P89"/>
       <c r="Q89">
         <v>1</v>
       </c>
@@ -44244,10 +43803,6 @@
       <c r="X89" t="s">
         <v>1944</v>
       </c>
-      <c r="Y89"/>
-      <c r="Z89"/>
-      <c r="AA89"/>
-      <c r="AB89"/>
       <c r="AP89" t="s">
         <v>320</v>
       </c>
@@ -44316,7 +43871,6 @@
       <c r="O90" t="s">
         <v>1940</v>
       </c>
-      <c r="P90"/>
       <c r="Q90">
         <v>1</v>
       </c>
@@ -44341,10 +43895,6 @@
       <c r="X90" t="s">
         <v>1946</v>
       </c>
-      <c r="Y90"/>
-      <c r="Z90"/>
-      <c r="AA90"/>
-      <c r="AB90"/>
       <c r="AP90" t="s">
         <v>627</v>
       </c>
@@ -44407,7 +43957,6 @@
       <c r="O91" t="s">
         <v>1940</v>
       </c>
-      <c r="P91"/>
       <c r="Q91">
         <v>1</v>
       </c>
@@ -44432,10 +43981,6 @@
       <c r="X91" t="s">
         <v>1948</v>
       </c>
-      <c r="Y91"/>
-      <c r="Z91"/>
-      <c r="AA91"/>
-      <c r="AB91"/>
       <c r="AD91" t="s">
         <v>435</v>
       </c>
@@ -44549,10 +44094,6 @@
       <c r="X92" t="s">
         <v>1950</v>
       </c>
-      <c r="Y92"/>
-      <c r="Z92"/>
-      <c r="AA92"/>
-      <c r="AB92"/>
       <c r="AP92" t="s">
         <v>1366</v>
       </c>
@@ -44684,10 +44225,6 @@
       <c r="X93" t="s">
         <v>1952</v>
       </c>
-      <c r="Y93"/>
-      <c r="Z93"/>
-      <c r="AA93"/>
-      <c r="AB93"/>
       <c r="AP93" t="s">
         <v>340</v>
       </c>
@@ -44840,10 +44377,6 @@
       <c r="X94" t="s">
         <v>1954</v>
       </c>
-      <c r="Y94"/>
-      <c r="Z94"/>
-      <c r="AA94"/>
-      <c r="AB94"/>
       <c r="AP94" t="s">
         <v>256</v>
       </c>
@@ -44933,7 +44466,6 @@
       <c r="O95" t="s">
         <v>1955</v>
       </c>
-      <c r="P95"/>
       <c r="Q95">
         <v>1</v>
       </c>
@@ -44958,10 +44490,6 @@
       <c r="X95" t="s">
         <v>1956</v>
       </c>
-      <c r="Y95"/>
-      <c r="Z95"/>
-      <c r="AA95"/>
-      <c r="AB95"/>
       <c r="AD95" t="s">
         <v>435</v>
       </c>
@@ -45129,10 +44657,6 @@
       <c r="X96" t="s">
         <v>1958</v>
       </c>
-      <c r="Y96"/>
-      <c r="Z96"/>
-      <c r="AA96"/>
-      <c r="AB96"/>
       <c r="AP96" t="s">
         <v>304</v>
       </c>
@@ -45251,7 +44775,6 @@
       <c r="O98" t="s">
         <v>1959</v>
       </c>
-      <c r="P98"/>
       <c r="Q98">
         <v>1</v>
       </c>
@@ -45276,10 +44799,6 @@
       <c r="X98" t="s">
         <v>1959</v>
       </c>
-      <c r="Y98"/>
-      <c r="Z98"/>
-      <c r="AA98"/>
-      <c r="AB98"/>
       <c r="AP98" t="s">
         <v>700</v>
       </c>
@@ -45369,7 +44888,6 @@
       <c r="O99" t="s">
         <v>1959</v>
       </c>
-      <c r="P99"/>
       <c r="Q99">
         <v>1</v>
       </c>
@@ -45394,10 +44912,6 @@
       <c r="X99" t="s">
         <v>1961</v>
       </c>
-      <c r="Y99"/>
-      <c r="Z99"/>
-      <c r="AA99"/>
-      <c r="AB99"/>
       <c r="AP99" t="s">
         <v>700</v>
       </c>
@@ -45502,7 +45016,6 @@
       <c r="O100" t="s">
         <v>1962</v>
       </c>
-      <c r="P100"/>
       <c r="Q100">
         <v>1</v>
       </c>
@@ -45527,12 +45040,9 @@
       <c r="X100" t="s">
         <v>1964</v>
       </c>
-      <c r="Y100"/>
-      <c r="Z100"/>
       <c r="AA100" t="s">
         <v>266</v>
       </c>
-      <c r="AB100"/>
       <c r="AP100" t="s">
         <v>330</v>
       </c>
@@ -45631,7 +45141,6 @@
       <c r="O101" t="s">
         <v>1962</v>
       </c>
-      <c r="P101"/>
       <c r="Q101">
         <v>1</v>
       </c>
@@ -45656,12 +45165,9 @@
       <c r="X101" t="s">
         <v>1965</v>
       </c>
-      <c r="Y101"/>
-      <c r="Z101"/>
       <c r="AA101" t="s">
         <v>266</v>
       </c>
-      <c r="AB101"/>
       <c r="AP101" t="s">
         <v>330</v>
       </c>
@@ -45763,7 +45269,6 @@
       <c r="O102" t="s">
         <v>1910</v>
       </c>
-      <c r="P102"/>
       <c r="Q102">
         <v>1</v>
       </c>
@@ -45788,10 +45293,6 @@
       <c r="X102" t="s">
         <v>1967</v>
       </c>
-      <c r="Y102"/>
-      <c r="Z102"/>
-      <c r="AA102"/>
-      <c r="AB102"/>
       <c r="AP102" t="s">
         <v>524</v>
       </c>
@@ -45935,10 +45436,6 @@
       <c r="X103" t="s">
         <v>1969</v>
       </c>
-      <c r="Y103"/>
-      <c r="Z103"/>
-      <c r="AA103"/>
-      <c r="AB103"/>
       <c r="AD103" t="s">
         <v>435</v>
       </c>
@@ -46052,10 +45549,6 @@
       <c r="X104" t="s">
         <v>1971</v>
       </c>
-      <c r="Y104"/>
-      <c r="Z104"/>
-      <c r="AA104"/>
-      <c r="AB104"/>
       <c r="AD104" t="s">
         <v>435</v>
       </c>
@@ -46169,9 +45662,6 @@
       <c r="Y105" t="s">
         <v>266</v>
       </c>
-      <c r="Z105"/>
-      <c r="AA105"/>
-      <c r="AB105"/>
       <c r="AK105" t="s">
         <v>266</v>
       </c>
@@ -46252,7 +45742,6 @@
       <c r="O106" t="s">
         <v>1973</v>
       </c>
-      <c r="P106"/>
       <c r="Q106">
         <v>1</v>
       </c>
@@ -46277,9 +45766,6 @@
       <c r="X106" t="s">
         <v>1975</v>
       </c>
-      <c r="Y106"/>
-      <c r="Z106"/>
-      <c r="AA106"/>
       <c r="AB106" t="s">
         <v>297</v>
       </c>
@@ -46482,8 +45968,6 @@
       <c r="Z108" t="s">
         <v>434</v>
       </c>
-      <c r="AA108"/>
-      <c r="AB108"/>
       <c r="AE108" t="s">
         <v>297</v>
       </c>
@@ -46540,7 +46024,6 @@
       <c r="O109" t="s">
         <v>1977</v>
       </c>
-      <c r="P109"/>
       <c r="Q109">
         <v>1</v>
       </c>
@@ -46565,10 +46048,6 @@
       <c r="X109" t="s">
         <v>1979</v>
       </c>
-      <c r="Y109"/>
-      <c r="Z109"/>
-      <c r="AA109"/>
-      <c r="AB109"/>
       <c r="AP109" t="s">
         <v>442</v>
       </c>
@@ -46667,7 +46146,6 @@
       <c r="O110" t="s">
         <v>1977</v>
       </c>
-      <c r="P110"/>
       <c r="Q110">
         <v>1</v>
       </c>
@@ -46692,10 +46170,6 @@
       <c r="X110" t="s">
         <v>1977</v>
       </c>
-      <c r="Y110"/>
-      <c r="Z110"/>
-      <c r="AA110"/>
-      <c r="AB110"/>
       <c r="AP110" t="s">
         <v>442</v>
       </c>
@@ -46788,7 +46262,6 @@
       <c r="Q111">
         <v>1</v>
       </c>
-      <c r="R111"/>
       <c r="S111" s="2">
         <v>0</v>
       </c>
@@ -46932,10 +46405,6 @@
       <c r="X112" t="s">
         <v>1983</v>
       </c>
-      <c r="Y112"/>
-      <c r="Z112"/>
-      <c r="AA112"/>
-      <c r="AB112"/>
       <c r="AD112" t="s">
         <v>435</v>
       </c>
@@ -47097,7 +46566,6 @@
       <c r="O113" t="s">
         <v>1984</v>
       </c>
-      <c r="P113"/>
       <c r="Q113">
         <v>1</v>
       </c>
@@ -47122,10 +46590,6 @@
       <c r="X113" t="s">
         <v>1986</v>
       </c>
-      <c r="Y113"/>
-      <c r="Z113"/>
-      <c r="AA113"/>
-      <c r="AB113"/>
       <c r="AP113" t="s">
         <v>356</v>
       </c>
@@ -47227,10 +46691,6 @@
       <c r="X114" t="s">
         <v>1988</v>
       </c>
-      <c r="Y114"/>
-      <c r="Z114"/>
-      <c r="AA114"/>
-      <c r="AB114"/>
       <c r="AP114" t="s">
         <v>1429</v>
       </c>
@@ -47380,7 +46840,6 @@
       <c r="O115" t="s">
         <v>1989</v>
       </c>
-      <c r="P115"/>
       <c r="Q115">
         <v>1</v>
       </c>
@@ -47405,10 +46864,6 @@
       <c r="X115" t="s">
         <v>1991</v>
       </c>
-      <c r="Y115"/>
-      <c r="Z115"/>
-      <c r="AA115"/>
-      <c r="AB115"/>
       <c r="AP115" t="s">
         <v>419</v>
       </c>
@@ -47468,7 +46923,6 @@
       <c r="O116" t="s">
         <v>1989</v>
       </c>
-      <c r="P116"/>
       <c r="Q116">
         <v>1</v>
       </c>
@@ -47493,10 +46947,6 @@
       <c r="X116" t="s">
         <v>1992</v>
       </c>
-      <c r="Y116"/>
-      <c r="Z116"/>
-      <c r="AA116"/>
-      <c r="AB116"/>
       <c r="AP116" t="s">
         <v>419</v>
       </c>
@@ -47583,7 +47033,6 @@
       <c r="O117" t="s">
         <v>1993</v>
       </c>
-      <c r="P117"/>
       <c r="Q117">
         <v>1</v>
       </c>
@@ -47608,10 +47057,6 @@
       <c r="X117" t="s">
         <v>1994</v>
       </c>
-      <c r="Y117"/>
-      <c r="Z117"/>
-      <c r="AA117"/>
-      <c r="AB117"/>
       <c r="AP117" t="s">
         <v>335</v>
       </c>
@@ -47710,7 +47155,6 @@
       <c r="O118" t="s">
         <v>1993</v>
       </c>
-      <c r="P118"/>
       <c r="Q118">
         <v>1</v>
       </c>
@@ -47735,10 +47179,6 @@
       <c r="X118" t="s">
         <v>1995</v>
       </c>
-      <c r="Y118"/>
-      <c r="Z118"/>
-      <c r="AA118"/>
-      <c r="AB118"/>
       <c r="AP118" t="s">
         <v>335</v>
       </c>
@@ -47858,10 +47298,6 @@
       <c r="X119" t="s">
         <v>1997</v>
       </c>
-      <c r="Y119"/>
-      <c r="Z119"/>
-      <c r="AA119"/>
-      <c r="AB119"/>
       <c r="AP119" t="s">
         <v>1431</v>
       </c>
@@ -47948,10 +47384,6 @@
       <c r="X120" t="s">
         <v>1999</v>
       </c>
-      <c r="Y120"/>
-      <c r="Z120"/>
-      <c r="AA120"/>
-      <c r="AB120"/>
       <c r="AP120" t="s">
         <v>285</v>
       </c>
@@ -48026,10 +47458,6 @@
       <c r="X121" t="s">
         <v>2001</v>
       </c>
-      <c r="Y121"/>
-      <c r="Z121"/>
-      <c r="AA121"/>
-      <c r="AB121"/>
       <c r="AP121" t="s">
         <v>627</v>
       </c>
@@ -48068,7 +47496,6 @@
       <c r="O122" t="s">
         <v>1940</v>
       </c>
-      <c r="P122"/>
       <c r="Q122">
         <v>1</v>
       </c>
@@ -48093,10 +47520,6 @@
       <c r="X122" t="s">
         <v>2003</v>
       </c>
-      <c r="Y122"/>
-      <c r="Z122"/>
-      <c r="AA122"/>
-      <c r="AB122"/>
       <c r="AP122" t="s">
         <v>335</v>
       </c>
@@ -48183,7 +47606,6 @@
       <c r="Z123" t="s">
         <v>434</v>
       </c>
-      <c r="AA123"/>
       <c r="AB123" t="s">
         <v>297</v>
       </c>
@@ -48261,7 +47683,6 @@
       <c r="Z124" t="s">
         <v>434</v>
       </c>
-      <c r="AA124"/>
       <c r="AB124" t="s">
         <v>297</v>
       </c>
@@ -48339,7 +47760,6 @@
       <c r="Z125" t="s">
         <v>434</v>
       </c>
-      <c r="AA125"/>
       <c r="AB125" t="s">
         <v>297</v>
       </c>
@@ -48417,7 +47837,6 @@
       <c r="Z126" t="s">
         <v>434</v>
       </c>
-      <c r="AA126"/>
       <c r="AB126" t="s">
         <v>297</v>
       </c>
@@ -48495,7 +47914,6 @@
       <c r="Z127" t="s">
         <v>434</v>
       </c>
-      <c r="AA127"/>
       <c r="AB127" t="s">
         <v>297</v>
       </c>
@@ -48704,10 +48122,6 @@
       <c r="X129" t="s">
         <v>2020</v>
       </c>
-      <c r="Y129"/>
-      <c r="Z129"/>
-      <c r="AA129"/>
-      <c r="AB129"/>
       <c r="AP129" t="s">
         <v>306</v>
       </c>
@@ -48863,7 +48277,6 @@
       <c r="O130" t="s">
         <v>2021</v>
       </c>
-      <c r="P130"/>
       <c r="Q130">
         <v>1</v>
       </c>
@@ -48888,10 +48301,6 @@
       <c r="X130" t="s">
         <v>2023</v>
       </c>
-      <c r="Y130"/>
-      <c r="Z130"/>
-      <c r="AA130"/>
-      <c r="AB130"/>
       <c r="AD130" t="s">
         <v>296</v>
       </c>
@@ -49008,7 +48417,6 @@
       <c r="O131" t="s">
         <v>2021</v>
       </c>
-      <c r="P131"/>
       <c r="Q131">
         <v>1</v>
       </c>
@@ -49033,10 +48441,6 @@
       <c r="X131" t="s">
         <v>2024</v>
       </c>
-      <c r="Y131"/>
-      <c r="Z131"/>
-      <c r="AA131"/>
-      <c r="AB131"/>
       <c r="AD131" t="s">
         <v>296</v>
       </c>
@@ -49150,7 +48554,6 @@
       <c r="O132" t="s">
         <v>2031</v>
       </c>
-      <c r="P132"/>
       <c r="Q132">
         <v>1</v>
       </c>
@@ -49175,8 +48578,6 @@
       <c r="X132" t="s">
         <v>2033</v>
       </c>
-      <c r="Y132"/>
-      <c r="Z132"/>
       <c r="AA132" t="s">
         <v>266</v>
       </c>
@@ -49236,7 +48637,6 @@
       <c r="O133" t="s">
         <v>2031</v>
       </c>
-      <c r="P133"/>
       <c r="Q133">
         <v>1</v>
       </c>
@@ -49261,8 +48661,6 @@
       <c r="X133" t="s">
         <v>2041</v>
       </c>
-      <c r="Y133"/>
-      <c r="Z133"/>
       <c r="AA133" t="s">
         <v>266</v>
       </c>
@@ -49352,10 +48750,6 @@
       <c r="X134" t="s">
         <v>2043</v>
       </c>
-      <c r="Y134"/>
-      <c r="Z134"/>
-      <c r="AA134"/>
-      <c r="AB134"/>
       <c r="AD134" t="s">
         <v>296</v>
       </c>
@@ -49427,10 +48821,6 @@
       <c r="X135" t="s">
         <v>2048</v>
       </c>
-      <c r="Y135"/>
-      <c r="Z135"/>
-      <c r="AA135"/>
-      <c r="AB135"/>
       <c r="AD135" t="s">
         <v>435</v>
       </c>
@@ -49556,10 +48946,6 @@
       <c r="X136" t="s">
         <v>2059</v>
       </c>
-      <c r="Y136"/>
-      <c r="Z136"/>
-      <c r="AA136"/>
-      <c r="AB136"/>
       <c r="AD136" t="s">
         <v>296</v>
       </c>
@@ -49667,7 +49053,6 @@
       <c r="O137" t="s">
         <v>2060</v>
       </c>
-      <c r="P137"/>
       <c r="Q137">
         <v>1</v>
       </c>
@@ -49692,8 +49077,6 @@
       <c r="X137" t="s">
         <v>2060</v>
       </c>
-      <c r="Y137"/>
-      <c r="Z137"/>
       <c r="AA137" t="s">
         <v>266</v>
       </c>
@@ -49804,7 +49187,6 @@
       <c r="O138" t="s">
         <v>2062</v>
       </c>
-      <c r="P138"/>
       <c r="Q138">
         <v>1</v>
       </c>
@@ -49829,8 +49211,6 @@
       <c r="X138" t="s">
         <v>2063</v>
       </c>
-      <c r="Y138"/>
-      <c r="Z138"/>
       <c r="AA138" t="s">
         <v>266</v>
       </c>
@@ -49965,10 +49345,6 @@
       <c r="X139" t="s">
         <v>2065</v>
       </c>
-      <c r="Y139"/>
-      <c r="Z139"/>
-      <c r="AA139"/>
-      <c r="AB139"/>
       <c r="AD139" t="s">
         <v>296</v>
       </c>
@@ -50070,10 +49446,6 @@
       <c r="X140" t="s">
         <v>2067</v>
       </c>
-      <c r="Y140"/>
-      <c r="Z140"/>
-      <c r="AA140"/>
-      <c r="AB140"/>
       <c r="AD140" t="s">
         <v>296</v>
       </c>
@@ -50178,7 +49550,6 @@
       <c r="O141" t="s">
         <v>2068</v>
       </c>
-      <c r="P141"/>
       <c r="Q141">
         <v>1</v>
       </c>
@@ -50203,10 +49574,6 @@
       <c r="X141" t="s">
         <v>2070</v>
       </c>
-      <c r="Y141"/>
-      <c r="Z141"/>
-      <c r="AA141"/>
-      <c r="AB141"/>
       <c r="AP141" t="s">
         <v>256</v>
       </c>
@@ -50287,7 +49654,6 @@
       <c r="O142" t="s">
         <v>2068</v>
       </c>
-      <c r="P142"/>
       <c r="Q142">
         <v>1</v>
       </c>
@@ -50312,10 +49678,6 @@
       <c r="X142" t="s">
         <v>2071</v>
       </c>
-      <c r="Y142"/>
-      <c r="Z142"/>
-      <c r="AA142"/>
-      <c r="AB142"/>
       <c r="AP142" t="s">
         <v>256</v>
       </c>
@@ -50420,10 +49782,6 @@
       <c r="X143" t="s">
         <v>2073</v>
       </c>
-      <c r="Y143"/>
-      <c r="Z143"/>
-      <c r="AA143"/>
-      <c r="AB143"/>
       <c r="AD143" t="s">
         <v>296</v>
       </c>
@@ -50513,10 +49871,6 @@
       <c r="X144" t="s">
         <v>2074</v>
       </c>
-      <c r="Y144"/>
-      <c r="Z144"/>
-      <c r="AA144"/>
-      <c r="AB144"/>
       <c r="AD144" t="s">
         <v>296</v>
       </c>
@@ -50639,10 +49993,6 @@
       <c r="X145" t="s">
         <v>2076</v>
       </c>
-      <c r="Y145"/>
-      <c r="Z145"/>
-      <c r="AA145"/>
-      <c r="AB145"/>
       <c r="AD145" t="s">
         <v>296</v>
       </c>
@@ -50786,7 +50136,6 @@
       <c r="O146" t="s">
         <v>2077</v>
       </c>
-      <c r="P146"/>
       <c r="Q146">
         <v>1</v>
       </c>
@@ -50811,10 +50160,6 @@
       <c r="X146" t="s">
         <v>2079</v>
       </c>
-      <c r="Y146"/>
-      <c r="Z146"/>
-      <c r="AA146"/>
-      <c r="AB146"/>
       <c r="AP146" t="s">
         <v>325</v>
       </c>
@@ -50997,10 +50342,6 @@
       <c r="X147" t="s">
         <v>2080</v>
       </c>
-      <c r="Y147"/>
-      <c r="Z147"/>
-      <c r="AA147"/>
-      <c r="AB147"/>
       <c r="AP147" t="s">
         <v>256</v>
       </c>
@@ -51054,7 +50395,6 @@
       <c r="K148" t="s">
         <v>590</v>
       </c>
-      <c r="L148"/>
       <c r="M148" t="s">
         <v>1102</v>
       </c>
@@ -51085,15 +50425,9 @@
       <c r="X148" t="s">
         <v>2081</v>
       </c>
-      <c r="Y148"/>
-      <c r="Z148"/>
-      <c r="AA148"/>
-      <c r="AB148"/>
-      <c r="AC148"/>
       <c r="AD148" t="s">
         <v>435</v>
       </c>
-      <c r="AE148"/>
       <c r="AP148" t="s">
         <v>256</v>
       </c>
@@ -51252,20 +50586,12 @@
       <c r="F149" t="s">
         <v>123</v>
       </c>
-      <c r="G149"/>
-      <c r="H149"/>
       <c r="I149" t="s">
         <v>155</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K149"/>
-      <c r="L149"/>
-      <c r="M149"/>
-      <c r="N149"/>
-      <c r="O149"/>
-      <c r="P149"/>
       <c r="Q149">
         <v>1</v>
       </c>
@@ -51281,11 +50607,9 @@
       <c r="U149" s="2">
         <v>0</v>
       </c>
-      <c r="V149"/>
       <c r="W149" t="s">
         <v>1873</v>
       </c>
-      <c r="X149"/>
       <c r="Y149" t="s">
         <v>297</v>
       </c>
@@ -51295,28 +50619,18 @@
       <c r="AA149" t="s">
         <v>297</v>
       </c>
-      <c r="AB149"/>
-      <c r="AC149"/>
-      <c r="AD149"/>
       <c r="AE149" t="s">
         <v>297</v>
       </c>
-      <c r="AF149"/>
-      <c r="AG149"/>
-      <c r="AH149"/>
       <c r="AI149" t="s">
         <v>297</v>
       </c>
       <c r="AJ149" t="s">
         <v>297</v>
       </c>
-      <c r="AK149"/>
       <c r="AL149" t="s">
         <v>297</v>
       </c>
-      <c r="AM149"/>
-      <c r="AN149"/>
-      <c r="AO149"/>
       <c r="AP149" t="s">
         <v>256</v>
       </c>
@@ -51400,11 +50714,9 @@
       <c r="M150" t="s">
         <v>814</v>
       </c>
-      <c r="N150"/>
       <c r="O150" t="s">
         <v>2082</v>
       </c>
-      <c r="P150"/>
       <c r="Q150">
         <v>1</v>
       </c>
@@ -51429,23 +50741,6 @@
       <c r="X150" t="s">
         <v>2084</v>
       </c>
-      <c r="Y150"/>
-      <c r="Z150"/>
-      <c r="AA150"/>
-      <c r="AB150"/>
-      <c r="AC150"/>
-      <c r="AD150"/>
-      <c r="AE150"/>
-      <c r="AF150"/>
-      <c r="AG150"/>
-      <c r="AH150"/>
-      <c r="AI150"/>
-      <c r="AJ150"/>
-      <c r="AK150"/>
-      <c r="AL150"/>
-      <c r="AM150"/>
-      <c r="AN150"/>
-      <c r="AO150"/>
       <c r="AP150" t="s">
         <v>335</v>
       </c>
@@ -51544,12 +50839,6 @@
       <c r="X151" t="s">
         <v>2084</v>
       </c>
-      <c r="Y151"/>
-      <c r="Z151"/>
-      <c r="AA151"/>
-      <c r="AB151"/>
-      <c r="AC151"/>
-      <c r="AD151"/>
       <c r="AP151" t="s">
         <v>335</v>
       </c>
@@ -51642,20 +50931,12 @@
       <c r="F152" t="s">
         <v>516</v>
       </c>
-      <c r="G152"/>
-      <c r="H152"/>
       <c r="I152" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
-      <c r="P152"/>
       <c r="Q152">
         <v>1</v>
       </c>
@@ -51680,23 +50961,6 @@
       <c r="X152" t="s">
         <v>2086</v>
       </c>
-      <c r="Y152"/>
-      <c r="Z152"/>
-      <c r="AA152"/>
-      <c r="AB152"/>
-      <c r="AC152"/>
-      <c r="AD152"/>
-      <c r="AE152"/>
-      <c r="AF152"/>
-      <c r="AG152"/>
-      <c r="AH152"/>
-      <c r="AI152"/>
-      <c r="AJ152"/>
-      <c r="AK152"/>
-      <c r="AL152"/>
-      <c r="AM152"/>
-      <c r="AN152"/>
-      <c r="AO152"/>
       <c r="AP152" t="s">
         <v>356</v>
       </c>
@@ -51753,16 +51017,12 @@
       <c r="J153" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K153"/>
-      <c r="L153"/>
       <c r="M153" t="s">
         <v>994</v>
       </c>
-      <c r="N153"/>
       <c r="O153" t="s">
         <v>1990</v>
       </c>
-      <c r="P153"/>
       <c r="Q153">
         <v>1</v>
       </c>
@@ -51787,23 +51047,6 @@
       <c r="X153" t="s">
         <v>2088</v>
       </c>
-      <c r="Y153"/>
-      <c r="Z153"/>
-      <c r="AA153"/>
-      <c r="AB153"/>
-      <c r="AC153"/>
-      <c r="AD153"/>
-      <c r="AE153"/>
-      <c r="AF153"/>
-      <c r="AG153"/>
-      <c r="AH153"/>
-      <c r="AI153"/>
-      <c r="AJ153"/>
-      <c r="AK153"/>
-      <c r="AL153"/>
-      <c r="AM153"/>
-      <c r="AN153"/>
-      <c r="AO153"/>
       <c r="AP153" t="s">
         <v>356</v>
       </c>
@@ -51860,8 +51103,6 @@
       <c r="J154" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K154"/>
-      <c r="L154"/>
       <c r="M154" t="s">
         <v>455</v>
       </c>
@@ -51892,9 +51133,6 @@
       <c r="X154" t="s">
         <v>2088</v>
       </c>
-      <c r="Y154"/>
-      <c r="Z154"/>
-      <c r="AA154"/>
       <c r="AP154" t="s">
         <v>356</v>
       </c>
@@ -51984,14 +51222,9 @@
       <c r="X155" t="s">
         <v>2090</v>
       </c>
-      <c r="Y155"/>
-      <c r="Z155"/>
-      <c r="AA155"/>
-      <c r="AB155"/>
       <c r="AC155" t="s">
         <v>266</v>
       </c>
-      <c r="AD155"/>
       <c r="AP155" t="s">
         <v>280</v>
       </c>
@@ -52114,8 +51347,6 @@
       <c r="F156" t="s">
         <v>1569</v>
       </c>
-      <c r="G156"/>
-      <c r="H156"/>
       <c r="I156" t="s">
         <v>1570</v>
       </c>
@@ -52128,10 +51359,6 @@
       <c r="L156" t="s">
         <v>480</v>
       </c>
-      <c r="M156"/>
-      <c r="N156"/>
-      <c r="O156"/>
-      <c r="P156"/>
       <c r="Q156">
         <v>1</v>
       </c>
@@ -52153,7 +51380,6 @@
       <c r="W156" t="s">
         <v>1870</v>
       </c>
-      <c r="X156"/>
       <c r="Y156" t="s">
         <v>266</v>
       </c>
@@ -52163,24 +51389,12 @@
       <c r="AA156" t="s">
         <v>297</v>
       </c>
-      <c r="AB156"/>
-      <c r="AC156"/>
-      <c r="AD156"/>
       <c r="AE156" t="s">
         <v>297</v>
       </c>
-      <c r="AF156"/>
-      <c r="AG156"/>
-      <c r="AH156"/>
       <c r="AI156" t="s">
         <v>297</v>
       </c>
-      <c r="AJ156"/>
-      <c r="AK156"/>
-      <c r="AL156"/>
-      <c r="AM156"/>
-      <c r="AN156"/>
-      <c r="AO156"/>
       <c r="AP156" t="s">
         <v>1571</v>
       </c>
@@ -52210,7 +51424,6 @@
       <c r="G157" t="s">
         <v>623</v>
       </c>
-      <c r="H157"/>
       <c r="I157" s="1" t="s">
         <v>255</v>
       </c>
@@ -52220,11 +51433,6 @@
       <c r="K157" t="s">
         <v>1576</v>
       </c>
-      <c r="L157"/>
-      <c r="M157"/>
-      <c r="N157"/>
-      <c r="O157"/>
-      <c r="P157"/>
       <c r="Q157">
         <v>1</v>
       </c>
@@ -52246,24 +51454,6 @@
       <c r="W157" t="s">
         <v>1921</v>
       </c>
-      <c r="X157"/>
-      <c r="Y157"/>
-      <c r="Z157"/>
-      <c r="AA157"/>
-      <c r="AB157"/>
-      <c r="AC157"/>
-      <c r="AD157"/>
-      <c r="AE157"/>
-      <c r="AF157"/>
-      <c r="AG157"/>
-      <c r="AH157"/>
-      <c r="AI157"/>
-      <c r="AJ157"/>
-      <c r="AK157"/>
-      <c r="AL157"/>
-      <c r="AM157"/>
-      <c r="AN157"/>
-      <c r="AO157"/>
       <c r="AP157" t="s">
         <v>540</v>
       </c>
@@ -52302,16 +51492,12 @@
       <c r="F158" t="s">
         <v>440</v>
       </c>
-      <c r="G158"/>
-      <c r="H158"/>
       <c r="I158" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K158"/>
-      <c r="L158"/>
       <c r="M158" t="s">
         <v>1581</v>
       </c>
@@ -52342,12 +51528,6 @@
       <c r="X158" t="s">
         <v>2091</v>
       </c>
-      <c r="Y158"/>
-      <c r="Z158"/>
-      <c r="AA158"/>
-      <c r="AB158"/>
-      <c r="AC158"/>
-      <c r="AD158"/>
       <c r="AP158" t="s">
         <v>356</v>
       </c>
@@ -52422,16 +51602,12 @@
       <c r="F159" t="s">
         <v>879</v>
       </c>
-      <c r="G159"/>
-      <c r="H159"/>
       <c r="I159" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K159"/>
-      <c r="L159"/>
       <c r="M159" t="s">
         <v>880</v>
       </c>
@@ -52462,11 +51638,6 @@
       <c r="X159" t="s">
         <v>2092</v>
       </c>
-      <c r="Y159"/>
-      <c r="Z159"/>
-      <c r="AA159"/>
-      <c r="AB159"/>
-      <c r="AC159"/>
       <c r="AD159" t="s">
         <v>435</v>
       </c>
@@ -52550,16 +51721,12 @@
       <c r="F160" t="s">
         <v>879</v>
       </c>
-      <c r="G160"/>
-      <c r="H160"/>
       <c r="I160" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K160"/>
-      <c r="L160"/>
       <c r="M160" t="s">
         <v>880</v>
       </c>
@@ -52590,11 +51757,6 @@
       <c r="X160" t="s">
         <v>1948</v>
       </c>
-      <c r="Y160"/>
-      <c r="Z160"/>
-      <c r="AA160"/>
-      <c r="AB160"/>
-      <c r="AC160"/>
       <c r="AD160" t="s">
         <v>435</v>
       </c>
@@ -52696,7 +51858,6 @@
       <c r="J161" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K161"/>
       <c r="L161" t="s">
         <v>480</v>
       </c>
@@ -52727,14 +51888,9 @@
       <c r="X161" t="s">
         <v>2093</v>
       </c>
-      <c r="Y161"/>
-      <c r="Z161"/>
-      <c r="AA161"/>
-      <c r="AB161"/>
       <c r="AC161" t="s">
         <v>266</v>
       </c>
-      <c r="AD161"/>
       <c r="AP161" t="s">
         <v>280</v>
       </c>
@@ -52857,8 +52013,6 @@
       <c r="F162" t="s">
         <v>589</v>
       </c>
-      <c r="G162"/>
-      <c r="H162"/>
       <c r="I162" s="1" t="s">
         <v>255</v>
       </c>
@@ -52868,7 +52022,6 @@
       <c r="K162" t="s">
         <v>590</v>
       </c>
-      <c r="L162"/>
       <c r="M162" t="s">
         <v>591</v>
       </c>
@@ -52896,12 +52049,6 @@
       <c r="X162" t="s">
         <v>2095</v>
       </c>
-      <c r="Y162"/>
-      <c r="Z162"/>
-      <c r="AA162"/>
-      <c r="AB162"/>
-      <c r="AC162"/>
-      <c r="AD162"/>
       <c r="AP162" t="s">
         <v>325</v>
       </c>
@@ -53012,8 +52159,6 @@
       <c r="F163" t="s">
         <v>589</v>
       </c>
-      <c r="G163"/>
-      <c r="H163"/>
       <c r="I163" s="1" t="s">
         <v>255</v>
       </c>
@@ -53023,7 +52168,6 @@
       <c r="K163" t="s">
         <v>590</v>
       </c>
-      <c r="L163"/>
       <c r="M163" t="s">
         <v>591</v>
       </c>
@@ -53051,12 +52195,6 @@
       <c r="X163" t="s">
         <v>2095</v>
       </c>
-      <c r="Y163"/>
-      <c r="Z163"/>
-      <c r="AA163"/>
-      <c r="AB163"/>
-      <c r="AC163"/>
-      <c r="AD163"/>
       <c r="AP163" t="s">
         <v>325</v>
       </c>
@@ -53167,8 +52305,6 @@
       <c r="F164" t="s">
         <v>589</v>
       </c>
-      <c r="G164"/>
-      <c r="H164"/>
       <c r="I164" s="1" t="s">
         <v>255</v>
       </c>
@@ -53178,7 +52314,6 @@
       <c r="K164" t="s">
         <v>590</v>
       </c>
-      <c r="L164"/>
       <c r="M164" t="s">
         <v>591</v>
       </c>
@@ -53206,12 +52341,6 @@
       <c r="X164" t="s">
         <v>2095</v>
       </c>
-      <c r="Y164"/>
-      <c r="Z164"/>
-      <c r="AA164"/>
-      <c r="AB164"/>
-      <c r="AC164"/>
-      <c r="AD164"/>
       <c r="AP164" t="s">
         <v>325</v>
       </c>
@@ -53331,7 +52460,6 @@
       <c r="K165" t="s">
         <v>590</v>
       </c>
-      <c r="L165"/>
       <c r="M165" t="s">
         <v>591</v>
       </c>
@@ -53359,12 +52487,6 @@
       <c r="X165" t="s">
         <v>2095</v>
       </c>
-      <c r="Y165"/>
-      <c r="Z165"/>
-      <c r="AA165"/>
-      <c r="AB165"/>
-      <c r="AC165"/>
-      <c r="AD165"/>
       <c r="AP165" t="s">
         <v>325</v>
       </c>
@@ -53490,7 +52612,6 @@
       <c r="K166" t="s">
         <v>1407</v>
       </c>
-      <c r="L166"/>
       <c r="M166" t="s">
         <v>1586</v>
       </c>
@@ -53521,11 +52642,9 @@
       <c r="Y166" t="s">
         <v>297</v>
       </c>
-      <c r="Z166"/>
       <c r="AA166" t="s">
         <v>266</v>
       </c>
-      <c r="AB166"/>
       <c r="AC166" t="s">
         <v>266</v>
       </c>
@@ -53675,11 +52794,9 @@
       <c r="M167" t="s">
         <v>774</v>
       </c>
-      <c r="N167"/>
       <c r="O167" t="s">
         <v>2097</v>
       </c>
-      <c r="P167"/>
       <c r="Q167">
         <v>1</v>
       </c>
@@ -53704,23 +52821,6 @@
       <c r="X167" t="s">
         <v>2099</v>
       </c>
-      <c r="Y167"/>
-      <c r="Z167"/>
-      <c r="AA167"/>
-      <c r="AB167"/>
-      <c r="AC167"/>
-      <c r="AD167"/>
-      <c r="AE167"/>
-      <c r="AF167"/>
-      <c r="AG167"/>
-      <c r="AH167"/>
-      <c r="AI167"/>
-      <c r="AJ167"/>
-      <c r="AK167"/>
-      <c r="AL167"/>
-      <c r="AM167"/>
-      <c r="AN167"/>
-      <c r="AO167"/>
       <c r="AP167" t="s">
         <v>335</v>
       </c>
@@ -53831,16 +52931,12 @@
       <c r="X168" t="s">
         <v>2099</v>
       </c>
-      <c r="Y168"/>
-      <c r="Z168"/>
-      <c r="AA168"/>
       <c r="AB168" t="s">
         <v>297</v>
       </c>
       <c r="AC168" t="s">
         <v>266</v>
       </c>
-      <c r="AD168"/>
       <c r="AP168" t="s">
         <v>335</v>
       </c>
@@ -54005,14 +53101,9 @@
       <c r="X169" t="s">
         <v>2100</v>
       </c>
-      <c r="Y169"/>
-      <c r="Z169"/>
       <c r="AA169" t="s">
         <v>266</v>
       </c>
-      <c r="AB169"/>
-      <c r="AC169"/>
-      <c r="AD169"/>
       <c r="AP169" t="s">
         <v>330</v>
       </c>
@@ -54117,24 +53208,18 @@
       <c r="F170" t="s">
         <v>879</v>
       </c>
-      <c r="G170"/>
-      <c r="H170"/>
       <c r="I170" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K170"/>
-      <c r="L170"/>
       <c r="M170" t="s">
         <v>1602</v>
       </c>
-      <c r="N170"/>
       <c r="O170" t="s">
         <v>2101</v>
       </c>
-      <c r="P170"/>
       <c r="Q170">
         <v>1</v>
       </c>
@@ -54159,23 +53244,6 @@
       <c r="X170" t="s">
         <v>2103</v>
       </c>
-      <c r="Y170"/>
-      <c r="Z170"/>
-      <c r="AA170"/>
-      <c r="AB170"/>
-      <c r="AC170"/>
-      <c r="AD170"/>
-      <c r="AE170"/>
-      <c r="AF170"/>
-      <c r="AG170"/>
-      <c r="AH170"/>
-      <c r="AI170"/>
-      <c r="AJ170"/>
-      <c r="AK170"/>
-      <c r="AL170"/>
-      <c r="AM170"/>
-      <c r="AN170"/>
-      <c r="AO170"/>
       <c r="AP170" t="s">
         <v>340</v>
       </c>
@@ -54274,11 +53342,6 @@
       <c r="X171" t="s">
         <v>2105</v>
       </c>
-      <c r="Y171"/>
-      <c r="Z171"/>
-      <c r="AA171"/>
-      <c r="AB171"/>
-      <c r="AC171"/>
       <c r="AD171" t="s">
         <v>435</v>
       </c>
@@ -54428,12 +53491,6 @@
       <c r="X172" t="s">
         <v>2107</v>
       </c>
-      <c r="Y172"/>
-      <c r="Z172"/>
-      <c r="AA172"/>
-      <c r="AB172"/>
-      <c r="AC172"/>
-      <c r="AD172"/>
       <c r="AE172" t="s">
         <v>297</v>
       </c>
@@ -54565,8 +53622,6 @@
       <c r="F173" t="s">
         <v>879</v>
       </c>
-      <c r="G173"/>
-      <c r="H173"/>
       <c r="I173" s="1" t="s">
         <v>255</v>
       </c>
@@ -54603,12 +53658,6 @@
       <c r="X173" t="s">
         <v>2107</v>
       </c>
-      <c r="Y173"/>
-      <c r="Z173"/>
-      <c r="AA173"/>
-      <c r="AB173"/>
-      <c r="AC173"/>
-      <c r="AD173"/>
       <c r="AE173" t="s">
         <v>297</v>
       </c>
@@ -54788,12 +53837,6 @@
       <c r="X174" t="s">
         <v>2112</v>
       </c>
-      <c r="Y174"/>
-      <c r="Z174"/>
-      <c r="AA174"/>
-      <c r="AB174"/>
-      <c r="AC174"/>
-      <c r="AD174"/>
       <c r="AP174" t="s">
         <v>335</v>
       </c>
@@ -54961,9 +54004,6 @@
       <c r="M175" t="s">
         <v>820</v>
       </c>
-      <c r="N175"/>
-      <c r="O175"/>
-      <c r="P175"/>
       <c r="Q175">
         <v>1</v>
       </c>
@@ -54991,22 +54031,6 @@
       <c r="Y175" t="s">
         <v>297</v>
       </c>
-      <c r="Z175"/>
-      <c r="AA175"/>
-      <c r="AB175"/>
-      <c r="AC175"/>
-      <c r="AD175"/>
-      <c r="AE175"/>
-      <c r="AF175"/>
-      <c r="AG175"/>
-      <c r="AH175"/>
-      <c r="AI175"/>
-      <c r="AJ175"/>
-      <c r="AK175"/>
-      <c r="AL175"/>
-      <c r="AM175"/>
-      <c r="AN175"/>
-      <c r="AO175"/>
       <c r="AP175" t="s">
         <v>977</v>
       </c>
@@ -55069,8 +54093,6 @@
       <c r="F176" t="s">
         <v>123</v>
       </c>
-      <c r="G176"/>
-      <c r="H176"/>
       <c r="I176" s="1" t="s">
         <v>255</v>
       </c>
@@ -55083,10 +54105,6 @@
       <c r="L176" t="s">
         <v>480</v>
       </c>
-      <c r="M176"/>
-      <c r="N176"/>
-      <c r="O176"/>
-      <c r="P176"/>
       <c r="Q176">
         <v>1</v>
       </c>
@@ -55111,23 +54129,6 @@
       <c r="X176" t="s">
         <v>2116</v>
       </c>
-      <c r="Y176"/>
-      <c r="Z176"/>
-      <c r="AA176"/>
-      <c r="AB176"/>
-      <c r="AC176"/>
-      <c r="AD176"/>
-      <c r="AE176"/>
-      <c r="AF176"/>
-      <c r="AG176"/>
-      <c r="AH176"/>
-      <c r="AI176"/>
-      <c r="AJ176"/>
-      <c r="AK176"/>
-      <c r="AL176"/>
-      <c r="AM176"/>
-      <c r="AN176"/>
-      <c r="AO176"/>
       <c r="AP176" t="s">
         <v>977</v>
       </c>
@@ -55178,16 +54179,12 @@
       <c r="F177" t="s">
         <v>440</v>
       </c>
-      <c r="G177"/>
-      <c r="H177"/>
       <c r="I177" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K177"/>
-      <c r="L177"/>
       <c r="M177" t="s">
         <v>1628</v>
       </c>
@@ -55215,11 +54212,6 @@
       <c r="X177" t="s">
         <v>2118</v>
       </c>
-      <c r="Y177"/>
-      <c r="Z177"/>
-      <c r="AA177"/>
-      <c r="AB177"/>
-      <c r="AC177"/>
       <c r="AP177" t="s">
         <v>977</v>
       </c>
@@ -55321,7 +54313,6 @@
       <c r="K178" t="s">
         <v>467</v>
       </c>
-      <c r="L178"/>
       <c r="M178" t="s">
         <v>468</v>
       </c>
@@ -55349,12 +54340,6 @@
       <c r="X178" t="s">
         <v>2122</v>
       </c>
-      <c r="Y178"/>
-      <c r="Z178"/>
-      <c r="AA178"/>
-      <c r="AB178"/>
-      <c r="AC178"/>
-      <c r="AD178"/>
       <c r="AP178" t="s">
         <v>356</v>
       </c>
@@ -55435,8 +54420,6 @@
       <c r="F179" t="s">
         <v>1636</v>
       </c>
-      <c r="G179"/>
-      <c r="H179"/>
       <c r="I179" s="1" t="s">
         <v>255</v>
       </c>
@@ -55452,9 +54435,6 @@
       <c r="M179" t="s">
         <v>1638</v>
       </c>
-      <c r="N179"/>
-      <c r="O179"/>
-      <c r="P179"/>
       <c r="Q179">
         <v>1</v>
       </c>
@@ -55479,23 +54459,6 @@
       <c r="X179" t="s">
         <v>2124</v>
       </c>
-      <c r="Y179"/>
-      <c r="Z179"/>
-      <c r="AA179"/>
-      <c r="AB179"/>
-      <c r="AC179"/>
-      <c r="AD179"/>
-      <c r="AE179"/>
-      <c r="AF179"/>
-      <c r="AG179"/>
-      <c r="AH179"/>
-      <c r="AI179"/>
-      <c r="AJ179"/>
-      <c r="AK179"/>
-      <c r="AL179"/>
-      <c r="AM179"/>
-      <c r="AN179"/>
-      <c r="AO179"/>
       <c r="AP179" t="s">
         <v>977</v>
       </c>
@@ -55585,12 +54548,6 @@
       <c r="X180" t="s">
         <v>2125</v>
       </c>
-      <c r="Y180"/>
-      <c r="Z180"/>
-      <c r="AA180"/>
-      <c r="AB180"/>
-      <c r="AC180"/>
-      <c r="AD180"/>
       <c r="AP180" t="s">
         <v>1644</v>
       </c>
@@ -55707,12 +54664,6 @@
       <c r="X181" t="s">
         <v>2126</v>
       </c>
-      <c r="Y181"/>
-      <c r="Z181"/>
-      <c r="AA181"/>
-      <c r="AB181"/>
-      <c r="AC181"/>
-      <c r="AD181"/>
       <c r="AP181" t="s">
         <v>335</v>
       </c>
@@ -55904,12 +54855,6 @@
       <c r="X182" t="s">
         <v>2127</v>
       </c>
-      <c r="Y182"/>
-      <c r="Z182"/>
-      <c r="AA182"/>
-      <c r="AB182"/>
-      <c r="AC182"/>
-      <c r="AD182"/>
       <c r="AP182" t="s">
         <v>1657</v>
       </c>
@@ -56035,13 +54980,9 @@
       <c r="X183" t="s">
         <v>2128</v>
       </c>
-      <c r="Y183"/>
       <c r="Z183" t="s">
         <v>1672</v>
       </c>
-      <c r="AA183"/>
-      <c r="AB183"/>
-      <c r="AC183"/>
       <c r="AD183" t="s">
         <v>435</v>
       </c>
@@ -56149,15 +55090,12 @@
       <c r="K184" t="s">
         <v>522</v>
       </c>
-      <c r="L184"/>
       <c r="M184" t="s">
         <v>1263</v>
       </c>
-      <c r="N184"/>
       <c r="O184" t="s">
         <v>2129</v>
       </c>
-      <c r="P184"/>
       <c r="Q184">
         <v>1</v>
       </c>
@@ -56173,30 +55111,12 @@
       <c r="U184" s="2">
         <v>470</v>
       </c>
-      <c r="V184"/>
       <c r="W184" t="s">
         <v>1873</v>
       </c>
       <c r="X184" t="s">
         <v>2130</v>
       </c>
-      <c r="Y184"/>
-      <c r="Z184"/>
-      <c r="AA184"/>
-      <c r="AB184"/>
-      <c r="AC184"/>
-      <c r="AD184"/>
-      <c r="AE184"/>
-      <c r="AF184"/>
-      <c r="AG184"/>
-      <c r="AH184"/>
-      <c r="AI184"/>
-      <c r="AJ184"/>
-      <c r="AK184"/>
-      <c r="AL184"/>
-      <c r="AM184"/>
-      <c r="AN184"/>
-      <c r="AO184"/>
       <c r="AP184" t="s">
         <v>256</v>
       </c>
@@ -56301,12 +55221,6 @@
       <c r="X185" t="s">
         <v>2131</v>
       </c>
-      <c r="Y185"/>
-      <c r="Z185"/>
-      <c r="AA185"/>
-      <c r="AB185"/>
-      <c r="AC185"/>
-      <c r="AD185"/>
       <c r="AP185" t="s">
         <v>256</v>
       </c>
@@ -56429,12 +55343,6 @@
       <c r="X186" t="s">
         <v>2133</v>
       </c>
-      <c r="Y186"/>
-      <c r="Z186"/>
-      <c r="AA186"/>
-      <c r="AB186"/>
-      <c r="AC186"/>
-      <c r="AD186"/>
       <c r="AP186" t="s">
         <v>285</v>
       </c>
@@ -56605,12 +55513,6 @@
       <c r="X187" t="s">
         <v>2134</v>
       </c>
-      <c r="Y187"/>
-      <c r="Z187"/>
-      <c r="AA187"/>
-      <c r="AB187"/>
-      <c r="AC187"/>
-      <c r="AD187"/>
       <c r="AP187" t="s">
         <v>280</v>
       </c>
@@ -56805,12 +55707,6 @@
       <c r="X188" s="3" t="s">
         <v>2136</v>
       </c>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-      <c r="AA188" s="3"/>
-      <c r="AB188" s="3"/>
-      <c r="AC188" s="3"/>
-      <c r="AD188" s="3"/>
       <c r="AP188" s="3" t="s">
         <v>335</v>
       </c>
@@ -56909,12 +55805,6 @@
       <c r="X189" t="s">
         <v>2136</v>
       </c>
-      <c r="Y189"/>
-      <c r="Z189"/>
-      <c r="AA189"/>
-      <c r="AB189"/>
-      <c r="AC189"/>
-      <c r="AD189"/>
       <c r="AP189" t="s">
         <v>335</v>
       </c>
@@ -57058,12 +55948,6 @@
       <c r="X190" t="s">
         <v>2138</v>
       </c>
-      <c r="Y190"/>
-      <c r="Z190"/>
-      <c r="AA190"/>
-      <c r="AB190"/>
-      <c r="AC190"/>
-      <c r="AD190"/>
       <c r="AP190" t="s">
         <v>525</v>
       </c>
@@ -57210,12 +56094,6 @@
       <c r="X191" t="s">
         <v>2079</v>
       </c>
-      <c r="Y191"/>
-      <c r="Z191"/>
-      <c r="AA191"/>
-      <c r="AB191"/>
-      <c r="AC191"/>
-      <c r="AD191"/>
       <c r="AP191" t="s">
         <v>325</v>
       </c>
@@ -57419,9 +56297,6 @@
       <c r="AA192" t="s">
         <v>297</v>
       </c>
-      <c r="AB192"/>
-      <c r="AC192"/>
-      <c r="AD192"/>
       <c r="AP192" t="s">
         <v>2144</v>
       </c>
@@ -57511,9 +56386,6 @@
       <c r="M193" t="s">
         <v>297</v>
       </c>
-      <c r="N193"/>
-      <c r="O193"/>
-      <c r="P193"/>
       <c r="Q193">
         <v>1</v>
       </c>
@@ -57547,22 +56419,9 @@
       <c r="AA193" t="s">
         <v>297</v>
       </c>
-      <c r="AB193"/>
-      <c r="AC193"/>
-      <c r="AD193"/>
-      <c r="AE193"/>
-      <c r="AF193"/>
-      <c r="AG193"/>
-      <c r="AH193"/>
-      <c r="AI193"/>
-      <c r="AJ193"/>
-      <c r="AK193"/>
       <c r="AL193" t="s">
         <v>297</v>
       </c>
-      <c r="AM193"/>
-      <c r="AN193"/>
-      <c r="AO193"/>
       <c r="AP193" t="s">
         <v>1758</v>
       </c>
@@ -57646,9 +56505,6 @@
       <c r="M194" t="s">
         <v>560</v>
       </c>
-      <c r="N194"/>
-      <c r="O194"/>
-      <c r="P194"/>
       <c r="Q194">
         <v>1</v>
       </c>
@@ -57670,7 +56526,6 @@
       <c r="W194" t="s">
         <v>1870</v>
       </c>
-      <c r="X194"/>
       <c r="Y194" t="s">
         <v>297</v>
       </c>
@@ -57680,26 +56535,15 @@
       <c r="AA194" t="s">
         <v>297</v>
       </c>
-      <c r="AB194"/>
-      <c r="AC194"/>
-      <c r="AD194"/>
       <c r="AE194" t="s">
         <v>297</v>
       </c>
-      <c r="AF194"/>
-      <c r="AG194"/>
-      <c r="AH194"/>
-      <c r="AI194"/>
       <c r="AJ194" t="s">
         <v>297</v>
       </c>
-      <c r="AK194"/>
       <c r="AL194" t="s">
         <v>297</v>
       </c>
-      <c r="AM194"/>
-      <c r="AN194"/>
-      <c r="AO194"/>
       <c r="AP194" t="s">
         <v>1758</v>
       </c>
@@ -57807,9 +56651,6 @@
       <c r="AA195" t="s">
         <v>297</v>
       </c>
-      <c r="AB195"/>
-      <c r="AC195"/>
-      <c r="AD195"/>
       <c r="AL195" t="s">
         <v>297</v>
       </c>
@@ -57899,10 +56740,6 @@
       <c r="L196" t="s">
         <v>480</v>
       </c>
-      <c r="M196"/>
-      <c r="N196"/>
-      <c r="O196"/>
-      <c r="P196"/>
       <c r="Q196">
         <v>1</v>
       </c>
@@ -57936,22 +56773,9 @@
       <c r="AA196" t="s">
         <v>297</v>
       </c>
-      <c r="AB196"/>
-      <c r="AC196"/>
-      <c r="AD196"/>
-      <c r="AE196"/>
-      <c r="AF196"/>
-      <c r="AG196"/>
-      <c r="AH196"/>
-      <c r="AI196"/>
-      <c r="AJ196"/>
-      <c r="AK196"/>
       <c r="AL196" t="s">
         <v>297</v>
       </c>
-      <c r="AM196"/>
-      <c r="AN196"/>
-      <c r="AO196"/>
       <c r="AP196" t="s">
         <v>1758</v>
       </c>
@@ -58014,8 +56838,6 @@
       <c r="F197" t="s">
         <v>559</v>
       </c>
-      <c r="G197"/>
-      <c r="H197"/>
       <c r="I197" t="s">
         <v>2172</v>
       </c>
@@ -58061,11 +56883,9 @@
       <c r="AA197" t="s">
         <v>297</v>
       </c>
-      <c r="AB197"/>
       <c r="AC197" t="s">
         <v>266</v>
       </c>
-      <c r="AD197"/>
       <c r="AG197" t="s">
         <v>1401</v>
       </c>
@@ -58167,20 +56987,12 @@
       <c r="F198" t="s">
         <v>123</v>
       </c>
-      <c r="G198"/>
-      <c r="H198"/>
       <c r="I198" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K198"/>
-      <c r="L198"/>
-      <c r="M198"/>
-      <c r="N198"/>
-      <c r="O198"/>
-      <c r="P198"/>
       <c r="Q198">
         <v>1</v>
       </c>
@@ -58205,23 +57017,6 @@
       <c r="X198" t="s">
         <v>2191</v>
       </c>
-      <c r="Y198"/>
-      <c r="Z198"/>
-      <c r="AA198"/>
-      <c r="AB198"/>
-      <c r="AC198"/>
-      <c r="AD198"/>
-      <c r="AE198"/>
-      <c r="AF198"/>
-      <c r="AG198"/>
-      <c r="AH198"/>
-      <c r="AI198"/>
-      <c r="AJ198"/>
-      <c r="AK198"/>
-      <c r="AL198"/>
-      <c r="AM198"/>
-      <c r="AN198"/>
-      <c r="AO198"/>
       <c r="AP198" t="s">
         <v>340</v>
       </c>
@@ -58254,22 +57049,15 @@
       <c r="F199" t="s">
         <v>123</v>
       </c>
-      <c r="G199"/>
-      <c r="H199"/>
       <c r="I199" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K199"/>
-      <c r="L199"/>
       <c r="M199" t="s">
         <v>2197</v>
       </c>
-      <c r="N199"/>
-      <c r="O199"/>
-      <c r="P199"/>
       <c r="Q199">
         <v>1</v>
       </c>
@@ -58294,23 +57082,6 @@
       <c r="X199" t="s">
         <v>2198</v>
       </c>
-      <c r="Y199"/>
-      <c r="Z199"/>
-      <c r="AA199"/>
-      <c r="AB199"/>
-      <c r="AC199"/>
-      <c r="AD199"/>
-      <c r="AE199"/>
-      <c r="AF199"/>
-      <c r="AG199"/>
-      <c r="AH199"/>
-      <c r="AI199"/>
-      <c r="AJ199"/>
-      <c r="AK199"/>
-      <c r="AL199"/>
-      <c r="AM199"/>
-      <c r="AN199"/>
-      <c r="AO199"/>
       <c r="AP199" t="s">
         <v>525</v>
       </c>
@@ -58343,22 +57114,15 @@
       <c r="F200" t="s">
         <v>123</v>
       </c>
-      <c r="G200"/>
-      <c r="H200"/>
       <c r="I200" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K200"/>
-      <c r="L200"/>
       <c r="M200" t="s">
         <v>2197</v>
       </c>
-      <c r="N200"/>
-      <c r="O200"/>
-      <c r="P200"/>
       <c r="Q200">
         <v>1</v>
       </c>
@@ -58383,23 +57147,6 @@
       <c r="X200" t="s">
         <v>2204</v>
       </c>
-      <c r="Y200"/>
-      <c r="Z200"/>
-      <c r="AA200"/>
-      <c r="AB200"/>
-      <c r="AC200"/>
-      <c r="AD200"/>
-      <c r="AE200"/>
-      <c r="AF200"/>
-      <c r="AG200"/>
-      <c r="AH200"/>
-      <c r="AI200"/>
-      <c r="AJ200"/>
-      <c r="AK200"/>
-      <c r="AL200"/>
-      <c r="AM200"/>
-      <c r="AN200"/>
-      <c r="AO200"/>
       <c r="AP200" t="s">
         <v>524</v>
       </c>
@@ -58450,10 +57197,6 @@
       <c r="L201" t="s">
         <v>297</v>
       </c>
-      <c r="M201"/>
-      <c r="N201"/>
-      <c r="O201"/>
-      <c r="P201"/>
       <c r="Q201">
         <v>1</v>
       </c>
@@ -58481,28 +57224,15 @@
       <c r="Y201" t="s">
         <v>266</v>
       </c>
-      <c r="Z201"/>
       <c r="AA201" t="s">
         <v>297</v>
       </c>
-      <c r="AB201"/>
-      <c r="AC201"/>
-      <c r="AD201"/>
-      <c r="AE201"/>
-      <c r="AF201"/>
-      <c r="AG201"/>
-      <c r="AH201"/>
-      <c r="AI201"/>
       <c r="AJ201" t="s">
         <v>297</v>
       </c>
-      <c r="AK201"/>
       <c r="AL201" t="s">
         <v>297</v>
       </c>
-      <c r="AM201"/>
-      <c r="AN201"/>
-      <c r="AO201"/>
       <c r="AP201" t="s">
         <v>1758</v>
       </c>
@@ -58553,24 +57283,18 @@
       <c r="F202" t="s">
         <v>516</v>
       </c>
-      <c r="G202"/>
-      <c r="H202"/>
       <c r="I202" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K202"/>
       <c r="L202" t="s">
         <v>297</v>
       </c>
       <c r="M202" t="s">
         <v>2197</v>
       </c>
-      <c r="N202"/>
-      <c r="O202"/>
-      <c r="P202"/>
       <c r="Q202">
         <v>1</v>
       </c>
@@ -58598,20 +57322,9 @@
       <c r="Y202" t="s">
         <v>266</v>
       </c>
-      <c r="Z202"/>
       <c r="AA202" t="s">
         <v>297</v>
       </c>
-      <c r="AB202"/>
-      <c r="AC202"/>
-      <c r="AD202"/>
-      <c r="AE202"/>
-      <c r="AF202"/>
-      <c r="AG202"/>
-      <c r="AH202"/>
-      <c r="AI202"/>
-      <c r="AJ202"/>
-      <c r="AK202"/>
       <c r="AL202" t="s">
         <v>297</v>
       </c>
@@ -58680,24 +57393,18 @@
       <c r="F203" t="s">
         <v>516</v>
       </c>
-      <c r="G203"/>
-      <c r="H203"/>
       <c r="I203" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K203"/>
-      <c r="L203"/>
       <c r="M203" t="s">
         <v>1005</v>
       </c>
-      <c r="N203"/>
       <c r="O203" t="s">
         <v>2062</v>
       </c>
-      <c r="P203"/>
       <c r="Q203">
         <v>1</v>
       </c>
@@ -58722,25 +57429,9 @@
       <c r="X203" t="s">
         <v>2217</v>
       </c>
-      <c r="Y203"/>
-      <c r="Z203"/>
-      <c r="AA203"/>
-      <c r="AB203"/>
-      <c r="AC203"/>
-      <c r="AD203"/>
-      <c r="AE203"/>
-      <c r="AF203"/>
-      <c r="AG203"/>
-      <c r="AH203"/>
-      <c r="AI203"/>
       <c r="AJ203" t="s">
         <v>266</v>
       </c>
-      <c r="AK203"/>
-      <c r="AL203"/>
-      <c r="AM203"/>
-      <c r="AN203"/>
-      <c r="AO203"/>
       <c r="AP203" t="s">
         <v>325</v>
       </c>
@@ -58791,8 +57482,6 @@
       <c r="F204" t="s">
         <v>2222</v>
       </c>
-      <c r="G204"/>
-      <c r="H204"/>
       <c r="I204" t="s">
         <v>255</v>
       </c>
@@ -58808,9 +57497,6 @@
       <c r="M204" t="s">
         <v>2224</v>
       </c>
-      <c r="N204"/>
-      <c r="O204"/>
-      <c r="P204"/>
       <c r="Q204">
         <v>1</v>
       </c>
@@ -58826,28 +57512,9 @@
       <c r="U204" s="2">
         <v>0</v>
       </c>
-      <c r="V204"/>
-      <c r="W204"/>
-      <c r="X204"/>
-      <c r="Y204"/>
-      <c r="Z204"/>
-      <c r="AA204"/>
-      <c r="AB204"/>
-      <c r="AC204"/>
-      <c r="AD204"/>
       <c r="AE204" t="s">
         <v>297</v>
       </c>
-      <c r="AF204"/>
-      <c r="AG204"/>
-      <c r="AH204"/>
-      <c r="AI204"/>
-      <c r="AJ204"/>
-      <c r="AK204"/>
-      <c r="AL204"/>
-      <c r="AM204"/>
-      <c r="AN204"/>
-      <c r="AO204"/>
       <c r="AP204" t="s">
         <v>280</v>
       </c>
@@ -58898,8 +57565,6 @@
       <c r="F205" t="s">
         <v>123</v>
       </c>
-      <c r="G205"/>
-      <c r="H205"/>
       <c r="I205" t="s">
         <v>1400</v>
       </c>
@@ -58909,11 +57574,6 @@
       <c r="K205" t="s">
         <v>522</v>
       </c>
-      <c r="L205"/>
-      <c r="M205"/>
-      <c r="N205"/>
-      <c r="O205"/>
-      <c r="P205"/>
       <c r="Q205">
         <v>1</v>
       </c>
@@ -58938,16 +57598,9 @@
       <c r="X205" t="s">
         <v>2235</v>
       </c>
-      <c r="Y205"/>
       <c r="Z205" t="s">
         <v>434</v>
       </c>
-      <c r="AA205"/>
-      <c r="AB205"/>
-      <c r="AC205"/>
-      <c r="AD205"/>
-      <c r="AE205"/>
-      <c r="AF205"/>
       <c r="AG205" t="s">
         <v>266</v>
       </c>
@@ -58960,7 +57613,6 @@
       <c r="AJ205" t="s">
         <v>297</v>
       </c>
-      <c r="AK205"/>
       <c r="AL205" t="s">
         <v>297</v>
       </c>
@@ -59020,13 +57672,9 @@
       <c r="K206" t="s">
         <v>522</v>
       </c>
-      <c r="L206"/>
       <c r="M206" t="s">
         <v>681</v>
       </c>
-      <c r="N206"/>
-      <c r="O206"/>
-      <c r="P206"/>
       <c r="Q206">
         <v>1</v>
       </c>
@@ -59051,25 +57699,9 @@
       <c r="X206" t="s">
         <v>2239</v>
       </c>
-      <c r="Y206"/>
-      <c r="Z206"/>
-      <c r="AA206"/>
-      <c r="AB206"/>
-      <c r="AC206"/>
       <c r="AD206" t="s">
         <v>435</v>
       </c>
-      <c r="AE206"/>
-      <c r="AF206"/>
-      <c r="AG206"/>
-      <c r="AH206"/>
-      <c r="AI206"/>
-      <c r="AJ206"/>
-      <c r="AK206"/>
-      <c r="AL206"/>
-      <c r="AM206"/>
-      <c r="AN206"/>
-      <c r="AO206"/>
       <c r="AP206" t="s">
         <v>345</v>
       </c>
@@ -64850,9 +63482,6 @@
     </row>
     <row r="255" customFormat="1" spans="2:87">
       <c r="B255" s="5"/>
-      <c r="C255"/>
-      <c r="D255"/>
-      <c r="E255"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
@@ -67542,9 +66171,6 @@
     </row>
     <row r="287" customFormat="1" spans="2:87">
       <c r="B287" s="5"/>
-      <c r="C287"/>
-      <c r="D287"/>
-      <c r="E287"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>

--- a/code/excels/items/imba_items.xlsx
+++ b/code/excels/items/imba_items.xlsx
@@ -7910,7 +7910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -7991,7 +7991,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8004,7 +8003,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -8405,10 +8403,10 @@
   <sheetPr/>
   <dimension ref="A1:CE296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A143" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A52" workbookViewId="0">
       <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q143" sqref="Q143:Q173"/>
+      <selection pane="topRight" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12708,7 +12706,7 @@
       <c r="P56" s="2">
         <v>1</v>
       </c>
-      <c r="Q56" s="28" t="s">
+      <c r="Q56" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R56" s="2">
@@ -12825,7 +12823,7 @@
       <c r="P57" s="2">
         <v>1</v>
       </c>
-      <c r="Q57" s="28" t="s">
+      <c r="Q57" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R57" s="2">
@@ -12940,7 +12938,7 @@
       <c r="P58" s="2">
         <v>1</v>
       </c>
-      <c r="Q58" s="28" t="s">
+      <c r="Q58" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R58" s="2">
@@ -13055,7 +13053,7 @@
       <c r="P59" s="2">
         <v>1</v>
       </c>
-      <c r="Q59" s="28" t="s">
+      <c r="Q59" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R59" s="2">
@@ -13170,7 +13168,7 @@
       <c r="P60" s="2">
         <v>1</v>
       </c>
-      <c r="Q60" s="28" t="s">
+      <c r="Q60" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R60" s="2">
@@ -13287,7 +13285,7 @@
       <c r="P61" s="2">
         <v>1</v>
       </c>
-      <c r="Q61" s="28" t="s">
+      <c r="Q61" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R61" s="2">
@@ -13402,7 +13400,7 @@
       <c r="P62" s="2">
         <v>1</v>
       </c>
-      <c r="Q62" s="28" t="s">
+      <c r="Q62" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R62" s="2">
@@ -13510,7 +13508,7 @@
       <c r="P63">
         <v>1</v>
       </c>
-      <c r="Q63" s="28" t="s">
+      <c r="Q63" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R63" s="2">
@@ -13582,7 +13580,7 @@
       <c r="P64" s="2">
         <v>1</v>
       </c>
-      <c r="Q64" s="28" t="s">
+      <c r="Q64" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R64" s="2">
@@ -13699,7 +13697,7 @@
       <c r="P65">
         <v>1</v>
       </c>
-      <c r="Q65" s="28" t="s">
+      <c r="Q65" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R65" s="2">
@@ -13749,10 +13747,10 @@
       <c r="AN66" s="2"/>
     </row>
     <row r="67" ht="15.5" spans="1:41">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="28" t="s">
         <v>425</v>
       </c>
       <c r="C67" t="s">
@@ -13776,7 +13774,7 @@
       <c r="P67">
         <v>1</v>
       </c>
-      <c r="Q67" s="35" t="s">
+      <c r="Q67" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R67" s="6">
@@ -13811,7 +13809,7 @@
       <c r="C68" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="29" t="s">
         <v>432</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -13836,7 +13834,7 @@
       <c r="P68" s="22">
         <v>1</v>
       </c>
-      <c r="Q68" s="35" t="s">
+      <c r="Q68" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R68" s="22">
@@ -13957,7 +13955,7 @@
       <c r="P69">
         <v>1</v>
       </c>
-      <c r="Q69" s="35" t="s">
+      <c r="Q69" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R69" s="2">
@@ -14052,7 +14050,7 @@
       <c r="P70">
         <v>1</v>
       </c>
-      <c r="Q70" s="35" t="s">
+      <c r="Q70" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R70" s="2">
@@ -14099,7 +14097,7 @@
       </c>
     </row>
     <row r="71" spans="1:57">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>460</v>
       </c>
       <c r="B71" s="27" t="s">
@@ -14138,7 +14136,7 @@
       <c r="P71">
         <v>1</v>
       </c>
-      <c r="Q71" s="35" t="s">
+      <c r="Q71" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R71" s="2">
@@ -14254,7 +14252,7 @@
       <c r="P72" s="2">
         <v>1</v>
       </c>
-      <c r="Q72" s="35" t="s">
+      <c r="Q72" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R72" s="2">
@@ -14404,7 +14402,7 @@
       <c r="P73">
         <v>1</v>
       </c>
-      <c r="Q73" s="35" t="s">
+      <c r="Q73" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R73" s="2">
@@ -14469,7 +14467,7 @@
       <c r="P74">
         <v>1</v>
       </c>
-      <c r="Q74" s="35" t="s">
+      <c r="Q74" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R74" s="2">
@@ -14547,7 +14545,7 @@
       <c r="P75" s="2">
         <v>1</v>
       </c>
-      <c r="Q75" s="35" t="s">
+      <c r="Q75" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R75" s="2">
@@ -14640,7 +14638,7 @@
       <c r="CE75" s="2"/>
     </row>
     <row r="76" spans="1:45">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="30" t="s">
         <v>512</v>
       </c>
       <c r="B76" s="26" t="s">
@@ -14667,7 +14665,7 @@
       <c r="P76">
         <v>1</v>
       </c>
-      <c r="Q76" s="35" t="s">
+      <c r="Q76" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R76" s="2">
@@ -14738,7 +14736,7 @@
       <c r="P77">
         <v>1</v>
       </c>
-      <c r="Q77" s="35" t="s">
+      <c r="Q77" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R77" s="2">
@@ -14863,7 +14861,7 @@
       <c r="P78">
         <v>1</v>
       </c>
-      <c r="Q78" s="35" t="s">
+      <c r="Q78" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R78" s="2">
@@ -14965,7 +14963,7 @@
       <c r="P79" s="2">
         <v>1</v>
       </c>
-      <c r="Q79" s="35" t="s">
+      <c r="Q79" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R79" s="2">
@@ -15096,7 +15094,7 @@
       <c r="P80">
         <v>1</v>
       </c>
-      <c r="Q80" s="35" t="s">
+      <c r="Q80" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R80" s="2">
@@ -15188,7 +15186,7 @@
       <c r="P81">
         <v>1</v>
       </c>
-      <c r="Q81" s="35" t="s">
+      <c r="Q81" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R81" s="2">
@@ -15308,7 +15306,7 @@
       <c r="P82" s="2">
         <v>1</v>
       </c>
-      <c r="Q82" s="35" t="s">
+      <c r="Q82" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R82" s="2">
@@ -15430,7 +15428,7 @@
       <c r="P83">
         <v>1</v>
       </c>
-      <c r="Q83" s="35" t="s">
+      <c r="Q83" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R83" s="2">
@@ -15572,7 +15570,7 @@
       <c r="P84" s="2">
         <v>1</v>
       </c>
-      <c r="Q84" s="35" t="s">
+      <c r="Q84" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R84" s="2">
@@ -15707,7 +15705,7 @@
       <c r="P85">
         <v>1</v>
       </c>
-      <c r="Q85" s="35" t="s">
+      <c r="Q85" s="2" t="s">
         <v>162</v>
       </c>
       <c r="R85" s="2">
@@ -15854,10 +15852,10 @@
       <c r="CE86" s="2"/>
     </row>
     <row r="87" spans="1:83">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="31" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="32" t="s">
         <v>633</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -15971,10 +15969,10 @@
       <c r="CE87" s="2"/>
     </row>
     <row r="88" spans="1:83">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="31" t="s">
         <v>636</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="32" t="s">
         <v>637</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -16088,10 +16086,10 @@
       <c r="CE88" s="2"/>
     </row>
     <row r="89" spans="1:83">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="31" t="s">
         <v>640</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="32" t="s">
         <v>641</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -16205,10 +16203,10 @@
       <c r="CE89" s="2"/>
     </row>
     <row r="90" spans="1:83">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="31" t="s">
         <v>644</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="32" t="s">
         <v>645</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -16322,10 +16320,10 @@
       <c r="CE90" s="2"/>
     </row>
     <row r="91" spans="1:83">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="32" t="s">
         <v>649</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -16439,10 +16437,10 @@
       <c r="CE91" s="2"/>
     </row>
     <row r="92" spans="1:83">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="31" t="s">
         <v>652</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="32" t="s">
         <v>653</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -16556,10 +16554,10 @@
       <c r="CE92" s="2"/>
     </row>
     <row r="93" spans="1:83">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="32" t="s">
         <v>657</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -16755,10 +16753,10 @@
       <c r="CE94" s="2"/>
     </row>
     <row r="95" spans="1:43">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="31" t="s">
         <v>660</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="33" t="s">
         <v>661</v>
       </c>
       <c r="C95" t="s">
@@ -16814,10 +16812,10 @@
       </c>
     </row>
     <row r="96" customFormat="1" ht="15.5" spans="1:49">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="33" t="s">
         <v>667</v>
       </c>
       <c r="C96" t="s">
@@ -16891,10 +16889,10 @@
       </c>
     </row>
     <row r="97" spans="1:65">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="31" t="s">
         <v>676</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="33" t="s">
         <v>677</v>
       </c>
       <c r="C97" t="s">
@@ -17034,10 +17032,10 @@
       </c>
     </row>
     <row r="98" spans="1:47">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="31" t="s">
         <v>693</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="33" t="s">
         <v>694</v>
       </c>
       <c r="C98" t="s">
@@ -17120,10 +17118,10 @@
       </c>
     </row>
     <row r="99" spans="1:47">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="31" t="s">
         <v>707</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="33" t="s">
         <v>708</v>
       </c>
       <c r="C99" t="s">
@@ -17206,10 +17204,10 @@
       </c>
     </row>
     <row r="100" spans="1:47">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="31" t="s">
         <v>710</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="33" t="s">
         <v>711</v>
       </c>
       <c r="C100" t="s">
@@ -17292,10 +17290,10 @@
       </c>
     </row>
     <row r="101" spans="1:47">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="31" t="s">
         <v>713</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="33" t="s">
         <v>714</v>
       </c>
       <c r="C101" t="s">
@@ -17378,10 +17376,10 @@
       </c>
     </row>
     <row r="102" spans="1:47">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="31" t="s">
         <v>716</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>717</v>
       </c>
       <c r="C102" t="s">
@@ -17464,10 +17462,10 @@
       </c>
     </row>
     <row r="103" spans="1:67">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="31" t="s">
         <v>719</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="33" t="s">
         <v>720</v>
       </c>
       <c r="C103" t="s">
@@ -17601,10 +17599,10 @@
       </c>
     </row>
     <row r="104" spans="1:67">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="33" t="s">
         <v>749</v>
       </c>
       <c r="C104" t="s">
@@ -17738,10 +17736,10 @@
       </c>
     </row>
     <row r="105" spans="1:67">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="31" t="s">
         <v>751</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="33" t="s">
         <v>752</v>
       </c>
       <c r="C105" t="s">
@@ -17875,10 +17873,10 @@
       </c>
     </row>
     <row r="106" spans="1:67">
-      <c r="A106" s="32" t="s">
+      <c r="A106" s="31" t="s">
         <v>754</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="33" t="s">
         <v>755</v>
       </c>
       <c r="C106" t="s">
@@ -18012,10 +18010,10 @@
       </c>
     </row>
     <row r="107" spans="1:67">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="33" t="s">
         <v>758</v>
       </c>
       <c r="C107" t="s">
@@ -18149,10 +18147,10 @@
       </c>
     </row>
     <row r="108" spans="1:67">
-      <c r="A108" s="32" t="s">
+      <c r="A108" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="33" t="s">
         <v>586</v>
       </c>
       <c r="C108" t="s">
@@ -18286,10 +18284,10 @@
       </c>
     </row>
     <row r="109" spans="1:67">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="33" t="s">
         <v>761</v>
       </c>
       <c r="C109" t="s">
@@ -18423,10 +18421,10 @@
       </c>
     </row>
     <row r="110" spans="1:67">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="33" t="s">
         <v>764</v>
       </c>
       <c r="C110" t="s">
@@ -18560,10 +18558,10 @@
       </c>
     </row>
     <row r="111" spans="1:67">
-      <c r="A111" s="32" t="s">
+      <c r="A111" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>767</v>
       </c>
       <c r="C111" t="s">
@@ -18697,10 +18695,10 @@
       </c>
     </row>
     <row r="112" spans="1:51">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="33" t="s">
         <v>770</v>
       </c>
       <c r="C112" t="s">
@@ -18795,10 +18793,10 @@
       </c>
     </row>
     <row r="113" spans="1:69">
-      <c r="A113" s="32" t="s">
+      <c r="A113" s="31" t="s">
         <v>777</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="33" t="s">
         <v>778</v>
       </c>
       <c r="C113" t="s">
@@ -18953,10 +18951,10 @@
       </c>
     </row>
     <row r="114" spans="1:79">
-      <c r="A114" s="32" t="s">
+      <c r="A114" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="33" t="s">
         <v>792</v>
       </c>
       <c r="C114" t="s">
@@ -19135,10 +19133,10 @@
       </c>
     </row>
     <row r="115" spans="1:47">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="33" t="s">
         <v>810</v>
       </c>
       <c r="C115" t="s">
@@ -19221,10 +19219,10 @@
       </c>
     </row>
     <row r="116" spans="1:53">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="31" t="s">
         <v>816</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="33" t="s">
         <v>817</v>
       </c>
       <c r="C116" t="s">
@@ -19313,10 +19311,10 @@
       </c>
     </row>
     <row r="117" spans="1:55">
-      <c r="A117" s="32" t="s">
+      <c r="A117" s="31" t="s">
         <v>825</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="33" t="s">
         <v>826</v>
       </c>
       <c r="C117" t="s">
@@ -19411,10 +19409,10 @@
       </c>
     </row>
     <row r="118" spans="1:53">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="31" t="s">
         <v>828</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="33" t="s">
         <v>829</v>
       </c>
       <c r="C118" t="s">
@@ -19512,10 +19510,10 @@
       </c>
     </row>
     <row r="119" spans="1:57">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="31" t="s">
         <v>838</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="33" t="s">
         <v>839</v>
       </c>
       <c r="C119" t="s">
@@ -19625,10 +19623,10 @@
       </c>
     </row>
     <row r="120" spans="1:53">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="31" t="s">
         <v>844</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="33" t="s">
         <v>845</v>
       </c>
       <c r="C120" t="s">
@@ -19714,10 +19712,10 @@
       </c>
     </row>
     <row r="121" spans="1:55">
-      <c r="A121" s="32" t="s">
+      <c r="A121" s="31" t="s">
         <v>854</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="33" t="s">
         <v>855</v>
       </c>
       <c r="C121" t="s">
@@ -19818,10 +19816,10 @@
       </c>
     </row>
     <row r="122" spans="1:55">
-      <c r="A122" s="32" t="s">
+      <c r="A122" s="31" t="s">
         <v>865</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="33" t="s">
         <v>866</v>
       </c>
       <c r="C122" t="s">
@@ -19931,10 +19929,10 @@
       </c>
     </row>
     <row r="123" spans="1:59">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>871</v>
       </c>
       <c r="C123" t="s">
@@ -20056,10 +20054,10 @@
       </c>
     </row>
     <row r="124" spans="1:47">
-      <c r="A124" s="32" t="s">
+      <c r="A124" s="31" t="s">
         <v>875</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="33" t="s">
         <v>876</v>
       </c>
       <c r="C124" t="s">
@@ -20130,10 +20128,10 @@
       </c>
     </row>
     <row r="125" spans="1:49">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="31" t="s">
         <v>885</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="33" t="s">
         <v>886</v>
       </c>
       <c r="C125" t="s">
@@ -20210,10 +20208,10 @@
       </c>
     </row>
     <row r="126" spans="1:47">
-      <c r="A126" s="32" t="s">
+      <c r="A126" s="31" t="s">
         <v>890</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="33" t="s">
         <v>891</v>
       </c>
       <c r="C126" t="s">
@@ -20284,10 +20282,10 @@
       </c>
     </row>
     <row r="127" spans="1:59">
-      <c r="A127" s="32" t="s">
+      <c r="A127" s="31" t="s">
         <v>896</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="33" t="s">
         <v>897</v>
       </c>
       <c r="C127" t="s">
@@ -20394,10 +20392,10 @@
       </c>
     </row>
     <row r="128" spans="1:59">
-      <c r="A128" s="32" t="s">
+      <c r="A128" s="31" t="s">
         <v>906</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="33" t="s">
         <v>907</v>
       </c>
       <c r="C128" t="s">
@@ -20510,10 +20508,10 @@
       </c>
     </row>
     <row r="129" ht="15.5" spans="1:69">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="31" t="s">
         <v>914</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="33" t="s">
         <v>915</v>
       </c>
       <c r="C129" t="s">
@@ -20653,10 +20651,10 @@
       </c>
     </row>
     <row r="130" spans="1:51">
-      <c r="A130" s="32" t="s">
+      <c r="A130" s="31" t="s">
         <v>929</v>
       </c>
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="33" t="s">
         <v>930</v>
       </c>
       <c r="C130" t="s">
@@ -20733,10 +20731,10 @@
       </c>
     </row>
     <row r="131" spans="1:51">
-      <c r="A131" s="32" t="s">
+      <c r="A131" s="31" t="s">
         <v>939</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="33" t="s">
         <v>940</v>
       </c>
       <c r="C131" t="s">
@@ -20813,10 +20811,10 @@
       </c>
     </row>
     <row r="132" spans="1:71">
-      <c r="A132" s="32" t="s">
+      <c r="A132" s="31" t="s">
         <v>943</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="33" t="s">
         <v>944</v>
       </c>
       <c r="C132" t="s">
@@ -20971,10 +20969,10 @@
       </c>
     </row>
     <row r="133" spans="1:53">
-      <c r="A133" s="32" t="s">
+      <c r="A133" s="31" t="s">
         <v>961</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="33" t="s">
         <v>962</v>
       </c>
       <c r="C133" t="s">
@@ -21069,10 +21067,10 @@
       </c>
     </row>
     <row r="134" spans="1:47">
-      <c r="A134" s="32" t="s">
+      <c r="A134" s="31" t="s">
         <v>972</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="33" t="s">
         <v>973</v>
       </c>
       <c r="C134" t="s">
@@ -21146,10 +21144,10 @@
       </c>
     </row>
     <row r="135" spans="1:49">
-      <c r="A135" s="32" t="s">
+      <c r="A135" s="31" t="s">
         <v>982</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="33" t="s">
         <v>983</v>
       </c>
       <c r="C135" t="s">
@@ -21232,10 +21230,10 @@
       </c>
     </row>
     <row r="136" spans="1:67">
-      <c r="A136" s="32" t="s">
+      <c r="A136" s="31" t="s">
         <v>990</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="33" t="s">
         <v>991</v>
       </c>
       <c r="C136" t="s">
@@ -21378,16 +21376,16 @@
       </c>
     </row>
     <row r="137" ht="15.5" spans="1:47">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="31" t="s">
         <v>1001</v>
       </c>
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="33" t="s">
         <v>1002</v>
       </c>
       <c r="C137" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="36" t="s">
+      <c r="D137" s="34" t="s">
         <v>1003</v>
       </c>
       <c r="E137" t="s">
@@ -21455,10 +21453,10 @@
       </c>
     </row>
     <row r="138" spans="1:47">
-      <c r="A138" s="32" t="s">
+      <c r="A138" s="31" t="s">
         <v>1008</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="33" t="s">
         <v>1009</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -21541,10 +21539,10 @@
       </c>
     </row>
     <row r="139" spans="1:51">
-      <c r="A139" s="32" t="s">
+      <c r="A139" s="31" t="s">
         <v>1012</v>
       </c>
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="33" t="s">
         <v>1013</v>
       </c>
       <c r="C139" t="s">
@@ -21639,10 +21637,10 @@
       </c>
     </row>
     <row r="140" spans="1:53">
-      <c r="A140" s="32" t="s">
+      <c r="A140" s="31" t="s">
         <v>1019</v>
       </c>
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="33" t="s">
         <v>1020</v>
       </c>
       <c r="C140" t="s">
@@ -21743,16 +21741,16 @@
       </c>
     </row>
     <row r="141" spans="1:63">
-      <c r="A141" s="37" t="s">
+      <c r="A141" s="35" t="s">
         <v>1027</v>
       </c>
-      <c r="B141" s="37" t="s">
+      <c r="B141" s="35" t="s">
         <v>1028</v>
       </c>
       <c r="C141" t="s">
         <v>127</v>
       </c>
-      <c r="D141" s="38" t="s">
+      <c r="D141" s="36" t="s">
         <v>1029</v>
       </c>
       <c r="E141" t="s">
@@ -21977,7 +21975,7 @@
       <c r="P143">
         <v>1</v>
       </c>
-      <c r="Q143" s="35" t="s">
+      <c r="Q143" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R143" s="2">
@@ -22045,7 +22043,7 @@
       <c r="P144">
         <v>1</v>
       </c>
-      <c r="Q144" s="35" t="s">
+      <c r="Q144" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R144" s="2">
@@ -22113,7 +22111,7 @@
       <c r="P145">
         <v>1</v>
       </c>
-      <c r="Q145" s="35" t="s">
+      <c r="Q145" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R145" s="2">
@@ -22181,7 +22179,7 @@
       <c r="P146">
         <v>1</v>
       </c>
-      <c r="Q146" s="35" t="s">
+      <c r="Q146" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R146" s="2">
@@ -22255,7 +22253,7 @@
       <c r="P147">
         <v>1</v>
       </c>
-      <c r="Q147" s="35" t="s">
+      <c r="Q147" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R147" s="2">
@@ -22338,7 +22336,7 @@
       <c r="P148">
         <v>1</v>
       </c>
-      <c r="Q148" s="35" t="s">
+      <c r="Q148" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R148" s="2">
@@ -22412,7 +22410,7 @@
       <c r="P149">
         <v>1</v>
       </c>
-      <c r="Q149" s="35" t="s">
+      <c r="Q149" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R149" s="2">
@@ -22537,7 +22535,7 @@
       <c r="P150">
         <v>1</v>
       </c>
-      <c r="Q150" s="35" t="s">
+      <c r="Q150" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R150" s="2">
@@ -22614,7 +22612,7 @@
       <c r="P151">
         <v>1</v>
       </c>
-      <c r="Q151" s="35" t="s">
+      <c r="Q151" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R151" s="2">
@@ -22784,7 +22782,7 @@
       <c r="P152">
         <v>1</v>
       </c>
-      <c r="Q152" s="35" t="s">
+      <c r="Q152" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R152" s="2">
@@ -22936,7 +22934,7 @@
       <c r="P153">
         <v>1</v>
       </c>
-      <c r="Q153" s="35" t="s">
+      <c r="Q153" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R153" s="2">
@@ -23043,7 +23041,7 @@
       <c r="P154">
         <v>1</v>
       </c>
-      <c r="Q154" s="35" t="s">
+      <c r="Q154" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R154" s="2">
@@ -23141,7 +23139,7 @@
       <c r="P155">
         <v>1</v>
       </c>
-      <c r="Q155" s="35" t="s">
+      <c r="Q155" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R155" s="2">
@@ -23245,7 +23243,7 @@
       <c r="P156">
         <v>1</v>
       </c>
-      <c r="Q156" s="35" t="s">
+      <c r="Q156" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R156" s="2">
@@ -23340,7 +23338,7 @@
       <c r="P157">
         <v>1</v>
       </c>
-      <c r="Q157" s="35" t="s">
+      <c r="Q157" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R157" s="2">
@@ -23489,7 +23487,7 @@
       <c r="P158">
         <v>1</v>
       </c>
-      <c r="Q158" s="35" t="s">
+      <c r="Q158" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R158" s="2">
@@ -23677,7 +23675,7 @@
       <c r="P159">
         <v>1</v>
       </c>
-      <c r="Q159" s="35" t="s">
+      <c r="Q159" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R159" s="2">
@@ -23838,7 +23836,7 @@
       <c r="C160" t="s">
         <v>127</v>
       </c>
-      <c r="D160" s="36" t="s">
+      <c r="D160" s="34" t="s">
         <v>1194</v>
       </c>
       <c r="E160" t="s">
@@ -23865,7 +23863,7 @@
       <c r="P160">
         <v>1</v>
       </c>
-      <c r="Q160" s="35" t="s">
+      <c r="Q160" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R160" s="2">
@@ -23999,7 +23997,7 @@
       <c r="P161">
         <v>1</v>
       </c>
-      <c r="Q161" s="35" t="s">
+      <c r="Q161" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R161" s="2">
@@ -24106,7 +24104,7 @@
       <c r="P162">
         <v>1</v>
       </c>
-      <c r="Q162" s="35" t="s">
+      <c r="Q162" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R162" s="2">
@@ -24228,7 +24226,7 @@
       <c r="P163">
         <v>1</v>
       </c>
-      <c r="Q163" s="35" t="s">
+      <c r="Q163" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R163" s="2">
@@ -24344,7 +24342,7 @@
       <c r="P164">
         <v>1</v>
       </c>
-      <c r="Q164" s="35" t="s">
+      <c r="Q164" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R164" s="2">
@@ -24451,7 +24449,7 @@
       <c r="P165">
         <v>1</v>
       </c>
-      <c r="Q165" s="35" t="s">
+      <c r="Q165" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R165" s="2">
@@ -24534,16 +24532,16 @@
       </c>
     </row>
     <row r="166" ht="15.5" spans="1:57">
-      <c r="A166" s="39" t="s">
+      <c r="A166" s="37" t="s">
         <v>1241</v>
       </c>
-      <c r="B166" s="40" t="s">
+      <c r="B166" s="38" t="s">
         <v>1242</v>
       </c>
       <c r="C166" t="s">
         <v>127</v>
       </c>
-      <c r="D166" s="36" t="s">
+      <c r="D166" s="34" t="s">
         <v>1243</v>
       </c>
       <c r="E166" t="s">
@@ -24564,7 +24562,7 @@
       <c r="P166">
         <v>1</v>
       </c>
-      <c r="Q166" s="35" t="s">
+      <c r="Q166" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R166" s="2">
@@ -24644,7 +24642,7 @@
       <c r="A167" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="B167" s="40" t="s">
+      <c r="B167" s="38" t="s">
         <v>1247</v>
       </c>
       <c r="C167" t="s">
@@ -24671,7 +24669,7 @@
       <c r="P167">
         <v>1</v>
       </c>
-      <c r="Q167" s="35" t="s">
+      <c r="Q167" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R167" s="2">
@@ -24799,7 +24797,7 @@
       <c r="A168" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="B168" s="40" t="s">
+      <c r="B168" s="38" t="s">
         <v>1247</v>
       </c>
       <c r="C168" t="s">
@@ -24826,7 +24824,7 @@
       <c r="P168">
         <v>1</v>
       </c>
-      <c r="Q168" s="35" t="s">
+      <c r="Q168" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R168" s="2">
@@ -24990,7 +24988,7 @@
       <c r="P169">
         <v>1</v>
       </c>
-      <c r="Q169" s="35" t="s">
+      <c r="Q169" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R169" s="2">
@@ -25085,7 +25083,7 @@
       <c r="P170">
         <v>1</v>
       </c>
-      <c r="Q170" s="35" t="s">
+      <c r="Q170" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R170" s="2">
@@ -25165,7 +25163,7 @@
       </c>
     </row>
     <row r="171" spans="1:81">
-      <c r="A171" s="41" t="s">
+      <c r="A171" s="39" t="s">
         <v>1272</v>
       </c>
       <c r="B171" s="20" t="s">
@@ -25174,7 +25172,7 @@
       <c r="C171" t="s">
         <v>127</v>
       </c>
-      <c r="D171" s="41" t="s">
+      <c r="D171" s="39" t="s">
         <v>1274</v>
       </c>
       <c r="E171" t="s">
@@ -25198,7 +25196,7 @@
       <c r="P171">
         <v>1</v>
       </c>
-      <c r="Q171" s="35" t="s">
+      <c r="Q171" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R171" s="2">
@@ -25344,7 +25342,7 @@
       </c>
     </row>
     <row r="172" spans="1:83">
-      <c r="A172" s="41" t="s">
+      <c r="A172" s="39" t="s">
         <v>1276</v>
       </c>
       <c r="B172" s="26" t="s">
@@ -25386,7 +25384,7 @@
       <c r="P172" s="2">
         <v>1</v>
       </c>
-      <c r="Q172" s="35" t="s">
+      <c r="Q172" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R172" s="2">
@@ -25512,7 +25510,7 @@
       <c r="A173" t="s">
         <v>1279</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="36" t="s">
         <v>1280</v>
       </c>
       <c r="C173" t="s">
@@ -25551,7 +25549,7 @@
       <c r="P173">
         <v>1</v>
       </c>
-      <c r="Q173" s="35" t="s">
+      <c r="Q173" s="2" t="s">
         <v>172</v>
       </c>
       <c r="R173" s="2">
@@ -29730,7 +29728,7 @@
       <c r="C211" t="s">
         <v>127</v>
       </c>
-      <c r="D211" s="36" t="s">
+      <c r="D211" s="34" t="s">
         <v>1584</v>
       </c>
       <c r="E211" t="s">
@@ -31090,7 +31088,7 @@
       <c r="C222" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D222" s="42" t="s">
+      <c r="D222" s="40" t="s">
         <v>1707</v>
       </c>
       <c r="E222" s="3" t="s">
@@ -34867,7 +34865,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="U201:CE201 U206:CE206 U196:CE197 U205:CE205 AA3:CE3 U3:X3 U1:CE1 X2:Y2 U2:V2 AA2:CE2 U140:CE140 U138:CE138 U179:CE179 U180:CE180 U178:CE178 U181:CE181 U182:CE183 U190:CE190 U193:CE193 U195:CE195 U189:CE189 U194:CE194 U187:CE187 U191:CE192 U202:CE202 U208:CE208 U213:CE213 U211:CE211 U216:CE216 U217:CE217 U215:CE215 U204:CE204 U218:CE218 K189:O189 K187:O187 J218:O218 K204:O204 K215:O215 K217:O217 K216:O216 K211:O211 K213:O213 K208:O208 K202:O202 K192:O192 K191:O191 K196:O196 K197:O197 K195:O195 K193:O193 K190:O190 K183:O183 K140:O140 K181:O181 K182:O182 K178:O178 K180:O180 K179:O179 K138:O138 J1:O2 K3:O3 K205:O205 K206:O206 K201:O201 K194:O194 A201:C201 E201:H201 A206 A196:H197 A202:C202 E202:H202 E3:H3 B3:C3 A1:H2 G140:H140 A140:E140 A138:H138 A179 C179:H179 A178:H178 A180 C180:H180 C181:H181 A182:H183 C190:H190 F187:H187 C195:H195 A195 A189:H189 E194:H194 C194 E193:H193 A193:C193 A191:H192 E206:H206 C206 F205:H205 C205 F204:H204 C208 C213 E208:H208 C204 A211:H211 F213:H213 E216:H216 A213 A215 C215:H215 A216 C216 A217 C217 E217:H217 C218 E218:H218" numberStoredAsText="1"/>
+    <ignoredError sqref="E218:H218 C218 E217:H217 C217 A217 C216 A216 C215:H215 A215 A213 E216:H216 F213:H213 A211:H211 C204 E208:H208 C213 C208 F204:H204 C205 F205:H205 C206 E206:H206 A191:H192 A193:C193 E193:H193 C194 E194:H194 A189:H189 A195 C195:H195 F187:H187 C190:H190 A182:H183 C181:H181 C180:H180 A180 A178:H178 C179:H179 A138:H138 A140:E140 G140:H140 A1:H2 B3:C3 E3:H3 E202:H202 A202:C202 A196:H197 A206 E201:H201 A201:C201 K194:O194 K201:O201 K206:O206 K205:O205 K3:O3 J1:O2 K138:O138 K179:O179 K180:O180 K178:O178 K182:O182 K181:O181 K140:O140 K183:O183 K190:O190 K193:O193 K195:O195 K197:O197 K196:O196 K191:O191 K192:O192 K202:O202 K208:O208 K213:O213 K211:O211 K216:O216 K217:O217 K215:O215 K204:O204 J218:O218 K187:O187 K189:O189 U218:CE218 U204:CE204 U215:CE215 U217:CE217 U216:CE216 U211:CE211 U213:CE213 U208:CE208 U202:CE202 U191:CE192 U187:CE187 U194:CE194 U189:CE189 U195:CE195 U193:CE193 U190:CE190 U182:CE183 U181:CE181 U178:CE178 U180:CE180 U179:CE179 U138:CE138 U140:CE140 AA2:CE2 U2:V2 X2:Y2 U1:CE1 U3:X3 AA3:CE3 U205:CE205 U196:CE197 U206:CE206 U201:CE201" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -35925,7 +35923,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="W1:CG1 W2:CG2 W3:CG4 T3:T4 T2 T1 A1:Q1 A2:J2 L2:Q2 A3:Q4" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:Q4 L2:Q2 A2:J2 A1:Q1 T1 T2 T3:T4 W3:CG4 W2:CG2 W1:CG1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
